--- a/tables/tableS1_subset_and_class_analysis.xlsx
+++ b/tables/tableS1_subset_and_class_analysis.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/irbraun/NetBeansProjects/term-mapping/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{887C1F40-2CF6-7E4B-BD31-D4897BA2174D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48FCC68-63C6-234E-BC12-476708B51C74}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="49340" windowHeight="26840"/>
+    <workbookView xWindow="4660" yWindow="460" windowWidth="44680" windowHeight="26840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="table6_classification_expanded" sheetId="1" r:id="rId1"/>
+    <sheet name="phenotype_descriptions" sheetId="1" r:id="rId1"/>
+    <sheet name="phene_descriptions" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="71">
   <si>
     <t>Doc2Vec</t>
   </si>
@@ -238,9 +239,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -719,15 +720,18 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1082,11 +1086,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O56" sqref="O56"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AB48" sqref="AB48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1097,36 +1101,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2" t="s">
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2" t="s">
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2" t="s">
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2" t="s">
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1215,58 +1219,58 @@
       <c r="E3" s="1">
         <v>2331</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3">
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
         <v>-0.50600000000000001</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="2">
         <v>-0.4</v>
       </c>
-      <c r="K3" s="3">
-        <v>0</v>
-      </c>
-      <c r="L3" s="3">
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="2">
         <v>3.1E-2</v>
       </c>
-      <c r="N3" s="3">
-        <v>0</v>
-      </c>
-      <c r="O3" s="3">
+      <c r="N3" s="2">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2">
         <v>0.64400000000000002</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P3" s="2">
         <v>0.55200000000000005</v>
       </c>
-      <c r="Q3" s="3">
-        <v>0</v>
-      </c>
-      <c r="R3" s="3">
+      <c r="Q3" s="2">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="S3" s="3">
+      <c r="S3" s="2">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="T3" s="3">
-        <v>0</v>
-      </c>
-      <c r="U3" s="3">
+      <c r="T3" s="2">
+        <v>0</v>
+      </c>
+      <c r="U3" s="2">
         <v>0.10299999999999999</v>
       </c>
-      <c r="V3" s="3">
+      <c r="V3" s="2">
         <v>2.4E-2</v>
       </c>
-      <c r="W3" s="3">
+      <c r="W3" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1286,58 +1290,58 @@
       <c r="E4" s="1">
         <v>2371</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>0.378</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3">
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
         <v>-0.495</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="2">
         <v>-0.375</v>
       </c>
-      <c r="K4" s="3">
-        <v>0</v>
-      </c>
-      <c r="L4" s="3">
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
         <v>5.5E-2</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="2">
         <v>0.04</v>
       </c>
-      <c r="N4" s="3">
-        <v>0</v>
-      </c>
-      <c r="O4" s="3">
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
         <v>0.70699999999999996</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4" s="2">
         <v>0.53700000000000003</v>
       </c>
-      <c r="Q4" s="3">
-        <v>0</v>
-      </c>
-      <c r="R4" s="3">
+      <c r="Q4" s="2">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2">
         <v>0.20599999999999999</v>
       </c>
-      <c r="S4" s="3">
+      <c r="S4" s="2">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="T4" s="3">
-        <v>0</v>
-      </c>
-      <c r="U4" s="3">
+      <c r="T4" s="2">
+        <v>0</v>
+      </c>
+      <c r="U4" s="2">
         <v>0.35499999999999998</v>
       </c>
-      <c r="V4" s="3">
+      <c r="V4" s="2">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="W4" s="3">
+      <c r="W4" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1357,58 +1361,58 @@
       <c r="E5" s="1">
         <v>2275</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>0.158</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3">
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
         <v>-0.51100000000000001</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="2">
         <v>-0.39100000000000001</v>
       </c>
-      <c r="K5" s="3">
-        <v>0</v>
-      </c>
-      <c r="L5" s="3">
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="2">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="N5" s="3">
-        <v>0</v>
-      </c>
-      <c r="O5" s="3">
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
         <v>0.64900000000000002</v>
       </c>
-      <c r="P5" s="3">
+      <c r="P5" s="2">
         <v>0.54600000000000004</v>
       </c>
-      <c r="Q5" s="3">
-        <v>0</v>
-      </c>
-      <c r="R5" s="3">
+      <c r="Q5" s="2">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2">
         <v>0.14599999999999999</v>
       </c>
-      <c r="S5" s="3">
+      <c r="S5" s="2">
         <v>1.9E-2</v>
       </c>
-      <c r="T5" s="3">
-        <v>0</v>
-      </c>
-      <c r="U5" s="3">
+      <c r="T5" s="2">
+        <v>0</v>
+      </c>
+      <c r="U5" s="2">
         <v>0.252</v>
       </c>
-      <c r="V5" s="3">
+      <c r="V5" s="2">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="W5" s="3">
+      <c r="W5" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1428,58 +1432,58 @@
       <c r="E6" s="1">
         <v>2262</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>0.28599999999999998</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3">
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
         <v>-0.154</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="2">
         <v>-0.20100000000000001</v>
       </c>
-      <c r="K6" s="3">
-        <v>0</v>
-      </c>
-      <c r="L6" s="3">
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
         <v>0.13200000000000001</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="2">
         <v>3.9E-2</v>
       </c>
-      <c r="N6" s="3">
-        <v>0</v>
-      </c>
-      <c r="O6" s="3">
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
         <v>0.746</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6" s="2">
         <v>0.55800000000000005</v>
       </c>
-      <c r="Q6" s="3">
-        <v>0</v>
-      </c>
-      <c r="R6" s="3">
+      <c r="Q6" s="2">
+        <v>0</v>
+      </c>
+      <c r="R6" s="2">
         <v>0.19800000000000001</v>
       </c>
-      <c r="S6" s="3">
+      <c r="S6" s="2">
         <v>2.7E-2</v>
       </c>
-      <c r="T6" s="3">
-        <v>0</v>
-      </c>
-      <c r="U6" s="3">
+      <c r="T6" s="2">
+        <v>0</v>
+      </c>
+      <c r="U6" s="2">
         <v>0.33600000000000002</v>
       </c>
-      <c r="V6" s="3">
+      <c r="V6" s="2">
         <v>5.5E-2</v>
       </c>
-      <c r="W6" s="3">
+      <c r="W6" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1490,67 +1494,67 @@
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>357</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>2058</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>0.1</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="H7" s="5">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5">
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
         <v>-0.40100000000000002</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="4">
         <v>-0.309</v>
       </c>
-      <c r="K7" s="5">
-        <v>0</v>
-      </c>
-      <c r="L7" s="5">
+      <c r="K7" s="4">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="4">
         <v>3.9E-2</v>
       </c>
-      <c r="N7" s="5">
-        <v>0</v>
-      </c>
-      <c r="O7" s="5">
+      <c r="N7" s="4">
+        <v>0</v>
+      </c>
+      <c r="O7" s="4">
         <v>0.624</v>
       </c>
-      <c r="P7" s="5">
+      <c r="P7" s="4">
         <v>0.54700000000000004</v>
       </c>
-      <c r="Q7" s="5">
-        <v>0</v>
-      </c>
-      <c r="R7" s="5">
+      <c r="Q7" s="4">
+        <v>0</v>
+      </c>
+      <c r="R7" s="4">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="S7" s="5">
+      <c r="S7" s="4">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="T7" s="5">
-        <v>0</v>
-      </c>
-      <c r="U7" s="5">
+      <c r="T7" s="4">
+        <v>0</v>
+      </c>
+      <c r="U7" s="4">
         <v>0.128</v>
       </c>
-      <c r="V7" s="5">
+      <c r="V7" s="4">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="W7" s="5">
+      <c r="W7" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1570,58 +1574,58 @@
       <c r="E8" s="1">
         <v>2346</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>0.12</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <v>0.01</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="2">
         <v>-0.114</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
         <v>0.30599999999999999</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="2">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3">
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
         <v>0.70199999999999996</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8" s="2">
         <v>0.56799999999999995</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
-      <c r="R8" s="3">
+      <c r="Q8" s="2">
+        <v>0</v>
+      </c>
+      <c r="R8" s="2">
         <v>0.20399999999999999</v>
       </c>
-      <c r="S8" s="3">
+      <c r="S8" s="2">
         <v>2.4E-2</v>
       </c>
-      <c r="T8" s="3">
-        <v>0</v>
-      </c>
-      <c r="U8" s="3">
+      <c r="T8" s="2">
+        <v>0</v>
+      </c>
+      <c r="U8" s="2">
         <v>0.371</v>
       </c>
-      <c r="V8" s="3">
+      <c r="V8" s="2">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="W8" s="3">
+      <c r="W8" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1632,67 +1636,67 @@
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>53</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>2346</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <v>0.12</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="4">
         <v>0.01</v>
       </c>
-      <c r="H9" s="5">
-        <v>0</v>
-      </c>
-      <c r="I9" s="5">
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="4">
         <v>-0.114</v>
       </c>
-      <c r="K9" s="5">
-        <v>0</v>
-      </c>
-      <c r="L9" s="5">
+      <c r="K9" s="4">
+        <v>0</v>
+      </c>
+      <c r="L9" s="4">
         <v>0.30599999999999999</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="4">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="N9" s="5">
-        <v>0</v>
-      </c>
-      <c r="O9" s="5">
+      <c r="N9" s="4">
+        <v>0</v>
+      </c>
+      <c r="O9" s="4">
         <v>0.70199999999999996</v>
       </c>
-      <c r="P9" s="5">
+      <c r="P9" s="4">
         <v>0.56799999999999995</v>
       </c>
-      <c r="Q9" s="5">
-        <v>0</v>
-      </c>
-      <c r="R9" s="5">
+      <c r="Q9" s="4">
+        <v>0</v>
+      </c>
+      <c r="R9" s="4">
         <v>0.20399999999999999</v>
       </c>
-      <c r="S9" s="5">
+      <c r="S9" s="4">
         <v>2.4E-2</v>
       </c>
-      <c r="T9" s="5">
-        <v>0</v>
-      </c>
-      <c r="U9" s="5">
+      <c r="T9" s="4">
+        <v>0</v>
+      </c>
+      <c r="U9" s="4">
         <v>0.371</v>
       </c>
-      <c r="V9" s="5">
+      <c r="V9" s="4">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="W9" s="5">
+      <c r="W9" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1712,58 +1716,58 @@
       <c r="E10" s="1">
         <v>2209</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>0.28699999999999998</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
         <v>-0.183</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="2">
         <v>-0.19600000000000001</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="2">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="2">
         <v>0.11899999999999999</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="2">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
         <v>0.65500000000000003</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10" s="2">
         <v>0.53400000000000003</v>
       </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
-      <c r="R10" s="3">
+      <c r="Q10" s="2">
+        <v>0</v>
+      </c>
+      <c r="R10" s="2">
         <v>0.16500000000000001</v>
       </c>
-      <c r="S10" s="3">
+      <c r="S10" s="2">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="T10" s="3">
-        <v>0</v>
-      </c>
-      <c r="U10" s="3">
+      <c r="T10" s="2">
+        <v>0</v>
+      </c>
+      <c r="U10" s="2">
         <v>0.30199999999999999</v>
       </c>
-      <c r="V10" s="3">
+      <c r="V10" s="2">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="W10" s="3">
+      <c r="W10" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1783,58 +1787,58 @@
       <c r="E11" s="1">
         <v>2290</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>7.8E-2</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="H11" s="3">
-        <v>0</v>
-      </c>
-      <c r="I11" s="3">
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
         <v>-0.57599999999999996</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="2">
         <v>-0.439</v>
       </c>
-      <c r="K11" s="3">
-        <v>0</v>
-      </c>
-      <c r="L11" s="3">
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M11" s="2">
         <v>0.04</v>
       </c>
-      <c r="N11" s="3">
-        <v>0</v>
-      </c>
-      <c r="O11" s="3">
+      <c r="N11" s="2">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2">
         <v>0.63800000000000001</v>
       </c>
-      <c r="P11" s="3">
+      <c r="P11" s="2">
         <v>0.53300000000000003</v>
       </c>
-      <c r="Q11" s="3">
-        <v>0</v>
-      </c>
-      <c r="R11" s="3">
+      <c r="Q11" s="2">
+        <v>0</v>
+      </c>
+      <c r="R11" s="2">
         <v>0.122</v>
       </c>
-      <c r="S11" s="3">
+      <c r="S11" s="2">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="T11" s="3">
-        <v>0</v>
-      </c>
-      <c r="U11" s="3">
+      <c r="T11" s="2">
+        <v>0</v>
+      </c>
+      <c r="U11" s="2">
         <v>0.219</v>
       </c>
-      <c r="V11" s="3">
+      <c r="V11" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="W11" s="3">
+      <c r="W11" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1845,67 +1849,67 @@
       <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>299</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>2113</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <v>0.186</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="4">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="H12" s="5">
-        <v>0</v>
-      </c>
-      <c r="I12" s="5">
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
         <v>-0.33800000000000002</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="4">
         <v>-0.27</v>
       </c>
-      <c r="K12" s="5">
-        <v>0</v>
-      </c>
-      <c r="L12" s="5">
+      <c r="K12" s="4">
+        <v>0</v>
+      </c>
+      <c r="L12" s="4">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="4">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="N12" s="5">
-        <v>0</v>
-      </c>
-      <c r="O12" s="5">
+      <c r="N12" s="4">
+        <v>0</v>
+      </c>
+      <c r="O12" s="4">
         <v>0.63800000000000001</v>
       </c>
-      <c r="P12" s="5">
+      <c r="P12" s="4">
         <v>0.52900000000000003</v>
       </c>
-      <c r="Q12" s="5">
-        <v>0</v>
-      </c>
-      <c r="R12" s="5">
+      <c r="Q12" s="4">
+        <v>0</v>
+      </c>
+      <c r="R12" s="4">
         <v>0.13700000000000001</v>
       </c>
-      <c r="S12" s="5">
+      <c r="S12" s="4">
         <v>0.03</v>
       </c>
-      <c r="T12" s="5">
-        <v>0</v>
-      </c>
-      <c r="U12" s="5">
+      <c r="T12" s="4">
+        <v>0</v>
+      </c>
+      <c r="U12" s="4">
         <v>0.254</v>
       </c>
-      <c r="V12" s="5">
+      <c r="V12" s="4">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="W12" s="5">
+      <c r="W12" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1925,58 +1929,58 @@
       <c r="E13" s="1">
         <v>2393</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <v>0.17799999999999999</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="2">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="2">
         <v>0.41299999999999998</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="2">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="2">
         <v>-0.10199999999999999</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="2">
         <v>0.61</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L13" s="2">
         <v>0.30199999999999999</v>
       </c>
-      <c r="M13" s="3">
+      <c r="M13" s="2">
         <v>6.2E-2</v>
       </c>
-      <c r="N13" s="3">
-        <v>0</v>
-      </c>
-      <c r="O13" s="3">
+      <c r="N13" s="2">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2">
         <v>0.77900000000000003</v>
       </c>
-      <c r="P13" s="3">
+      <c r="P13" s="2">
         <v>0.56000000000000005</v>
       </c>
-      <c r="Q13" s="3">
-        <v>0</v>
-      </c>
-      <c r="R13" s="3">
+      <c r="Q13" s="2">
+        <v>0</v>
+      </c>
+      <c r="R13" s="2">
         <v>0.32200000000000001</v>
       </c>
-      <c r="S13" s="3">
+      <c r="S13" s="2">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="T13" s="3">
-        <v>0</v>
-      </c>
-      <c r="U13" s="3">
+      <c r="T13" s="2">
+        <v>0</v>
+      </c>
+      <c r="U13" s="2">
         <v>0.44600000000000001</v>
       </c>
-      <c r="V13" s="3">
+      <c r="V13" s="2">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="W13" s="3">
+      <c r="W13" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1987,67 +1991,67 @@
       <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>6</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>2393</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="4">
         <v>0.17799999999999999</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="4">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="4">
         <v>0.41299999999999998</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="4">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="4">
         <v>-0.10199999999999999</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="4">
         <v>0.61</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="4">
         <v>0.30199999999999999</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M14" s="4">
         <v>6.2E-2</v>
       </c>
-      <c r="N14" s="5">
-        <v>0</v>
-      </c>
-      <c r="O14" s="5">
+      <c r="N14" s="4">
+        <v>0</v>
+      </c>
+      <c r="O14" s="4">
         <v>0.77900000000000003</v>
       </c>
-      <c r="P14" s="5">
+      <c r="P14" s="4">
         <v>0.56000000000000005</v>
       </c>
-      <c r="Q14" s="5">
-        <v>0</v>
-      </c>
-      <c r="R14" s="5">
+      <c r="Q14" s="4">
+        <v>0</v>
+      </c>
+      <c r="R14" s="4">
         <v>0.32200000000000001</v>
       </c>
-      <c r="S14" s="5">
+      <c r="S14" s="4">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="T14" s="5">
-        <v>0</v>
-      </c>
-      <c r="U14" s="5">
+      <c r="T14" s="4">
+        <v>0</v>
+      </c>
+      <c r="U14" s="4">
         <v>0.44600000000000001</v>
       </c>
-      <c r="V14" s="5">
+      <c r="V14" s="4">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="W14" s="5">
+      <c r="W14" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2067,58 +2071,58 @@
       <c r="E15" s="1">
         <v>2345</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
         <v>0.50900000000000001</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="2">
         <v>0.104</v>
       </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
         <v>0.51700000000000002</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="2">
         <v>-4.1000000000000002E-2</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3">
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
         <v>0.52200000000000002</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15" s="2">
         <v>0.13900000000000001</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3">
+      <c r="N15" s="2">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2">
         <v>0.89100000000000001</v>
       </c>
-      <c r="P15" s="3">
+      <c r="P15" s="2">
         <v>0.59199999999999997</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
-      </c>
-      <c r="R15" s="3">
+      <c r="Q15" s="2">
+        <v>0</v>
+      </c>
+      <c r="R15" s="2">
         <v>0.57599999999999996</v>
       </c>
-      <c r="S15" s="3">
+      <c r="S15" s="2">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="T15" s="3">
-        <v>0</v>
-      </c>
-      <c r="U15" s="3">
+      <c r="T15" s="2">
+        <v>0</v>
+      </c>
+      <c r="U15" s="2">
         <v>0.81499999999999995</v>
       </c>
-      <c r="V15" s="3">
+      <c r="V15" s="2">
         <v>0.13700000000000001</v>
       </c>
-      <c r="W15" s="3">
+      <c r="W15" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2138,58 +2142,58 @@
       <c r="E16" s="1">
         <v>2249</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="2">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="H16" s="3">
-        <v>0</v>
-      </c>
-      <c r="I16" s="3">
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
         <v>0.11</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="2">
         <v>-0.114</v>
       </c>
-      <c r="K16" s="3">
-        <v>0</v>
-      </c>
-      <c r="L16" s="3">
+      <c r="K16" s="2">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2">
         <v>0.25800000000000001</v>
       </c>
-      <c r="M16" s="3">
+      <c r="M16" s="2">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="N16" s="3">
-        <v>0</v>
-      </c>
-      <c r="O16" s="3">
+      <c r="N16" s="2">
+        <v>0</v>
+      </c>
+      <c r="O16" s="2">
         <v>0.68600000000000005</v>
       </c>
-      <c r="P16" s="3">
+      <c r="P16" s="2">
         <v>0.54200000000000004</v>
       </c>
-      <c r="Q16" s="3">
-        <v>0</v>
-      </c>
-      <c r="R16" s="3">
+      <c r="Q16" s="2">
+        <v>0</v>
+      </c>
+      <c r="R16" s="2">
         <v>0.16300000000000001</v>
       </c>
-      <c r="S16" s="3">
+      <c r="S16" s="2">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="T16" s="3">
-        <v>0</v>
-      </c>
-      <c r="U16" s="3">
+      <c r="T16" s="2">
+        <v>0</v>
+      </c>
+      <c r="U16" s="2">
         <v>0.28799999999999998</v>
       </c>
-      <c r="V16" s="3">
+      <c r="V16" s="2">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="W16" s="3">
+      <c r="W16" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2209,58 +2213,58 @@
       <c r="E17" s="1">
         <v>2252</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="2">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="2">
         <v>1.6E-2</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
         <v>-0.114</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="2">
         <v>-0.16900000000000001</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="K17" s="2">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2">
         <v>0.122</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M17" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="N17" s="2">
+        <v>0</v>
+      </c>
+      <c r="O17" s="2">
         <v>0.63600000000000001</v>
       </c>
-      <c r="P17" s="3">
+      <c r="P17" s="2">
         <v>0.55800000000000005</v>
       </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
-      <c r="R17" s="3">
+      <c r="Q17" s="2">
+        <v>0</v>
+      </c>
+      <c r="R17" s="2">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="S17" s="3">
+      <c r="S17" s="2">
         <v>2.4E-2</v>
       </c>
-      <c r="T17" s="3">
-        <v>0</v>
-      </c>
-      <c r="U17" s="3">
+      <c r="T17" s="2">
+        <v>0</v>
+      </c>
+      <c r="U17" s="2">
         <v>0.14499999999999999</v>
       </c>
-      <c r="V17" s="3">
+      <c r="V17" s="2">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="W17" s="3">
+      <c r="W17" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2280,58 +2284,58 @@
       <c r="E18" s="1">
         <v>2324</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="2">
         <v>0.59499999999999997</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="2">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
         <v>0.40400000000000003</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="2">
         <v>-8.3000000000000004E-2</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="K18" s="2">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2">
         <v>0.61699999999999999</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="2">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="N18" s="2">
+        <v>0</v>
+      </c>
+      <c r="O18" s="2">
         <v>0.89200000000000002</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18" s="2">
         <v>0.56100000000000005</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="Q18" s="2">
+        <v>0</v>
+      </c>
+      <c r="R18" s="2">
         <v>0.53700000000000003</v>
       </c>
-      <c r="S18" s="3">
+      <c r="S18" s="2">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
-      <c r="U18" s="3">
+      <c r="T18" s="2">
+        <v>0</v>
+      </c>
+      <c r="U18" s="2">
         <v>0.76</v>
       </c>
-      <c r="V18" s="3">
+      <c r="V18" s="2">
         <v>0.1</v>
       </c>
-      <c r="W18" s="3">
+      <c r="W18" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2351,58 +2355,58 @@
       <c r="E19" s="1">
         <v>2367</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="2">
         <v>0.69699999999999995</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="2">
         <v>0.112</v>
       </c>
-      <c r="H19" s="3">
-        <v>0</v>
-      </c>
-      <c r="I19" s="3">
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2">
         <v>0.68300000000000005</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J19" s="2">
         <v>-0.02</v>
       </c>
-      <c r="K19" s="3">
-        <v>0</v>
-      </c>
-      <c r="L19" s="3">
+      <c r="K19" s="2">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2">
         <v>0.64700000000000002</v>
       </c>
-      <c r="M19" s="3">
+      <c r="M19" s="2">
         <v>0.13500000000000001</v>
       </c>
-      <c r="N19" s="3">
-        <v>0</v>
-      </c>
-      <c r="O19" s="3">
+      <c r="N19" s="2">
+        <v>0</v>
+      </c>
+      <c r="O19" s="2">
         <v>0.93799999999999994</v>
       </c>
-      <c r="P19" s="3">
+      <c r="P19" s="2">
         <v>0.58799999999999997</v>
       </c>
-      <c r="Q19" s="3">
-        <v>0</v>
-      </c>
-      <c r="R19" s="3">
+      <c r="Q19" s="2">
+        <v>0</v>
+      </c>
+      <c r="R19" s="2">
         <v>0.68700000000000006</v>
       </c>
-      <c r="S19" s="3">
+      <c r="S19" s="2">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="T19" s="3">
-        <v>0</v>
-      </c>
-      <c r="U19" s="3">
+      <c r="T19" s="2">
+        <v>0</v>
+      </c>
+      <c r="U19" s="2">
         <v>0.873</v>
       </c>
-      <c r="V19" s="3">
+      <c r="V19" s="2">
         <v>0.14599999999999999</v>
       </c>
-      <c r="W19" s="3">
+      <c r="W19" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2422,58 +2426,58 @@
       <c r="E20" s="1">
         <v>2352</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="2">
         <v>0.19400000000000001</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="2">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
         <v>0.152</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="2">
         <v>-0.10100000000000001</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="K20" s="2">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2">
         <v>0.32200000000000001</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="2">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="N20" s="2">
+        <v>0</v>
+      </c>
+      <c r="O20" s="2">
         <v>0.72499999999999998</v>
       </c>
-      <c r="P20" s="3">
+      <c r="P20" s="2">
         <v>0.57599999999999996</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="Q20" s="2">
+        <v>0</v>
+      </c>
+      <c r="R20" s="2">
         <v>0.22500000000000001</v>
       </c>
-      <c r="S20" s="3">
+      <c r="S20" s="2">
         <v>0.04</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
-      <c r="U20" s="3">
+      <c r="T20" s="2">
+        <v>0</v>
+      </c>
+      <c r="U20" s="2">
         <v>0.375</v>
       </c>
-      <c r="V20" s="3">
+      <c r="V20" s="2">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="W20" s="3">
+      <c r="W20" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2484,67 +2488,67 @@
       <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>506</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <v>1941</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="4">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="4">
         <v>0.04</v>
       </c>
-      <c r="H21" s="5">
-        <v>0</v>
-      </c>
-      <c r="I21" s="5">
+      <c r="H21" s="4">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="4">
         <v>-0.13300000000000001</v>
       </c>
-      <c r="K21" s="5">
-        <v>0</v>
-      </c>
-      <c r="L21" s="5">
+      <c r="K21" s="4">
+        <v>0</v>
+      </c>
+      <c r="L21" s="4">
         <v>0.16400000000000001</v>
       </c>
-      <c r="M21" s="5">
+      <c r="M21" s="4">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="N21" s="5">
-        <v>0</v>
-      </c>
-      <c r="O21" s="5">
+      <c r="N21" s="4">
+        <v>0</v>
+      </c>
+      <c r="O21" s="4">
         <v>0.625</v>
       </c>
-      <c r="P21" s="5">
+      <c r="P21" s="4">
         <v>0.55400000000000005</v>
       </c>
-      <c r="Q21" s="5">
-        <v>0</v>
-      </c>
-      <c r="R21" s="5">
+      <c r="Q21" s="4">
+        <v>0</v>
+      </c>
+      <c r="R21" s="4">
         <v>0.105</v>
       </c>
-      <c r="S21" s="5">
+      <c r="S21" s="4">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="T21" s="5">
-        <v>0</v>
-      </c>
-      <c r="U21" s="5">
+      <c r="T21" s="4">
+        <v>0</v>
+      </c>
+      <c r="U21" s="4">
         <v>0.17599999999999999</v>
       </c>
-      <c r="V21" s="5">
+      <c r="V21" s="4">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="W21" s="5">
+      <c r="W21" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2564,58 +2568,58 @@
       <c r="E22" s="1">
         <v>2306</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="2">
         <v>0.13100000000000001</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="2">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
         <v>0.04</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="2">
         <v>-0.126</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
+      <c r="K22" s="2">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2">
         <v>0.191</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="2">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="N22" s="2">
+        <v>0</v>
+      </c>
+      <c r="O22" s="2">
         <v>0.65300000000000002</v>
       </c>
-      <c r="P22" s="3">
+      <c r="P22" s="2">
         <v>0.55800000000000005</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-      <c r="R22" s="3">
+      <c r="Q22" s="2">
+        <v>0</v>
+      </c>
+      <c r="R22" s="2">
         <v>0.108</v>
       </c>
-      <c r="S22" s="3">
+      <c r="S22" s="2">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
-      <c r="U22" s="3">
+      <c r="T22" s="2">
+        <v>0</v>
+      </c>
+      <c r="U22" s="2">
         <v>0.20399999999999999</v>
       </c>
-      <c r="V22" s="3">
+      <c r="V22" s="2">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="W22" s="3">
+      <c r="W22" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2635,58 +2639,58 @@
       <c r="E23" s="1">
         <v>2382</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="2">
         <v>0.25700000000000001</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="2">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2">
         <v>-0.57599999999999996</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23" s="2">
         <v>-0.44400000000000001</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="L23" s="3">
+      <c r="L23" s="2">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="M23" s="3">
+      <c r="M23" s="2">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="N23" s="3">
+      <c r="N23" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="O23" s="3">
+      <c r="O23" s="2">
         <v>0.79500000000000004</v>
       </c>
-      <c r="P23" s="3">
+      <c r="P23" s="2">
         <v>0.57599999999999996</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
-      <c r="R23" s="3">
+      <c r="Q23" s="2">
+        <v>0</v>
+      </c>
+      <c r="R23" s="2">
         <v>0.43099999999999999</v>
       </c>
-      <c r="S23" s="3">
+      <c r="S23" s="2">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
-      <c r="U23" s="3">
+      <c r="T23" s="2">
+        <v>0</v>
+      </c>
+      <c r="U23" s="2">
         <v>0.625</v>
       </c>
-      <c r="V23" s="3">
+      <c r="V23" s="2">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="W23" s="3">
+      <c r="W23" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2706,58 +2710,58 @@
       <c r="E24" s="1">
         <v>2244</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="2">
         <v>0.224</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="2">
         <v>2.7E-2</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2">
         <v>-0.38200000000000001</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24" s="2">
         <v>-0.32600000000000001</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="K24" s="2">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="M24" s="3">
+      <c r="M24" s="2">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="N24" s="2">
+        <v>0</v>
+      </c>
+      <c r="O24" s="2">
         <v>0.70099999999999996</v>
       </c>
-      <c r="P24" s="3">
+      <c r="P24" s="2">
         <v>0.58299999999999996</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
-      <c r="R24" s="3">
+      <c r="Q24" s="2">
+        <v>0</v>
+      </c>
+      <c r="R24" s="2">
         <v>0.19900000000000001</v>
       </c>
-      <c r="S24" s="3">
+      <c r="S24" s="2">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
-      <c r="U24" s="3">
+      <c r="T24" s="2">
+        <v>0</v>
+      </c>
+      <c r="U24" s="2">
         <v>0.314</v>
       </c>
-      <c r="V24" s="3">
+      <c r="V24" s="2">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="W24" s="3">
+      <c r="W24" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2768,67 +2772,67 @@
       <c r="B25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="3">
         <v>265</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="3">
         <v>2140</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="4">
         <v>0.10100000000000001</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" s="4">
         <v>2.3E-2</v>
       </c>
-      <c r="H25" s="5">
-        <v>0</v>
-      </c>
-      <c r="I25" s="5">
+      <c r="H25" s="4">
+        <v>0</v>
+      </c>
+      <c r="I25" s="4">
         <v>-0.30199999999999999</v>
       </c>
-      <c r="J25" s="5">
+      <c r="J25" s="4">
         <v>-0.26100000000000001</v>
       </c>
-      <c r="K25" s="5">
-        <v>0</v>
-      </c>
-      <c r="L25" s="5">
+      <c r="K25" s="4">
+        <v>0</v>
+      </c>
+      <c r="L25" s="4">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="M25" s="5">
+      <c r="M25" s="4">
         <v>6.2E-2</v>
       </c>
-      <c r="N25" s="5">
-        <v>0</v>
-      </c>
-      <c r="O25" s="5">
+      <c r="N25" s="4">
+        <v>0</v>
+      </c>
+      <c r="O25" s="4">
         <v>0.63200000000000001</v>
       </c>
-      <c r="P25" s="5">
+      <c r="P25" s="4">
         <v>0.57299999999999995</v>
       </c>
-      <c r="Q25" s="5">
-        <v>0</v>
-      </c>
-      <c r="R25" s="5">
+      <c r="Q25" s="4">
+        <v>0</v>
+      </c>
+      <c r="R25" s="4">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="S25" s="5">
+      <c r="S25" s="4">
         <v>2.3E-2</v>
       </c>
-      <c r="T25" s="5">
-        <v>0</v>
-      </c>
-      <c r="U25" s="5">
+      <c r="T25" s="4">
+        <v>0</v>
+      </c>
+      <c r="U25" s="4">
         <v>0.156</v>
       </c>
-      <c r="V25" s="5">
+      <c r="V25" s="4">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="W25" s="5">
+      <c r="W25" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2848,58 +2852,58 @@
       <c r="E26" s="1">
         <v>2035</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="2">
         <v>0.78</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="2">
         <v>4.7E-2</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="H26" s="2">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2">
         <v>0.55100000000000005</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="2">
         <v>-0.107</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="K26" s="2">
+        <v>0</v>
+      </c>
+      <c r="L26" s="2">
         <v>0.57199999999999995</v>
       </c>
-      <c r="M26" s="3">
+      <c r="M26" s="2">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="N26" s="2">
+        <v>0</v>
+      </c>
+      <c r="O26" s="2">
         <v>0.79300000000000004</v>
       </c>
-      <c r="P26" s="3">
+      <c r="P26" s="2">
         <v>0.57099999999999995</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
-      <c r="R26" s="3">
+      <c r="Q26" s="2">
+        <v>0</v>
+      </c>
+      <c r="R26" s="2">
         <v>0.499</v>
       </c>
-      <c r="S26" s="3">
+      <c r="S26" s="2">
         <v>2.7E-2</v>
       </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
-      <c r="U26" s="3">
+      <c r="T26" s="2">
+        <v>0</v>
+      </c>
+      <c r="U26" s="2">
         <v>0.65</v>
       </c>
-      <c r="V26" s="3">
+      <c r="V26" s="2">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="W26" s="3">
+      <c r="W26" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2919,58 +2923,58 @@
       <c r="E27" s="1">
         <v>2386</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="2">
         <v>0.23899999999999999</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="2">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="H27" s="2">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2">
         <v>0.38100000000000001</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J27" s="2">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="K27" s="2">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2">
         <v>0.26700000000000002</v>
       </c>
-      <c r="M27" s="3">
+      <c r="M27" s="2">
         <v>0.108</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="N27" s="2">
+        <v>0</v>
+      </c>
+      <c r="O27" s="2">
         <v>0.753</v>
       </c>
-      <c r="P27" s="3">
+      <c r="P27" s="2">
         <v>0.58399999999999996</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
-      <c r="R27" s="3">
+      <c r="Q27" s="2">
+        <v>0</v>
+      </c>
+      <c r="R27" s="2">
         <v>0.307</v>
       </c>
-      <c r="S27" s="3">
+      <c r="S27" s="2">
         <v>4.7E-2</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
-      <c r="U27" s="3">
+      <c r="T27" s="2">
+        <v>0</v>
+      </c>
+      <c r="U27" s="2">
         <v>0.46</v>
       </c>
-      <c r="V27" s="3">
+      <c r="V27" s="2">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="W27" s="3">
+      <c r="W27" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2981,67 +2985,67 @@
       <c r="B28" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="3">
         <v>377</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="3">
         <v>2022</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="4">
         <v>0.74199999999999999</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G28" s="4">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="H28" s="5">
-        <v>0</v>
-      </c>
-      <c r="I28" s="5">
+      <c r="H28" s="4">
+        <v>0</v>
+      </c>
+      <c r="I28" s="4">
         <v>0.52700000000000002</v>
       </c>
-      <c r="J28" s="5">
+      <c r="J28" s="4">
         <v>-0.109</v>
       </c>
-      <c r="K28" s="5">
-        <v>0</v>
-      </c>
-      <c r="L28" s="5">
+      <c r="K28" s="4">
+        <v>0</v>
+      </c>
+      <c r="L28" s="4">
         <v>0.55000000000000004</v>
       </c>
-      <c r="M28" s="5">
+      <c r="M28" s="4">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="N28" s="5">
-        <v>0</v>
-      </c>
-      <c r="O28" s="5">
+      <c r="N28" s="4">
+        <v>0</v>
+      </c>
+      <c r="O28" s="4">
         <v>0.78500000000000003</v>
       </c>
-      <c r="P28" s="5">
+      <c r="P28" s="4">
         <v>0.56999999999999995</v>
       </c>
-      <c r="Q28" s="5">
-        <v>0</v>
-      </c>
-      <c r="R28" s="5">
+      <c r="Q28" s="4">
+        <v>0</v>
+      </c>
+      <c r="R28" s="4">
         <v>0.47599999999999998</v>
       </c>
-      <c r="S28" s="5">
+      <c r="S28" s="4">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="T28" s="5">
-        <v>0</v>
-      </c>
-      <c r="U28" s="5">
+      <c r="T28" s="4">
+        <v>0</v>
+      </c>
+      <c r="U28" s="4">
         <v>0.629</v>
       </c>
-      <c r="V28" s="5">
+      <c r="V28" s="4">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="W28" s="5">
+      <c r="W28" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3061,58 +3065,58 @@
       <c r="E29" s="1">
         <v>2366</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="2">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="2">
         <v>1.2E-2</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="2">
         <v>1E-3</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="2">
         <v>-0.53900000000000003</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="2">
         <v>-0.40500000000000003</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3">
+      <c r="K29" s="2">
+        <v>0</v>
+      </c>
+      <c r="L29" s="2">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="2">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3">
+      <c r="N29" s="2">
+        <v>0</v>
+      </c>
+      <c r="O29" s="2">
         <v>0.68100000000000005</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="2">
         <v>0.59199999999999997</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3">
+      <c r="Q29" s="2">
+        <v>0</v>
+      </c>
+      <c r="R29" s="2">
         <v>0.104</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="2">
         <v>1.9E-2</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
-      <c r="U29" s="3">
+      <c r="T29" s="2">
+        <v>0</v>
+      </c>
+      <c r="U29" s="2">
         <v>0.19700000000000001</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="2">
         <v>3.9E-2</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3132,58 +3136,58 @@
       <c r="E30" s="1">
         <v>2359</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="2">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="H30" s="3">
-        <v>0</v>
-      </c>
-      <c r="I30" s="3">
+      <c r="H30" s="2">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2">
         <v>-0.04</v>
       </c>
-      <c r="J30" s="3">
+      <c r="J30" s="2">
         <v>-0.16600000000000001</v>
       </c>
-      <c r="K30" s="3">
-        <v>0</v>
-      </c>
-      <c r="L30" s="3">
+      <c r="K30" s="2">
+        <v>0</v>
+      </c>
+      <c r="L30" s="2">
         <v>0.19900000000000001</v>
       </c>
-      <c r="M30" s="3">
+      <c r="M30" s="2">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="N30" s="3">
-        <v>0</v>
-      </c>
-      <c r="O30" s="3">
+      <c r="N30" s="2">
+        <v>0</v>
+      </c>
+      <c r="O30" s="2">
         <v>0.67500000000000004</v>
       </c>
-      <c r="P30" s="3">
+      <c r="P30" s="2">
         <v>0.56799999999999995</v>
       </c>
-      <c r="Q30" s="3">
-        <v>0</v>
-      </c>
-      <c r="R30" s="3">
+      <c r="Q30" s="2">
+        <v>0</v>
+      </c>
+      <c r="R30" s="2">
         <v>0.14899999999999999</v>
       </c>
-      <c r="S30" s="3">
+      <c r="S30" s="2">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="T30" s="3">
-        <v>0</v>
-      </c>
-      <c r="U30" s="3">
+      <c r="T30" s="2">
+        <v>0</v>
+      </c>
+      <c r="U30" s="2">
         <v>0.22600000000000001</v>
       </c>
-      <c r="V30" s="3">
+      <c r="V30" s="2">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="W30" s="3">
+      <c r="W30" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3194,67 +3198,67 @@
       <c r="B31" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="3">
         <v>73</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="3">
         <v>2326</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31" s="4">
         <v>0.04</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G31" s="4">
         <v>0.01</v>
       </c>
-      <c r="H31" s="5">
-        <v>0</v>
-      </c>
-      <c r="I31" s="5">
+      <c r="H31" s="4">
+        <v>0</v>
+      </c>
+      <c r="I31" s="4">
         <v>-0.307</v>
       </c>
-      <c r="J31" s="5">
+      <c r="J31" s="4">
         <v>-0.27</v>
       </c>
-      <c r="K31" s="5">
-        <v>0</v>
-      </c>
-      <c r="L31" s="5">
+      <c r="K31" s="4">
+        <v>0</v>
+      </c>
+      <c r="L31" s="4">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="M31" s="5">
+      <c r="M31" s="4">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="N31" s="5">
-        <v>0</v>
-      </c>
-      <c r="O31" s="5">
+      <c r="N31" s="4">
+        <v>0</v>
+      </c>
+      <c r="O31" s="4">
         <v>0.63700000000000001</v>
       </c>
-      <c r="P31" s="5">
+      <c r="P31" s="4">
         <v>0.57799999999999996</v>
       </c>
-      <c r="Q31" s="5">
-        <v>0</v>
-      </c>
-      <c r="R31" s="5">
+      <c r="Q31" s="4">
+        <v>0</v>
+      </c>
+      <c r="R31" s="4">
         <v>7.8E-2</v>
       </c>
-      <c r="S31" s="5">
+      <c r="S31" s="4">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="T31" s="5">
-        <v>0</v>
-      </c>
-      <c r="U31" s="5">
+      <c r="T31" s="4">
+        <v>0</v>
+      </c>
+      <c r="U31" s="4">
         <v>0.13400000000000001</v>
       </c>
-      <c r="V31" s="5">
+      <c r="V31" s="4">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="W31" s="5">
+      <c r="W31" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3274,58 +3278,58 @@
       <c r="E32" s="1">
         <v>2386</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="2">
         <v>0.26400000000000001</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="2">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="H32" s="2">
+        <v>0</v>
+      </c>
+      <c r="I32" s="2">
         <v>-0.18</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32" s="2">
         <v>-0.23599999999999999</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="K32" s="2">
+        <v>0</v>
+      </c>
+      <c r="L32" s="2">
         <v>0.23599999999999999</v>
       </c>
-      <c r="M32" s="3">
+      <c r="M32" s="2">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="N32" s="2">
+        <v>0</v>
+      </c>
+      <c r="O32" s="2">
         <v>0.74399999999999999</v>
       </c>
-      <c r="P32" s="3">
+      <c r="P32" s="2">
         <v>0.53800000000000003</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="Q32" s="2">
+        <v>0</v>
+      </c>
+      <c r="R32" s="2">
         <v>0.30399999999999999</v>
       </c>
-      <c r="S32" s="3">
+      <c r="S32" s="2">
         <v>2.4E-2</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
-      <c r="U32" s="3">
+      <c r="T32" s="2">
+        <v>0</v>
+      </c>
+      <c r="U32" s="2">
         <v>0.47</v>
       </c>
-      <c r="V32" s="3">
+      <c r="V32" s="2">
         <v>4.7E-2</v>
       </c>
-      <c r="W32" s="3">
+      <c r="W32" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3345,58 +3349,58 @@
       <c r="E33" s="1">
         <v>2253</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="2">
         <v>6.3E-2</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G33" s="2">
         <v>1.6E-2</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="H33" s="2">
+        <v>0</v>
+      </c>
+      <c r="I33" s="2">
         <v>-7.2999999999999995E-2</v>
       </c>
-      <c r="J33" s="3">
+      <c r="J33" s="2">
         <v>-0.158</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="K33" s="2">
+        <v>0</v>
+      </c>
+      <c r="L33" s="2">
         <v>0.13800000000000001</v>
       </c>
-      <c r="M33" s="3">
+      <c r="M33" s="2">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="N33" s="2">
+        <v>0</v>
+      </c>
+      <c r="O33" s="2">
         <v>0.63100000000000001</v>
       </c>
-      <c r="P33" s="3">
+      <c r="P33" s="2">
         <v>0.53500000000000003</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
-      <c r="R33" s="3">
+      <c r="Q33" s="2">
+        <v>0</v>
+      </c>
+      <c r="R33" s="2">
         <v>0.11700000000000001</v>
       </c>
-      <c r="S33" s="3">
+      <c r="S33" s="2">
         <v>2.7E-2</v>
       </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
-      <c r="U33" s="3">
+      <c r="T33" s="2">
+        <v>0</v>
+      </c>
+      <c r="U33" s="2">
         <v>0.20399999999999999</v>
       </c>
-      <c r="V33" s="3">
+      <c r="V33" s="2">
         <v>5.5E-2</v>
       </c>
-      <c r="W33" s="3">
+      <c r="W33" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3416,58 +3420,58 @@
       <c r="E34" s="1">
         <v>2381</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="2">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G34" s="2">
         <v>0.03</v>
       </c>
-      <c r="H34" s="3">
-        <v>0</v>
-      </c>
-      <c r="I34" s="3">
+      <c r="H34" s="2">
+        <v>0</v>
+      </c>
+      <c r="I34" s="2">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="J34" s="3">
+      <c r="J34" s="2">
         <v>-0.112</v>
       </c>
-      <c r="K34" s="3">
-        <v>0</v>
-      </c>
-      <c r="L34" s="3">
+      <c r="K34" s="2">
+        <v>0</v>
+      </c>
+      <c r="L34" s="2">
         <v>0.109</v>
       </c>
-      <c r="M34" s="3">
+      <c r="M34" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N34" s="3">
-        <v>0</v>
-      </c>
-      <c r="O34" s="3">
+      <c r="N34" s="2">
+        <v>0</v>
+      </c>
+      <c r="O34" s="2">
         <v>0.57099999999999995</v>
       </c>
-      <c r="P34" s="3">
+      <c r="P34" s="2">
         <v>0.53700000000000003</v>
       </c>
-      <c r="Q34" s="3">
-        <v>0</v>
-      </c>
-      <c r="R34" s="3">
+      <c r="Q34" s="2">
+        <v>0</v>
+      </c>
+      <c r="R34" s="2">
         <v>0.11600000000000001</v>
       </c>
-      <c r="S34" s="3">
+      <c r="S34" s="2">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="T34" s="3">
-        <v>0</v>
-      </c>
-      <c r="U34" s="3">
+      <c r="T34" s="2">
+        <v>0</v>
+      </c>
+      <c r="U34" s="2">
         <v>0.191</v>
       </c>
-      <c r="V34" s="3">
+      <c r="V34" s="2">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="W34" s="3">
+      <c r="W34" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3487,58 +3491,58 @@
       <c r="E35" s="1">
         <v>2392</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="2">
         <v>0.159</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G35" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35" s="2">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="I35" s="3">
+      <c r="I35" s="2">
         <v>-0.66400000000000003</v>
       </c>
-      <c r="J35" s="3">
+      <c r="J35" s="2">
         <v>-0.46500000000000002</v>
       </c>
-      <c r="K35" s="3">
+      <c r="K35" s="2">
         <v>0.48</v>
       </c>
-      <c r="L35" s="3">
+      <c r="L35" s="2">
         <v>0.03</v>
       </c>
-      <c r="M35" s="3">
+      <c r="M35" s="2">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="N35" s="3">
+      <c r="N35" s="2">
         <v>0.48</v>
       </c>
-      <c r="O35" s="3">
+      <c r="O35" s="2">
         <v>0.63400000000000001</v>
       </c>
-      <c r="P35" s="3">
+      <c r="P35" s="2">
         <v>0.55800000000000005</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
-      <c r="R35" s="3">
+      <c r="Q35" s="2">
+        <v>0</v>
+      </c>
+      <c r="R35" s="2">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="S35" s="3">
+      <c r="S35" s="2">
         <v>1.4E-2</v>
       </c>
-      <c r="T35" s="3">
+      <c r="T35" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="U35" s="3">
+      <c r="U35" s="2">
         <v>0.14599999999999999</v>
       </c>
-      <c r="V35" s="3">
+      <c r="V35" s="2">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="W35" s="3">
+      <c r="W35" s="2">
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
@@ -3558,58 +3562,58 @@
       <c r="E36" s="1">
         <v>2360</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="2">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="G36" s="3">
+      <c r="G36" s="2">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="H36" s="3">
-        <v>0</v>
-      </c>
-      <c r="I36" s="3">
+      <c r="H36" s="2">
+        <v>0</v>
+      </c>
+      <c r="I36" s="2">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="J36" s="3">
+      <c r="J36" s="2">
         <v>-0.11</v>
       </c>
-      <c r="K36" s="3">
-        <v>0</v>
-      </c>
-      <c r="L36" s="3">
+      <c r="K36" s="2">
+        <v>0</v>
+      </c>
+      <c r="L36" s="2">
         <v>0.21199999999999999</v>
       </c>
-      <c r="M36" s="3">
+      <c r="M36" s="2">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="N36" s="3">
-        <v>0</v>
-      </c>
-      <c r="O36" s="3">
+      <c r="N36" s="2">
+        <v>0</v>
+      </c>
+      <c r="O36" s="2">
         <v>0.64900000000000002</v>
       </c>
-      <c r="P36" s="3">
+      <c r="P36" s="2">
         <v>0.55900000000000005</v>
       </c>
-      <c r="Q36" s="3">
-        <v>0</v>
-      </c>
-      <c r="R36" s="3">
+      <c r="Q36" s="2">
+        <v>0</v>
+      </c>
+      <c r="R36" s="2">
         <v>0.14499999999999999</v>
       </c>
-      <c r="S36" s="3">
+      <c r="S36" s="2">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="T36" s="3">
-        <v>0</v>
-      </c>
-      <c r="U36" s="3">
+      <c r="T36" s="2">
+        <v>0</v>
+      </c>
+      <c r="U36" s="2">
         <v>0.26300000000000001</v>
       </c>
-      <c r="V36" s="3">
+      <c r="V36" s="2">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="W36" s="3">
+      <c r="W36" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3629,58 +3633,58 @@
       <c r="E37" s="1">
         <v>2359</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="2">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="G37" s="3">
+      <c r="G37" s="2">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="H37" s="3">
-        <v>0</v>
-      </c>
-      <c r="I37" s="3">
+      <c r="H37" s="2">
+        <v>0</v>
+      </c>
+      <c r="I37" s="2">
         <v>-7.1999999999999995E-2</v>
       </c>
-      <c r="J37" s="3">
+      <c r="J37" s="2">
         <v>-0.154</v>
       </c>
-      <c r="K37" s="3">
+      <c r="K37" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="L37" s="3">
+      <c r="L37" s="2">
         <v>0.157</v>
       </c>
-      <c r="M37" s="3">
+      <c r="M37" s="2">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="N37" s="3">
-        <v>0</v>
-      </c>
-      <c r="O37" s="3">
+      <c r="N37" s="2">
+        <v>0</v>
+      </c>
+      <c r="O37" s="2">
         <v>0.68500000000000005</v>
       </c>
-      <c r="P37" s="3">
+      <c r="P37" s="2">
         <v>0.54600000000000004</v>
       </c>
-      <c r="Q37" s="3">
-        <v>0</v>
-      </c>
-      <c r="R37" s="3">
+      <c r="Q37" s="2">
+        <v>0</v>
+      </c>
+      <c r="R37" s="2">
         <v>0.23400000000000001</v>
       </c>
-      <c r="S37" s="3">
+      <c r="S37" s="2">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="T37" s="3">
-        <v>0</v>
-      </c>
-      <c r="U37" s="3">
+      <c r="T37" s="2">
+        <v>0</v>
+      </c>
+      <c r="U37" s="2">
         <v>0.38600000000000001</v>
       </c>
-      <c r="V37" s="3">
+      <c r="V37" s="2">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="W37" s="3">
+      <c r="W37" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3691,67 +3695,67 @@
       <c r="B38" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="3">
         <v>263</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="3">
         <v>2147</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F38" s="4">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G38" s="5">
+      <c r="G38" s="4">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="H38" s="5">
-        <v>0</v>
-      </c>
-      <c r="I38" s="5">
+      <c r="H38" s="4">
+        <v>0</v>
+      </c>
+      <c r="I38" s="4">
         <v>-9.7000000000000003E-2</v>
       </c>
-      <c r="J38" s="5">
+      <c r="J38" s="4">
         <v>-0.16400000000000001</v>
       </c>
-      <c r="K38" s="5">
-        <v>0</v>
-      </c>
-      <c r="L38" s="5">
+      <c r="K38" s="4">
+        <v>0</v>
+      </c>
+      <c r="L38" s="4">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="M38" s="5">
+      <c r="M38" s="4">
         <v>6.3E-2</v>
       </c>
-      <c r="N38" s="5">
-        <v>0</v>
-      </c>
-      <c r="O38" s="5">
+      <c r="N38" s="4">
+        <v>0</v>
+      </c>
+      <c r="O38" s="4">
         <v>0.58499999999999996</v>
       </c>
-      <c r="P38" s="5">
+      <c r="P38" s="4">
         <v>0.54100000000000004</v>
       </c>
-      <c r="Q38" s="5">
-        <v>0</v>
-      </c>
-      <c r="R38" s="5">
+      <c r="Q38" s="4">
+        <v>0</v>
+      </c>
+      <c r="R38" s="4">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="S38" s="5">
+      <c r="S38" s="4">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="T38" s="5">
-        <v>0</v>
-      </c>
-      <c r="U38" s="5">
+      <c r="T38" s="4">
+        <v>0</v>
+      </c>
+      <c r="U38" s="4">
         <v>0.13900000000000001</v>
       </c>
-      <c r="V38" s="5">
+      <c r="V38" s="4">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="W38" s="5">
+      <c r="W38" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3771,58 +3775,58 @@
       <c r="E39" s="1">
         <v>2325</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="2">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="G39" s="3">
+      <c r="G39" s="2">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="H39" s="3">
+      <c r="H39" s="2">
         <v>1.2E-2</v>
       </c>
-      <c r="I39" s="3">
+      <c r="I39" s="2">
         <v>-2E-3</v>
       </c>
-      <c r="J39" s="3">
+      <c r="J39" s="2">
         <v>-0.114</v>
       </c>
-      <c r="K39" s="3">
-        <v>0</v>
-      </c>
-      <c r="L39" s="3">
+      <c r="K39" s="2">
+        <v>0</v>
+      </c>
+      <c r="L39" s="2">
         <v>0.13300000000000001</v>
       </c>
-      <c r="M39" s="3">
+      <c r="M39" s="2">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="N39" s="3">
-        <v>0</v>
-      </c>
-      <c r="O39" s="3">
+      <c r="N39" s="2">
+        <v>0</v>
+      </c>
+      <c r="O39" s="2">
         <v>0.61899999999999999</v>
       </c>
-      <c r="P39" s="3">
+      <c r="P39" s="2">
         <v>0.56699999999999995</v>
       </c>
-      <c r="Q39" s="3">
-        <v>0</v>
-      </c>
-      <c r="R39" s="3">
+      <c r="Q39" s="2">
+        <v>0</v>
+      </c>
+      <c r="R39" s="2">
         <v>0.05</v>
       </c>
-      <c r="S39" s="3">
+      <c r="S39" s="2">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="T39" s="3">
-        <v>0</v>
-      </c>
-      <c r="U39" s="3">
+      <c r="T39" s="2">
+        <v>0</v>
+      </c>
+      <c r="U39" s="2">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="V39" s="3">
+      <c r="V39" s="2">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="W39" s="3">
+      <c r="W39" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3842,58 +3846,58 @@
       <c r="E40" s="1">
         <v>2339</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="2">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G40" s="2">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="H40" s="3">
-        <v>0</v>
-      </c>
-      <c r="I40" s="3">
+      <c r="H40" s="2">
+        <v>0</v>
+      </c>
+      <c r="I40" s="2">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="J40" s="3">
+      <c r="J40" s="2">
         <v>-0.11</v>
       </c>
-      <c r="K40" s="3">
-        <v>0</v>
-      </c>
-      <c r="L40" s="3">
+      <c r="K40" s="2">
+        <v>0</v>
+      </c>
+      <c r="L40" s="2">
         <v>0.17599999999999999</v>
       </c>
-      <c r="M40" s="3">
+      <c r="M40" s="2">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="N40" s="3">
-        <v>0</v>
-      </c>
-      <c r="O40" s="3">
+      <c r="N40" s="2">
+        <v>0</v>
+      </c>
+      <c r="O40" s="2">
         <v>0.64600000000000002</v>
       </c>
-      <c r="P40" s="3">
+      <c r="P40" s="2">
         <v>0.57399999999999995</v>
       </c>
-      <c r="Q40" s="3">
-        <v>0</v>
-      </c>
-      <c r="R40" s="3">
+      <c r="Q40" s="2">
+        <v>0</v>
+      </c>
+      <c r="R40" s="2">
         <v>0.107</v>
       </c>
-      <c r="S40" s="3">
+      <c r="S40" s="2">
         <v>0.03</v>
       </c>
-      <c r="T40" s="3">
-        <v>0</v>
-      </c>
-      <c r="U40" s="3">
+      <c r="T40" s="2">
+        <v>0</v>
+      </c>
+      <c r="U40" s="2">
         <v>0.192</v>
       </c>
-      <c r="V40" s="3">
+      <c r="V40" s="2">
         <v>0.06</v>
       </c>
-      <c r="W40" s="3">
+      <c r="W40" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3913,58 +3917,58 @@
       <c r="E41" s="1">
         <v>2127</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="2">
         <v>0.114</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G41" s="2">
         <v>3.1E-2</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3">
+      <c r="H41" s="2">
+        <v>0</v>
+      </c>
+      <c r="I41" s="2">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="J41" s="3">
+      <c r="J41" s="2">
         <v>-0.121</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3">
+      <c r="K41" s="2">
+        <v>0</v>
+      </c>
+      <c r="L41" s="2">
         <v>0.13500000000000001</v>
       </c>
-      <c r="M41" s="3">
+      <c r="M41" s="2">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="N41" s="2">
+        <v>0</v>
+      </c>
+      <c r="O41" s="2">
         <v>0.59299999999999997</v>
       </c>
-      <c r="P41" s="3">
+      <c r="P41" s="2">
         <v>0.56100000000000005</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
-      <c r="R41" s="3">
+      <c r="Q41" s="2">
+        <v>0</v>
+      </c>
+      <c r="R41" s="2">
         <v>0.08</v>
       </c>
-      <c r="S41" s="3">
+      <c r="S41" s="2">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="T41" s="3">
-        <v>0</v>
-      </c>
-      <c r="U41" s="3">
+      <c r="T41" s="2">
+        <v>0</v>
+      </c>
+      <c r="U41" s="2">
         <v>0.151</v>
       </c>
-      <c r="V41" s="3">
+      <c r="V41" s="2">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="W41" s="3">
+      <c r="W41" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3984,58 +3988,58 @@
       <c r="E42" s="1">
         <v>2247</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="2">
         <v>0.16400000000000001</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42" s="2">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
+      <c r="H42" s="2">
+        <v>0</v>
+      </c>
+      <c r="I42" s="2">
         <v>-0.29499999999999998</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J42" s="2">
         <v>-0.251</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
-      <c r="L42" s="3">
+      <c r="K42" s="2">
+        <v>0</v>
+      </c>
+      <c r="L42" s="2">
         <v>0.151</v>
       </c>
-      <c r="M42" s="3">
+      <c r="M42" s="2">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
-      </c>
-      <c r="O42" s="3">
+      <c r="N42" s="2">
+        <v>0</v>
+      </c>
+      <c r="O42" s="2">
         <v>0.64600000000000002</v>
       </c>
-      <c r="P42" s="3">
+      <c r="P42" s="2">
         <v>0.52900000000000003</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
-      </c>
-      <c r="R42" s="3">
+      <c r="Q42" s="2">
+        <v>0</v>
+      </c>
+      <c r="R42" s="2">
         <v>0.17199999999999999</v>
       </c>
-      <c r="S42" s="3">
+      <c r="S42" s="2">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="T42" s="3">
-        <v>0</v>
-      </c>
-      <c r="U42" s="3">
+      <c r="T42" s="2">
+        <v>0</v>
+      </c>
+      <c r="U42" s="2">
         <v>0.32</v>
       </c>
-      <c r="V42" s="3">
+      <c r="V42" s="2">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="W42" s="3">
+      <c r="W42" s="2">
         <v>0</v>
       </c>
     </row>
@@ -4055,58 +4059,58 @@
       <c r="E43" s="1">
         <v>2305</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="2">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="G43" s="3">
+      <c r="G43" s="2">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
+      <c r="H43" s="2">
+        <v>0</v>
+      </c>
+      <c r="I43" s="2">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="J43" s="3">
+      <c r="J43" s="2">
         <v>-0.108</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-      <c r="L43" s="3">
+      <c r="K43" s="2">
+        <v>0</v>
+      </c>
+      <c r="L43" s="2">
         <v>0.19900000000000001</v>
       </c>
-      <c r="M43" s="3">
+      <c r="M43" s="2">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
-      <c r="O43" s="3">
+      <c r="N43" s="2">
+        <v>0</v>
+      </c>
+      <c r="O43" s="2">
         <v>0.67800000000000005</v>
       </c>
-      <c r="P43" s="3">
+      <c r="P43" s="2">
         <v>0.55900000000000005</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
-      <c r="R43" s="3">
+      <c r="Q43" s="2">
+        <v>0</v>
+      </c>
+      <c r="R43" s="2">
         <v>0.13800000000000001</v>
       </c>
-      <c r="S43" s="3">
+      <c r="S43" s="2">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="T43" s="3">
-        <v>0</v>
-      </c>
-      <c r="U43" s="3">
+      <c r="T43" s="2">
+        <v>0</v>
+      </c>
+      <c r="U43" s="2">
         <v>0.248</v>
       </c>
-      <c r="V43" s="3">
+      <c r="V43" s="2">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="W43" s="3">
+      <c r="W43" s="2">
         <v>0</v>
       </c>
     </row>
@@ -4126,58 +4130,58 @@
       <c r="E44" s="1">
         <v>2153</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="2">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G44" s="2">
         <v>0.02</v>
       </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
+      <c r="H44" s="2">
+        <v>0</v>
+      </c>
+      <c r="I44" s="2">
         <v>-4.0000000000000001E-3</v>
       </c>
-      <c r="J44" s="3">
+      <c r="J44" s="2">
         <v>-0.13</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
-      </c>
-      <c r="L44" s="3">
+      <c r="K44" s="2">
+        <v>0</v>
+      </c>
+      <c r="L44" s="2">
         <v>0.129</v>
       </c>
-      <c r="M44" s="3">
+      <c r="M44" s="2">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
-      </c>
-      <c r="O44" s="3">
+      <c r="N44" s="2">
+        <v>0</v>
+      </c>
+      <c r="O44" s="2">
         <v>0.63500000000000001</v>
       </c>
-      <c r="P44" s="3">
+      <c r="P44" s="2">
         <v>0.56000000000000005</v>
       </c>
-      <c r="Q44" s="3">
-        <v>0</v>
-      </c>
-      <c r="R44" s="3">
+      <c r="Q44" s="2">
+        <v>0</v>
+      </c>
+      <c r="R44" s="2">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="S44" s="3">
+      <c r="S44" s="2">
         <v>2.4E-2</v>
       </c>
-      <c r="T44" s="3">
-        <v>0</v>
-      </c>
-      <c r="U44" s="3">
+      <c r="T44" s="2">
+        <v>0</v>
+      </c>
+      <c r="U44" s="2">
         <v>0.17299999999999999</v>
       </c>
-      <c r="V44" s="3">
+      <c r="V44" s="2">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="W44" s="3">
+      <c r="W44" s="2">
         <v>0</v>
       </c>
     </row>
@@ -4197,58 +4201,58 @@
       <c r="E45" s="1">
         <v>2386</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G45" s="3">
+      <c r="G45" s="2">
         <v>1.4E-2</v>
       </c>
-      <c r="H45" s="3">
+      <c r="H45" s="2">
         <v>0.20699999999999999</v>
       </c>
-      <c r="I45" s="3">
+      <c r="I45" s="2">
         <v>-0.377</v>
       </c>
-      <c r="J45" s="3">
+      <c r="J45" s="2">
         <v>-0.29299999999999998</v>
       </c>
-      <c r="K45" s="3">
+      <c r="K45" s="2">
         <v>0.46400000000000002</v>
       </c>
-      <c r="L45" s="3">
+      <c r="L45" s="2">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="M45" s="3">
+      <c r="M45" s="2">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="N45" s="3">
+      <c r="N45" s="2">
         <v>0.24399999999999999</v>
       </c>
-      <c r="O45" s="3">
+      <c r="O45" s="2">
         <v>0.57599999999999996</v>
       </c>
-      <c r="P45" s="3">
+      <c r="P45" s="2">
         <v>0.55600000000000005</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="Q45" s="2">
         <v>0.40300000000000002</v>
       </c>
-      <c r="R45" s="3">
+      <c r="R45" s="2">
         <v>0.06</v>
       </c>
-      <c r="S45" s="3">
+      <c r="S45" s="2">
         <v>0.03</v>
       </c>
-      <c r="T45" s="3">
+      <c r="T45" s="2">
         <v>0.27800000000000002</v>
       </c>
-      <c r="U45" s="3">
+      <c r="U45" s="2">
         <v>0.105</v>
       </c>
-      <c r="V45" s="3">
+      <c r="V45" s="2">
         <v>6.3E-2</v>
       </c>
-      <c r="W45" s="3">
+      <c r="W45" s="2">
         <v>0.28599999999999998</v>
       </c>
     </row>
@@ -4268,58 +4272,58 @@
       <c r="E46" s="1">
         <v>2337</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46" s="2">
         <v>0.106</v>
       </c>
-      <c r="G46" s="3">
+      <c r="G46" s="2">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
-      <c r="I46" s="3">
+      <c r="H46" s="2">
+        <v>0</v>
+      </c>
+      <c r="I46" s="2">
         <v>-1.7999999999999999E-2</v>
       </c>
-      <c r="J46" s="3">
+      <c r="J46" s="2">
         <v>-0.122</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
-      <c r="L46" s="3">
+      <c r="K46" s="2">
+        <v>0</v>
+      </c>
+      <c r="L46" s="2">
         <v>0.10100000000000001</v>
       </c>
-      <c r="M46" s="3">
+      <c r="M46" s="2">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
-      <c r="O46" s="3">
+      <c r="N46" s="2">
+        <v>0</v>
+      </c>
+      <c r="O46" s="2">
         <v>0.59899999999999998</v>
       </c>
-      <c r="P46" s="3">
+      <c r="P46" s="2">
         <v>0.56499999999999995</v>
       </c>
-      <c r="Q46" s="3">
-        <v>0</v>
-      </c>
-      <c r="R46" s="3">
+      <c r="Q46" s="2">
+        <v>0</v>
+      </c>
+      <c r="R46" s="2">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="S46" s="3">
+      <c r="S46" s="2">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="T46" s="3">
-        <v>0</v>
-      </c>
-      <c r="U46" s="3">
+      <c r="T46" s="2">
+        <v>0</v>
+      </c>
+      <c r="U46" s="2">
         <v>0.112</v>
       </c>
-      <c r="V46" s="3">
+      <c r="V46" s="2">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="W46" s="3">
+      <c r="W46" s="2">
         <v>0</v>
       </c>
     </row>
@@ -4339,58 +4343,58 @@
       <c r="E47" s="1">
         <v>2272</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="2">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="2">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
+      <c r="H47" s="2">
+        <v>0</v>
+      </c>
+      <c r="I47" s="2">
         <v>-6.5000000000000002E-2</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47" s="2">
         <v>-0.151</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3">
+      <c r="K47" s="2">
+        <v>0</v>
+      </c>
+      <c r="L47" s="2">
         <v>0.13900000000000001</v>
       </c>
-      <c r="M47" s="3">
+      <c r="M47" s="2">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="N47" s="2">
+        <v>0</v>
+      </c>
+      <c r="O47" s="2">
         <v>0.63700000000000001</v>
       </c>
-      <c r="P47" s="3">
+      <c r="P47" s="2">
         <v>0.56799999999999995</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
-      </c>
-      <c r="R47" s="3">
+      <c r="Q47" s="2">
+        <v>0</v>
+      </c>
+      <c r="R47" s="2">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="S47" s="3">
+      <c r="S47" s="2">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="T47" s="3">
-        <v>0</v>
-      </c>
-      <c r="U47" s="3">
+      <c r="T47" s="2">
+        <v>0</v>
+      </c>
+      <c r="U47" s="2">
         <v>0.17</v>
       </c>
-      <c r="V47" s="3">
+      <c r="V47" s="2">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="W47" s="3">
+      <c r="W47" s="2">
         <v>0</v>
       </c>
     </row>
@@ -4410,58 +4414,58 @@
       <c r="E48" s="1">
         <v>2151</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="2">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G48" s="2">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
+      <c r="H48" s="2">
+        <v>0</v>
+      </c>
+      <c r="I48" s="2">
         <v>-5.3999999999999999E-2</v>
       </c>
-      <c r="J48" s="3">
+      <c r="J48" s="2">
         <v>-0.154</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3">
+      <c r="K48" s="2">
+        <v>0</v>
+      </c>
+      <c r="L48" s="2">
         <v>0.14399999999999999</v>
       </c>
-      <c r="M48" s="3">
+      <c r="M48" s="2">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
-      </c>
-      <c r="O48" s="3">
+      <c r="N48" s="2">
+        <v>0</v>
+      </c>
+      <c r="O48" s="2">
         <v>0.65800000000000003</v>
       </c>
-      <c r="P48" s="3">
+      <c r="P48" s="2">
         <v>0.56599999999999995</v>
       </c>
-      <c r="Q48" s="3">
-        <v>0</v>
-      </c>
-      <c r="R48" s="3">
+      <c r="Q48" s="2">
+        <v>0</v>
+      </c>
+      <c r="R48" s="2">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="S48" s="3">
+      <c r="S48" s="2">
         <v>2.4E-2</v>
       </c>
-      <c r="T48" s="3">
-        <v>0</v>
-      </c>
-      <c r="U48" s="3">
+      <c r="T48" s="2">
+        <v>0</v>
+      </c>
+      <c r="U48" s="2">
         <v>0.156</v>
       </c>
-      <c r="V48" s="3">
+      <c r="V48" s="2">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="W48" s="3">
+      <c r="W48" s="2">
         <v>0</v>
       </c>
     </row>
@@ -4481,58 +4485,58 @@
       <c r="E49" s="1">
         <v>2200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="2">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G49" s="2">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
+      <c r="H49" s="2">
+        <v>0</v>
+      </c>
+      <c r="I49" s="2">
         <v>-1E-3</v>
       </c>
-      <c r="J49" s="3">
+      <c r="J49" s="2">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
-      <c r="L49" s="3">
+      <c r="K49" s="2">
+        <v>0</v>
+      </c>
+      <c r="L49" s="2">
         <v>0.155</v>
       </c>
-      <c r="M49" s="3">
+      <c r="M49" s="2">
         <v>0.08</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
-      </c>
-      <c r="O49" s="3">
+      <c r="N49" s="2">
+        <v>0</v>
+      </c>
+      <c r="O49" s="2">
         <v>0.625</v>
       </c>
-      <c r="P49" s="3">
+      <c r="P49" s="2">
         <v>0.55800000000000005</v>
       </c>
-      <c r="Q49" s="3">
-        <v>0</v>
-      </c>
-      <c r="R49" s="3">
+      <c r="Q49" s="2">
+        <v>0</v>
+      </c>
+      <c r="R49" s="2">
         <v>0.10100000000000001</v>
       </c>
-      <c r="S49" s="3">
+      <c r="S49" s="2">
         <v>2.7E-2</v>
       </c>
-      <c r="T49" s="3">
-        <v>0</v>
-      </c>
-      <c r="U49" s="3">
+      <c r="T49" s="2">
+        <v>0</v>
+      </c>
+      <c r="U49" s="2">
         <v>0.19800000000000001</v>
       </c>
-      <c r="V49" s="3">
+      <c r="V49" s="2">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="W49" s="3">
+      <c r="W49" s="2">
         <v>0</v>
       </c>
     </row>
@@ -4552,58 +4556,58 @@
       <c r="E50" s="1">
         <v>2202</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F50" s="2">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="G50" s="3">
+      <c r="G50" s="2">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="H50" s="3">
-        <v>0</v>
-      </c>
-      <c r="I50" s="3">
+      <c r="H50" s="2">
+        <v>0</v>
+      </c>
+      <c r="I50" s="2">
         <v>-4.9000000000000002E-2</v>
       </c>
-      <c r="J50" s="3">
+      <c r="J50" s="2">
         <v>-0.161</v>
       </c>
-      <c r="K50" s="3">
-        <v>0</v>
-      </c>
-      <c r="L50" s="3">
+      <c r="K50" s="2">
+        <v>0</v>
+      </c>
+      <c r="L50" s="2">
         <v>0.17199999999999999</v>
       </c>
-      <c r="M50" s="3">
+      <c r="M50" s="2">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="N50" s="3">
-        <v>0</v>
-      </c>
-      <c r="O50" s="3">
+      <c r="N50" s="2">
+        <v>0</v>
+      </c>
+      <c r="O50" s="2">
         <v>0.63500000000000001</v>
       </c>
-      <c r="P50" s="3">
+      <c r="P50" s="2">
         <v>0.56499999999999995</v>
       </c>
-      <c r="Q50" s="3">
-        <v>0</v>
-      </c>
-      <c r="R50" s="3">
+      <c r="Q50" s="2">
+        <v>0</v>
+      </c>
+      <c r="R50" s="2">
         <v>0.109</v>
       </c>
-      <c r="S50" s="3">
+      <c r="S50" s="2">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="T50" s="3">
-        <v>0</v>
-      </c>
-      <c r="U50" s="3">
+      <c r="T50" s="2">
+        <v>0</v>
+      </c>
+      <c r="U50" s="2">
         <v>0.19500000000000001</v>
       </c>
-      <c r="V50" s="3">
+      <c r="V50" s="2">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="W50" s="3">
+      <c r="W50" s="2">
         <v>0</v>
       </c>
     </row>
@@ -4623,58 +4627,58 @@
       <c r="E51" s="1">
         <v>2322</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F51" s="2">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="G51" s="3">
+      <c r="G51" s="2">
         <v>0.01</v>
       </c>
-      <c r="H51" s="3">
-        <v>0</v>
-      </c>
-      <c r="I51" s="3">
+      <c r="H51" s="2">
+        <v>0</v>
+      </c>
+      <c r="I51" s="2">
         <v>-5.7000000000000002E-2</v>
       </c>
-      <c r="J51" s="3">
+      <c r="J51" s="2">
         <v>-0.14099999999999999</v>
       </c>
-      <c r="K51" s="3">
-        <v>0</v>
-      </c>
-      <c r="L51" s="3">
+      <c r="K51" s="2">
+        <v>0</v>
+      </c>
+      <c r="L51" s="2">
         <v>0.109</v>
       </c>
-      <c r="M51" s="3">
+      <c r="M51" s="2">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="N51" s="3">
-        <v>0</v>
-      </c>
-      <c r="O51" s="3">
+      <c r="N51" s="2">
+        <v>0</v>
+      </c>
+      <c r="O51" s="2">
         <v>0.65100000000000002</v>
       </c>
-      <c r="P51" s="3">
+      <c r="P51" s="2">
         <v>0.57199999999999995</v>
       </c>
-      <c r="Q51" s="3">
-        <v>0</v>
-      </c>
-      <c r="R51" s="3">
+      <c r="Q51" s="2">
+        <v>0</v>
+      </c>
+      <c r="R51" s="2">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="S51" s="3">
+      <c r="S51" s="2">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="T51" s="3">
-        <v>0</v>
-      </c>
-      <c r="U51" s="3">
+      <c r="T51" s="2">
+        <v>0</v>
+      </c>
+      <c r="U51" s="2">
         <v>0.14199999999999999</v>
       </c>
-      <c r="V51" s="3">
+      <c r="V51" s="2">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="W51" s="3">
+      <c r="W51" s="2">
         <v>0</v>
       </c>
     </row>
@@ -4694,58 +4698,58 @@
       <c r="E52" s="1">
         <v>2302</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="2">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G52" s="2">
         <v>1.9E-2</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
+      <c r="H52" s="2">
+        <v>0</v>
+      </c>
+      <c r="I52" s="2">
         <v>-3.3000000000000002E-2</v>
       </c>
-      <c r="J52" s="3">
+      <c r="J52" s="2">
         <v>-0.13</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3">
+      <c r="K52" s="2">
+        <v>0</v>
+      </c>
+      <c r="L52" s="2">
         <v>0.11</v>
       </c>
-      <c r="M52" s="3">
+      <c r="M52" s="2">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="N52" s="2">
+        <v>0</v>
+      </c>
+      <c r="O52" s="2">
         <v>0.62</v>
       </c>
-      <c r="P52" s="3">
+      <c r="P52" s="2">
         <v>0.56100000000000005</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
-      </c>
-      <c r="R52" s="3">
+      <c r="Q52" s="2">
+        <v>0</v>
+      </c>
+      <c r="R52" s="2">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="S52" s="3">
+      <c r="S52" s="2">
         <v>2.7E-2</v>
       </c>
-      <c r="T52" s="3">
-        <v>0</v>
-      </c>
-      <c r="U52" s="3">
+      <c r="T52" s="2">
+        <v>0</v>
+      </c>
+      <c r="U52" s="2">
         <v>0.14599999999999999</v>
       </c>
-      <c r="V52" s="3">
+      <c r="V52" s="2">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="W52" s="3">
+      <c r="W52" s="2">
         <v>0</v>
       </c>
     </row>
@@ -4765,58 +4769,58 @@
       <c r="E53" s="1">
         <v>2328</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F53" s="2">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="G53" s="3">
+      <c r="G53" s="2">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="H53" s="3">
-        <v>0</v>
-      </c>
-      <c r="I53" s="3">
+      <c r="H53" s="2">
+        <v>0</v>
+      </c>
+      <c r="I53" s="2">
         <v>-0.06</v>
       </c>
-      <c r="J53" s="3">
+      <c r="J53" s="2">
         <v>-0.14399999999999999</v>
       </c>
-      <c r="K53" s="3">
-        <v>0</v>
-      </c>
-      <c r="L53" s="3">
+      <c r="K53" s="2">
+        <v>0</v>
+      </c>
+      <c r="L53" s="2">
         <v>0.121</v>
       </c>
-      <c r="M53" s="3">
+      <c r="M53" s="2">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="N53" s="3">
-        <v>0</v>
-      </c>
-      <c r="O53" s="3">
+      <c r="N53" s="2">
+        <v>0</v>
+      </c>
+      <c r="O53" s="2">
         <v>0.67900000000000005</v>
       </c>
-      <c r="P53" s="3">
+      <c r="P53" s="2">
         <v>0.54700000000000004</v>
       </c>
-      <c r="Q53" s="3">
-        <v>0</v>
-      </c>
-      <c r="R53" s="3">
+      <c r="Q53" s="2">
+        <v>0</v>
+      </c>
+      <c r="R53" s="2">
         <v>0.16800000000000001</v>
       </c>
-      <c r="S53" s="3">
+      <c r="S53" s="2">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="T53" s="3">
-        <v>0</v>
-      </c>
-      <c r="U53" s="3">
+      <c r="T53" s="2">
+        <v>0</v>
+      </c>
+      <c r="U53" s="2">
         <v>0.28599999999999998</v>
       </c>
-      <c r="V53" s="3">
+      <c r="V53" s="2">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="W53" s="3">
+      <c r="W53" s="2">
         <v>0</v>
       </c>
     </row>
@@ -4827,79 +4831,3905 @@
       <c r="B54" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D54" s="3">
         <v>1989</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E54" s="3">
         <v>1230</v>
       </c>
-      <c r="F54" s="5">
+      <c r="F54" s="4">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="G54" s="5">
+      <c r="G54" s="4">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="H54" s="5">
-        <v>0</v>
-      </c>
-      <c r="I54" s="5">
+      <c r="H54" s="4">
+        <v>0</v>
+      </c>
+      <c r="I54" s="4">
         <v>-0.11700000000000001</v>
       </c>
-      <c r="J54" s="5">
+      <c r="J54" s="4">
         <v>-0.19900000000000001</v>
       </c>
-      <c r="K54" s="5">
-        <v>0</v>
-      </c>
-      <c r="L54" s="5">
+      <c r="K54" s="4">
+        <v>0</v>
+      </c>
+      <c r="L54" s="4">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="M54" s="5">
+      <c r="M54" s="4">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="N54" s="5">
-        <v>0</v>
-      </c>
-      <c r="O54" s="5">
+      <c r="N54" s="4">
+        <v>0</v>
+      </c>
+      <c r="O54" s="4">
         <v>0.57199999999999995</v>
       </c>
-      <c r="P54" s="5">
+      <c r="P54" s="4">
         <v>0.55800000000000005</v>
       </c>
-      <c r="Q54" s="5">
-        <v>0</v>
-      </c>
-      <c r="R54" s="5">
+      <c r="Q54" s="4">
+        <v>0</v>
+      </c>
+      <c r="R54" s="4">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="S54" s="5">
+      <c r="S54" s="4">
         <v>2.4E-2</v>
       </c>
-      <c r="T54" s="5">
-        <v>0</v>
-      </c>
-      <c r="U54" s="5">
+      <c r="T54" s="4">
+        <v>0</v>
+      </c>
+      <c r="U54" s="4">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="V54" s="5">
+      <c r="V54" s="4">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="W54" s="5">
+      <c r="W54" s="4">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="U1:W1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="O1:Q1"/>
     <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:W1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895C1C0C-3466-C44B-9E72-EFC833635144}">
+  <dimension ref="A1:W54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J55" sqref="J55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="23" width="9.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>68</v>
+      </c>
+      <c r="E3">
+        <v>2331</v>
+      </c>
+      <c r="F3" s="5">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="G3" s="5">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>-0.65600000000000003</v>
+      </c>
+      <c r="J3" s="5">
+        <v>-0.48</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0</v>
+      </c>
+      <c r="L3" s="5">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="M3" s="5">
+        <v>2.7E-2</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="P3" s="5">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>0</v>
+      </c>
+      <c r="R3" s="5">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="S3" s="5">
+        <v>1.2E-2</v>
+      </c>
+      <c r="T3" s="5">
+        <v>0</v>
+      </c>
+      <c r="U3" s="5">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="V3" s="5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="W3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>28</v>
+      </c>
+      <c r="E4">
+        <v>2371</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="G4" s="5">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <v>-0.17699999999999999</v>
+      </c>
+      <c r="J4" s="5">
+        <v>-0.19800000000000001</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0.107</v>
+      </c>
+      <c r="M4" s="5">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="P4" s="5">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>0</v>
+      </c>
+      <c r="R4" s="5">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="S4" s="5">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="T4" s="5">
+        <v>0</v>
+      </c>
+      <c r="U4" s="5">
+        <v>0.47</v>
+      </c>
+      <c r="V4" s="5">
+        <v>9.4E-2</v>
+      </c>
+      <c r="W4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>124</v>
+      </c>
+      <c r="E5">
+        <v>2275</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>-0.64700000000000002</v>
+      </c>
+      <c r="J5" s="5">
+        <v>-0.46200000000000002</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="P5" s="5">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>0</v>
+      </c>
+      <c r="R5" s="5">
+        <v>0.156</v>
+      </c>
+      <c r="S5" s="5">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="T5" s="5">
+        <v>0</v>
+      </c>
+      <c r="U5" s="5">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="V5" s="5">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="W5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>137</v>
+      </c>
+      <c r="E6">
+        <v>2262</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="G6" s="5">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>-0.42899999999999999</v>
+      </c>
+      <c r="J6" s="5">
+        <v>-0.33600000000000002</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="M6" s="5">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="P6" s="5">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>0</v>
+      </c>
+      <c r="R6" s="5">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="S6" s="5">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="T6" s="5">
+        <v>0</v>
+      </c>
+      <c r="U6" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="V6" s="5">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="W6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="6">
+        <v>357</v>
+      </c>
+      <c r="E7" s="6">
+        <v>2058</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G7" s="7">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>-0.55300000000000005</v>
+      </c>
+      <c r="J7" s="7">
+        <v>-0.379</v>
+      </c>
+      <c r="K7" s="7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="M7" s="7">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7">
+        <v>0.623</v>
+      </c>
+      <c r="P7" s="7">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>0</v>
+      </c>
+      <c r="R7" s="7">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="S7" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="T7" s="7">
+        <v>0</v>
+      </c>
+      <c r="U7" s="7">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="V7" s="7">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="W7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>53</v>
+      </c>
+      <c r="E8">
+        <v>2346</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0.111</v>
+      </c>
+      <c r="J8" s="5">
+        <v>-0.1</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0</v>
+      </c>
+      <c r="L8" s="5">
+        <v>0.311</v>
+      </c>
+      <c r="M8" s="5">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="N8" s="5">
+        <v>0</v>
+      </c>
+      <c r="O8" s="5">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="P8" s="5">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>0</v>
+      </c>
+      <c r="R8" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="S8" s="5">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="T8" s="5">
+        <v>0</v>
+      </c>
+      <c r="U8" s="5">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="V8" s="5">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="W8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="6">
+        <v>53</v>
+      </c>
+      <c r="E9" s="6">
+        <v>2346</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0.111</v>
+      </c>
+      <c r="J9" s="7">
+        <v>-0.1</v>
+      </c>
+      <c r="K9" s="7">
+        <v>0</v>
+      </c>
+      <c r="L9" s="7">
+        <v>0.311</v>
+      </c>
+      <c r="M9" s="7">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="N9" s="7">
+        <v>0</v>
+      </c>
+      <c r="O9" s="7">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="P9" s="7">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>0</v>
+      </c>
+      <c r="R9" s="7">
+        <v>0.21</v>
+      </c>
+      <c r="S9" s="7">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="T9" s="7">
+        <v>0</v>
+      </c>
+      <c r="U9" s="7">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="V9" s="7">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="W9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10">
+        <v>190</v>
+      </c>
+      <c r="E10">
+        <v>2209</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="G10" s="5">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <v>-9.2999999999999999E-2</v>
+      </c>
+      <c r="J10" s="5">
+        <v>-0.156</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="M10" s="5">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="N10" s="5">
+        <v>0</v>
+      </c>
+      <c r="O10" s="5">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="P10" s="5">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>0</v>
+      </c>
+      <c r="R10" s="5">
+        <v>0.158</v>
+      </c>
+      <c r="S10" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="T10" s="5">
+        <v>0</v>
+      </c>
+      <c r="U10" s="5">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="V10" s="5">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="W10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11">
+        <v>109</v>
+      </c>
+      <c r="E11">
+        <v>2290</v>
+      </c>
+      <c r="F11" s="5">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <v>-0.64300000000000002</v>
+      </c>
+      <c r="J11" s="5">
+        <v>-0.45400000000000001</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0</v>
+      </c>
+      <c r="L11" s="5">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="M11" s="5">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="N11" s="5">
+        <v>0</v>
+      </c>
+      <c r="O11" s="5">
+        <v>0.624</v>
+      </c>
+      <c r="P11" s="5">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>0</v>
+      </c>
+      <c r="R11" s="5">
+        <v>0.126</v>
+      </c>
+      <c r="S11" s="5">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="T11" s="5">
+        <v>0</v>
+      </c>
+      <c r="U11" s="5">
+        <v>0.249</v>
+      </c>
+      <c r="V11" s="5">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="W11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="6">
+        <v>299</v>
+      </c>
+      <c r="E12" s="6">
+        <v>2113</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0.186</v>
+      </c>
+      <c r="G12" s="7">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>-0.32700000000000001</v>
+      </c>
+      <c r="J12" s="7">
+        <v>-0.25700000000000001</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0</v>
+      </c>
+      <c r="L12" s="7">
+        <v>9.4E-2</v>
+      </c>
+      <c r="M12" s="7">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="P12" s="7">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>0</v>
+      </c>
+      <c r="R12" s="7">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="S12" s="7">
+        <v>2.7E-2</v>
+      </c>
+      <c r="T12" s="7">
+        <v>0</v>
+      </c>
+      <c r="U12" s="7">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="V12" s="7">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="W12" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <v>2393</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="G13" s="5">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="I13" s="5">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="J13" s="5">
+        <v>-9.8000000000000004E-2</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="L13" s="5">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="M13" s="5">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="N13" s="5">
+        <v>0</v>
+      </c>
+      <c r="O13" s="5">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="P13" s="5">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>0</v>
+      </c>
+      <c r="R13" s="5">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="S13" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="T13" s="5">
+        <v>0</v>
+      </c>
+      <c r="U13" s="5">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="V13" s="5">
+        <v>7.8E-2</v>
+      </c>
+      <c r="W13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="6">
+        <v>6</v>
+      </c>
+      <c r="E14" s="6">
+        <v>2393</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="G14" s="7">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="I14" s="7">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="J14" s="7">
+        <v>-9.8000000000000004E-2</v>
+      </c>
+      <c r="K14" s="7">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="L14" s="7">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="M14" s="7">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="P14" s="7">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>0</v>
+      </c>
+      <c r="R14" s="7">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="S14" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="T14" s="7">
+        <v>0</v>
+      </c>
+      <c r="U14" s="7">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="V14" s="7">
+        <v>7.8E-2</v>
+      </c>
+      <c r="W14" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15">
+        <v>54</v>
+      </c>
+      <c r="E15">
+        <v>2345</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0.104</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="J15" s="5">
+        <v>-6.7000000000000004E-2</v>
+      </c>
+      <c r="K15" s="5">
+        <v>0</v>
+      </c>
+      <c r="L15" s="5">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="M15" s="5">
+        <v>0.107</v>
+      </c>
+      <c r="N15" s="5">
+        <v>0</v>
+      </c>
+      <c r="O15" s="5">
+        <v>0.879</v>
+      </c>
+      <c r="P15" s="5">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>0</v>
+      </c>
+      <c r="R15" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="S15" s="5">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="T15" s="5">
+        <v>0</v>
+      </c>
+      <c r="U15" s="5">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="V15" s="5">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="W15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16">
+        <v>151</v>
+      </c>
+      <c r="E16">
+        <v>2249</v>
+      </c>
+      <c r="F16" s="5">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="G16" s="5">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0</v>
+      </c>
+      <c r="I16" s="5">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="J16" s="5">
+        <v>-9.9000000000000005E-2</v>
+      </c>
+      <c r="K16" s="5">
+        <v>0</v>
+      </c>
+      <c r="L16" s="5">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="M16" s="5">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="N16" s="5">
+        <v>0</v>
+      </c>
+      <c r="O16" s="5">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="P16" s="5">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>0</v>
+      </c>
+      <c r="R16" s="5">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="S16" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="T16" s="5">
+        <v>0</v>
+      </c>
+      <c r="U16" s="5">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="V16" s="5">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="W16" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17">
+        <v>147</v>
+      </c>
+      <c r="E17">
+        <v>2252</v>
+      </c>
+      <c r="F17" s="5">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="G17" s="5">
+        <v>1.6E-2</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0</v>
+      </c>
+      <c r="I17" s="5">
+        <v>-9.0999999999999998E-2</v>
+      </c>
+      <c r="J17" s="5">
+        <v>-0.158</v>
+      </c>
+      <c r="K17" s="5">
+        <v>0</v>
+      </c>
+      <c r="L17" s="5">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="M17" s="5">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="N17" s="5">
+        <v>0</v>
+      </c>
+      <c r="O17" s="5">
+        <v>0.627</v>
+      </c>
+      <c r="P17" s="5">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>0</v>
+      </c>
+      <c r="R17" s="5">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="S17" s="5">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="T17" s="5">
+        <v>0</v>
+      </c>
+      <c r="U17" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="V17" s="5">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="W17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18">
+        <v>75</v>
+      </c>
+      <c r="E18">
+        <v>2324</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="G18" s="5">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0</v>
+      </c>
+      <c r="I18" s="5">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="J18" s="5">
+        <v>-8.4000000000000005E-2</v>
+      </c>
+      <c r="K18" s="5">
+        <v>0</v>
+      </c>
+      <c r="L18" s="5">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="M18" s="5">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="N18" s="5">
+        <v>0</v>
+      </c>
+      <c r="O18" s="5">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="P18" s="5">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>0</v>
+      </c>
+      <c r="R18" s="5">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="S18" s="5">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="T18" s="5">
+        <v>0</v>
+      </c>
+      <c r="U18" s="5">
+        <v>0.79</v>
+      </c>
+      <c r="V18" s="5">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="W18" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19">
+        <v>32</v>
+      </c>
+      <c r="E19">
+        <v>2367</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0.112</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0</v>
+      </c>
+      <c r="I19" s="5">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="J19" s="5">
+        <v>-5.5E-2</v>
+      </c>
+      <c r="K19" s="5">
+        <v>0</v>
+      </c>
+      <c r="L19" s="5">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="M19" s="5">
+        <v>0.121</v>
+      </c>
+      <c r="N19" s="5">
+        <v>0</v>
+      </c>
+      <c r="O19" s="5">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="P19" s="5">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>0</v>
+      </c>
+      <c r="R19" s="5">
+        <v>0.747</v>
+      </c>
+      <c r="S19" s="5">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="T19" s="5">
+        <v>0</v>
+      </c>
+      <c r="U19" s="5">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="V19" s="5">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="W19" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20">
+        <v>47</v>
+      </c>
+      <c r="E20">
+        <v>2352</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="G20" s="5">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0</v>
+      </c>
+      <c r="I20" s="5">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="J20" s="5">
+        <v>-8.5999999999999993E-2</v>
+      </c>
+      <c r="K20" s="5">
+        <v>0</v>
+      </c>
+      <c r="L20" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="M20" s="5">
+        <v>9.4E-2</v>
+      </c>
+      <c r="N20" s="5">
+        <v>0</v>
+      </c>
+      <c r="O20" s="5">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="P20" s="5">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="Q20" s="5">
+        <v>0</v>
+      </c>
+      <c r="R20" s="5">
+        <v>0.23</v>
+      </c>
+      <c r="S20" s="5">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="T20" s="5">
+        <v>0</v>
+      </c>
+      <c r="U20" s="5">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="V20" s="5">
+        <v>6.2E-2</v>
+      </c>
+      <c r="W20" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="6">
+        <v>506</v>
+      </c>
+      <c r="E21" s="6">
+        <v>1941</v>
+      </c>
+      <c r="F21" s="7">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="G21" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0</v>
+      </c>
+      <c r="I21" s="7">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="J21" s="7">
+        <v>-0.13100000000000001</v>
+      </c>
+      <c r="K21" s="7">
+        <v>0</v>
+      </c>
+      <c r="L21" s="7">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="M21" s="7">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="N21" s="7">
+        <v>0</v>
+      </c>
+      <c r="O21" s="7">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="P21" s="7">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="Q21" s="7">
+        <v>0</v>
+      </c>
+      <c r="R21" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="S21" s="7">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="T21" s="7">
+        <v>0</v>
+      </c>
+      <c r="U21" s="7">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="V21" s="7">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="W21" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22">
+        <v>93</v>
+      </c>
+      <c r="E22">
+        <v>2306</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="G22" s="5">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0</v>
+      </c>
+      <c r="I22" s="5">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="J22" s="5">
+        <v>-0.111</v>
+      </c>
+      <c r="K22" s="5">
+        <v>0</v>
+      </c>
+      <c r="L22" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="M22" s="5">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="N22" s="5">
+        <v>0</v>
+      </c>
+      <c r="O22" s="5">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="P22" s="5">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>0</v>
+      </c>
+      <c r="R22" s="5">
+        <v>0.105</v>
+      </c>
+      <c r="S22" s="5">
+        <v>2.3E-2</v>
+      </c>
+      <c r="T22" s="5">
+        <v>0</v>
+      </c>
+      <c r="U22" s="5">
+        <v>0.189</v>
+      </c>
+      <c r="V22" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="W22" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23">
+        <v>17</v>
+      </c>
+      <c r="E23">
+        <v>2382</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0.372</v>
+      </c>
+      <c r="G23" s="5">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="H23" s="5">
+        <v>0</v>
+      </c>
+      <c r="I23" s="5">
+        <v>-0.78200000000000003</v>
+      </c>
+      <c r="J23" s="5">
+        <v>-0.56799999999999995</v>
+      </c>
+      <c r="K23" s="5">
+        <v>0</v>
+      </c>
+      <c r="L23" s="5">
+        <v>3.1E-2</v>
+      </c>
+      <c r="M23" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="N23" s="5">
+        <v>0</v>
+      </c>
+      <c r="O23" s="5">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="P23" s="5">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="Q23" s="5">
+        <v>0</v>
+      </c>
+      <c r="R23" s="5">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="S23" s="5">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="T23" s="5">
+        <v>0</v>
+      </c>
+      <c r="U23" s="5">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="V23" s="5">
+        <v>1.9E-2</v>
+      </c>
+      <c r="W23" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24">
+        <v>155</v>
+      </c>
+      <c r="E24">
+        <v>2244</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0.247</v>
+      </c>
+      <c r="G24" s="5">
+        <v>2.7E-2</v>
+      </c>
+      <c r="H24" s="5">
+        <v>0</v>
+      </c>
+      <c r="I24" s="5">
+        <v>-7.0999999999999994E-2</v>
+      </c>
+      <c r="J24" s="5">
+        <v>-0.17699999999999999</v>
+      </c>
+      <c r="K24" s="5">
+        <v>0</v>
+      </c>
+      <c r="L24" s="5">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="M24" s="5">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="N24" s="5">
+        <v>0</v>
+      </c>
+      <c r="O24" s="5">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="P24" s="5">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="Q24" s="5">
+        <v>0</v>
+      </c>
+      <c r="R24" s="5">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="S24" s="5">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="T24" s="5">
+        <v>0</v>
+      </c>
+      <c r="U24" s="5">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="V24" s="5">
+        <v>3.1E-2</v>
+      </c>
+      <c r="W24" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="6">
+        <v>265</v>
+      </c>
+      <c r="E25" s="6">
+        <v>2140</v>
+      </c>
+      <c r="F25" s="7">
+        <v>0.112</v>
+      </c>
+      <c r="G25" s="7">
+        <v>2.3E-2</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>-0.128</v>
+      </c>
+      <c r="J25" s="7">
+        <v>-0.18</v>
+      </c>
+      <c r="K25" s="7">
+        <v>0</v>
+      </c>
+      <c r="L25" s="7">
+        <v>0.121</v>
+      </c>
+      <c r="M25" s="7">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="N25" s="7">
+        <v>0</v>
+      </c>
+      <c r="O25" s="7">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="P25" s="7">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="Q25" s="7">
+        <v>0</v>
+      </c>
+      <c r="R25" s="7">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="S25" s="7">
+        <v>1.9E-2</v>
+      </c>
+      <c r="T25" s="7">
+        <v>0</v>
+      </c>
+      <c r="U25" s="7">
+        <v>0.157</v>
+      </c>
+      <c r="V25" s="7">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="W25" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26">
+        <v>364</v>
+      </c>
+      <c r="E26">
+        <v>2035</v>
+      </c>
+      <c r="F26" s="5">
+        <v>0.78</v>
+      </c>
+      <c r="G26" s="5">
+        <v>4.7E-2</v>
+      </c>
+      <c r="H26" s="5">
+        <v>0</v>
+      </c>
+      <c r="I26" s="5">
+        <v>0.251</v>
+      </c>
+      <c r="J26" s="5">
+        <v>-0.111</v>
+      </c>
+      <c r="K26" s="5">
+        <v>0</v>
+      </c>
+      <c r="L26" s="5">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="M26" s="5">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="N26" s="5">
+        <v>0</v>
+      </c>
+      <c r="O26" s="5">
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="P26" s="5">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="Q26" s="5">
+        <v>0</v>
+      </c>
+      <c r="R26" s="5">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="S26" s="5">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="T26" s="5">
+        <v>0</v>
+      </c>
+      <c r="U26" s="5">
+        <v>0.498</v>
+      </c>
+      <c r="V26" s="5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="W26" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27">
+        <v>13</v>
+      </c>
+      <c r="E27">
+        <v>2386</v>
+      </c>
+      <c r="F27" s="5">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="G27" s="5">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="H27" s="5">
+        <v>0</v>
+      </c>
+      <c r="I27" s="5">
+        <v>0.372</v>
+      </c>
+      <c r="J27" s="5">
+        <v>-7.6999999999999999E-2</v>
+      </c>
+      <c r="K27" s="5">
+        <v>0</v>
+      </c>
+      <c r="L27" s="5">
+        <v>0.31</v>
+      </c>
+      <c r="M27" s="5">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="N27" s="5">
+        <v>0</v>
+      </c>
+      <c r="O27" s="5">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="P27" s="5">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="Q27" s="5">
+        <v>0</v>
+      </c>
+      <c r="R27" s="5">
+        <v>0.312</v>
+      </c>
+      <c r="S27" s="5">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="T27" s="5">
+        <v>0</v>
+      </c>
+      <c r="U27" s="5">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="V27" s="5">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="W27" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="6">
+        <v>377</v>
+      </c>
+      <c r="E28" s="6">
+        <v>2022</v>
+      </c>
+      <c r="F28" s="7">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="G28" s="7">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="J28" s="7">
+        <v>-0.112</v>
+      </c>
+      <c r="K28" s="7">
+        <v>0</v>
+      </c>
+      <c r="L28" s="7">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="M28" s="7">
+        <v>7.8E-2</v>
+      </c>
+      <c r="N28" s="7">
+        <v>0</v>
+      </c>
+      <c r="O28" s="7">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="P28" s="7">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="Q28" s="7">
+        <v>0</v>
+      </c>
+      <c r="R28" s="7">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="S28" s="7">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="T28" s="7">
+        <v>0</v>
+      </c>
+      <c r="U28" s="7">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="V28" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="W28" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29">
+        <v>33</v>
+      </c>
+      <c r="E29">
+        <v>2366</v>
+      </c>
+      <c r="F29" s="5">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="G29" s="5">
+        <v>1.2E-2</v>
+      </c>
+      <c r="H29" s="5">
+        <v>0</v>
+      </c>
+      <c r="I29" s="5">
+        <v>-0.35199999999999998</v>
+      </c>
+      <c r="J29" s="5">
+        <v>-0.28499999999999998</v>
+      </c>
+      <c r="K29" s="5">
+        <v>0</v>
+      </c>
+      <c r="L29" s="5">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="M29" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="N29" s="5">
+        <v>0</v>
+      </c>
+      <c r="O29" s="5">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="P29" s="5">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="Q29" s="5">
+        <v>0</v>
+      </c>
+      <c r="R29" s="5">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="S29" s="5">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="T29" s="5">
+        <v>0</v>
+      </c>
+      <c r="U29" s="5">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="V29" s="5">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="W29" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30">
+        <v>40</v>
+      </c>
+      <c r="E30">
+        <v>2359</v>
+      </c>
+      <c r="F30" s="5">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="G30" s="5">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="H30" s="5">
+        <v>0</v>
+      </c>
+      <c r="I30" s="5">
+        <v>-2.9000000000000001E-2</v>
+      </c>
+      <c r="J30" s="5">
+        <v>-0.16</v>
+      </c>
+      <c r="K30" s="5">
+        <v>0</v>
+      </c>
+      <c r="L30" s="5">
+        <v>0.192</v>
+      </c>
+      <c r="M30" s="5">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="N30" s="5">
+        <v>0</v>
+      </c>
+      <c r="O30" s="5">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="P30" s="5">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="Q30" s="5">
+        <v>0</v>
+      </c>
+      <c r="R30" s="5">
+        <v>0.156</v>
+      </c>
+      <c r="S30" s="5">
+        <v>1.6E-2</v>
+      </c>
+      <c r="T30" s="5">
+        <v>0</v>
+      </c>
+      <c r="U30" s="5">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="V30" s="5">
+        <v>3.1E-2</v>
+      </c>
+      <c r="W30" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="6">
+        <v>73</v>
+      </c>
+      <c r="E31" s="6">
+        <v>2326</v>
+      </c>
+      <c r="F31" s="7">
+        <v>4.7E-2</v>
+      </c>
+      <c r="G31" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="H31" s="7">
+        <v>0</v>
+      </c>
+      <c r="I31" s="7">
+        <v>-0.20899999999999999</v>
+      </c>
+      <c r="J31" s="7">
+        <v>-0.216</v>
+      </c>
+      <c r="K31" s="7">
+        <v>0</v>
+      </c>
+      <c r="L31" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="M31" s="7">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="N31" s="7">
+        <v>0</v>
+      </c>
+      <c r="O31" s="7">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="P31" s="7">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="Q31" s="7">
+        <v>0</v>
+      </c>
+      <c r="R31" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="S31" s="7">
+        <v>1.6E-2</v>
+      </c>
+      <c r="T31" s="7">
+        <v>0</v>
+      </c>
+      <c r="U31" s="7">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="V31" s="7">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="W31" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32">
+        <v>13</v>
+      </c>
+      <c r="E32">
+        <v>2386</v>
+      </c>
+      <c r="F32" s="5">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="G32" s="5">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="H32" s="5">
+        <v>0</v>
+      </c>
+      <c r="I32" s="5">
+        <v>-0.20100000000000001</v>
+      </c>
+      <c r="J32" s="5">
+        <v>-0.23799999999999999</v>
+      </c>
+      <c r="K32" s="5">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="L32" s="5">
+        <v>0.223</v>
+      </c>
+      <c r="M32" s="5">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="N32" s="5">
+        <v>0</v>
+      </c>
+      <c r="O32" s="5">
+        <v>0.751</v>
+      </c>
+      <c r="P32" s="5">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="Q32" s="5">
+        <v>0</v>
+      </c>
+      <c r="R32" s="5">
+        <v>0.309</v>
+      </c>
+      <c r="S32" s="5">
+        <v>2.3E-2</v>
+      </c>
+      <c r="T32" s="5">
+        <v>0</v>
+      </c>
+      <c r="U32" s="5">
+        <v>0.47</v>
+      </c>
+      <c r="V32" s="5">
+        <v>4.7E-2</v>
+      </c>
+      <c r="W32" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33">
+        <v>146</v>
+      </c>
+      <c r="E33">
+        <v>2253</v>
+      </c>
+      <c r="F33" s="5">
+        <v>6.3E-2</v>
+      </c>
+      <c r="G33" s="5">
+        <v>1.6E-2</v>
+      </c>
+      <c r="H33" s="5">
+        <v>0</v>
+      </c>
+      <c r="I33" s="5">
+        <v>-3.9E-2</v>
+      </c>
+      <c r="J33" s="5">
+        <v>-0.13800000000000001</v>
+      </c>
+      <c r="K33" s="5">
+        <v>0</v>
+      </c>
+      <c r="L33" s="5">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="M33" s="5">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="N33" s="5">
+        <v>0</v>
+      </c>
+      <c r="O33" s="5">
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="P33" s="5">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="Q33" s="5">
+        <v>0</v>
+      </c>
+      <c r="R33" s="5">
+        <v>0.114</v>
+      </c>
+      <c r="S33" s="5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="T33" s="5">
+        <v>0</v>
+      </c>
+      <c r="U33" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="V33" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="W33" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34">
+        <v>18</v>
+      </c>
+      <c r="E34">
+        <v>2381</v>
+      </c>
+      <c r="F34" s="5">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="G34" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="H34" s="5">
+        <v>0</v>
+      </c>
+      <c r="I34" s="5">
+        <v>5.5E-2</v>
+      </c>
+      <c r="J34" s="5">
+        <v>-9.7000000000000003E-2</v>
+      </c>
+      <c r="K34" s="5">
+        <v>0</v>
+      </c>
+      <c r="L34" s="5">
+        <v>0.122</v>
+      </c>
+      <c r="M34" s="5">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="N34" s="5">
+        <v>0</v>
+      </c>
+      <c r="O34" s="5">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="P34" s="5">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="Q34" s="5">
+        <v>0</v>
+      </c>
+      <c r="R34" s="5">
+        <v>0.107</v>
+      </c>
+      <c r="S34" s="5">
+        <v>3.1E-2</v>
+      </c>
+      <c r="T34" s="5">
+        <v>0</v>
+      </c>
+      <c r="U34" s="5">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="V34" s="5">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="W34" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35">
+        <v>7</v>
+      </c>
+      <c r="E35">
+        <v>2392</v>
+      </c>
+      <c r="F35" s="5">
+        <v>0.248</v>
+      </c>
+      <c r="G35" s="5">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H35" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I35" s="5">
+        <v>-0.70899999999999996</v>
+      </c>
+      <c r="J35" s="5">
+        <v>-0.48299999999999998</v>
+      </c>
+      <c r="K35" s="5">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="L35" s="5">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="M35" s="5">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="N35" s="5">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="O35" s="5">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="P35" s="5">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="Q35" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="R35" s="5">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="S35" s="5">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="T35" s="5">
+        <v>0</v>
+      </c>
+      <c r="U35" s="5">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="V35" s="5">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="W35" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36">
+        <v>39</v>
+      </c>
+      <c r="E36">
+        <v>2360</v>
+      </c>
+      <c r="F36" s="5">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="G36" s="5">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="H36" s="5">
+        <v>0</v>
+      </c>
+      <c r="I36" s="5">
+        <v>0.106</v>
+      </c>
+      <c r="J36" s="5">
+        <v>-9.2999999999999999E-2</v>
+      </c>
+      <c r="K36" s="5">
+        <v>0</v>
+      </c>
+      <c r="L36" s="5">
+        <v>0.216</v>
+      </c>
+      <c r="M36" s="5">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="N36" s="5">
+        <v>0</v>
+      </c>
+      <c r="O36" s="5">
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="P36" s="5">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="Q36" s="5">
+        <v>0</v>
+      </c>
+      <c r="R36" s="5">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="S36" s="5">
+        <v>2.3E-2</v>
+      </c>
+      <c r="T36" s="5">
+        <v>0</v>
+      </c>
+      <c r="U36" s="5">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="V36" s="5">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="W36" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37">
+        <v>40</v>
+      </c>
+      <c r="E37">
+        <v>2359</v>
+      </c>
+      <c r="F37" s="5">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="G37" s="5">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="H37" s="5">
+        <v>0</v>
+      </c>
+      <c r="I37" s="5">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="J37" s="5">
+        <v>-0.1</v>
+      </c>
+      <c r="K37" s="5">
+        <v>0</v>
+      </c>
+      <c r="L37" s="5">
+        <v>0.222</v>
+      </c>
+      <c r="M37" s="5">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="N37" s="5">
+        <v>0</v>
+      </c>
+      <c r="O37" s="5">
+        <v>0.68</v>
+      </c>
+      <c r="P37" s="5">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="Q37" s="5">
+        <v>0</v>
+      </c>
+      <c r="R37" s="5">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="S37" s="5">
+        <v>3.9E-2</v>
+      </c>
+      <c r="T37" s="5">
+        <v>0</v>
+      </c>
+      <c r="U37" s="5">
+        <v>0.432</v>
+      </c>
+      <c r="V37" s="5">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="W37" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" s="6">
+        <v>263</v>
+      </c>
+      <c r="E38" s="6">
+        <v>2147</v>
+      </c>
+      <c r="F38" s="7">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="G38" s="7">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="H38" s="7">
+        <v>0</v>
+      </c>
+      <c r="I38" s="7">
+        <v>-6.2E-2</v>
+      </c>
+      <c r="J38" s="7">
+        <v>-0.14299999999999999</v>
+      </c>
+      <c r="K38" s="7">
+        <v>0</v>
+      </c>
+      <c r="L38" s="7">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="M38" s="7">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="N38" s="7">
+        <v>0</v>
+      </c>
+      <c r="O38" s="7">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="P38" s="7">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="Q38" s="7">
+        <v>0</v>
+      </c>
+      <c r="R38" s="7">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="S38" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="T38" s="7">
+        <v>0</v>
+      </c>
+      <c r="U38" s="7">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="V38" s="7">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="W38" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39">
+        <v>74</v>
+      </c>
+      <c r="E39">
+        <v>2325</v>
+      </c>
+      <c r="F39" s="5">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="G39" s="5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H39" s="5">
+        <v>1.2E-2</v>
+      </c>
+      <c r="I39" s="5">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J39" s="5">
+        <v>-0.108</v>
+      </c>
+      <c r="K39" s="5">
+        <v>0</v>
+      </c>
+      <c r="L39" s="5">
+        <v>0.125</v>
+      </c>
+      <c r="M39" s="5">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="N39" s="5">
+        <v>0</v>
+      </c>
+      <c r="O39" s="5">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="P39" s="5">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="Q39" s="5">
+        <v>0</v>
+      </c>
+      <c r="R39" s="5">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="S39" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="T39" s="5">
+        <v>0</v>
+      </c>
+      <c r="U39" s="5">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="V39" s="5">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="W39" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40">
+        <v>60</v>
+      </c>
+      <c r="E40">
+        <v>2339</v>
+      </c>
+      <c r="F40" s="5">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="G40" s="5">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="H40" s="5">
+        <v>0</v>
+      </c>
+      <c r="I40" s="5">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="J40" s="5">
+        <v>-9.6000000000000002E-2</v>
+      </c>
+      <c r="K40" s="5">
+        <v>0</v>
+      </c>
+      <c r="L40" s="5">
+        <v>0.182</v>
+      </c>
+      <c r="M40" s="5">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="N40" s="5">
+        <v>0</v>
+      </c>
+      <c r="O40" s="5">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="P40" s="5">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="Q40" s="5">
+        <v>0</v>
+      </c>
+      <c r="R40" s="5">
+        <v>0.111</v>
+      </c>
+      <c r="S40" s="5">
+        <v>2.7E-2</v>
+      </c>
+      <c r="T40" s="5">
+        <v>0</v>
+      </c>
+      <c r="U40" s="5">
+        <v>0.187</v>
+      </c>
+      <c r="V40" s="5">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="W40" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41">
+        <v>272</v>
+      </c>
+      <c r="E41">
+        <v>2127</v>
+      </c>
+      <c r="F41" s="5">
+        <v>0.114</v>
+      </c>
+      <c r="G41" s="5">
+        <v>3.1E-2</v>
+      </c>
+      <c r="H41" s="5">
+        <v>0</v>
+      </c>
+      <c r="I41" s="5">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="J41" s="5">
+        <v>-0.104</v>
+      </c>
+      <c r="K41" s="5">
+        <v>0</v>
+      </c>
+      <c r="L41" s="5">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="M41" s="5">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="N41" s="5">
+        <v>0</v>
+      </c>
+      <c r="O41" s="5">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="P41" s="5">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="Q41" s="5">
+        <v>0</v>
+      </c>
+      <c r="R41" s="5">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="S41" s="5">
+        <v>2.3E-2</v>
+      </c>
+      <c r="T41" s="5">
+        <v>0</v>
+      </c>
+      <c r="U41" s="5">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="V41" s="5">
+        <v>4.7E-2</v>
+      </c>
+      <c r="W41" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42">
+        <v>152</v>
+      </c>
+      <c r="E42">
+        <v>2247</v>
+      </c>
+      <c r="F42" s="5">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="G42" s="5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H42" s="5">
+        <v>0</v>
+      </c>
+      <c r="I42" s="5">
+        <v>-0.123</v>
+      </c>
+      <c r="J42" s="5">
+        <v>-0.17699999999999999</v>
+      </c>
+      <c r="K42" s="5">
+        <v>0</v>
+      </c>
+      <c r="L42" s="5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="M42" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N42" s="5">
+        <v>0</v>
+      </c>
+      <c r="O42" s="5">
+        <v>0.68</v>
+      </c>
+      <c r="P42" s="5">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="Q42" s="5">
+        <v>0</v>
+      </c>
+      <c r="R42" s="5">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="S42" s="5">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="T42" s="5">
+        <v>0</v>
+      </c>
+      <c r="U42" s="5">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="V42" s="5">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="W42" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43">
+        <v>94</v>
+      </c>
+      <c r="E43">
+        <v>2305</v>
+      </c>
+      <c r="F43" s="5">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="G43" s="5">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="H43" s="5">
+        <v>0</v>
+      </c>
+      <c r="I43" s="5">
+        <v>0.114</v>
+      </c>
+      <c r="J43" s="5">
+        <v>-9.2999999999999999E-2</v>
+      </c>
+      <c r="K43" s="5">
+        <v>0</v>
+      </c>
+      <c r="L43" s="5">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="M43" s="5">
+        <v>7.8E-2</v>
+      </c>
+      <c r="N43" s="5">
+        <v>0</v>
+      </c>
+      <c r="O43" s="5">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="P43" s="5">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="Q43" s="5">
+        <v>0</v>
+      </c>
+      <c r="R43" s="5">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="S43" s="5">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="T43" s="5">
+        <v>0</v>
+      </c>
+      <c r="U43" s="5">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="V43" s="5">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="W43" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44">
+        <v>246</v>
+      </c>
+      <c r="E44">
+        <v>2153</v>
+      </c>
+      <c r="F44" s="5">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="G44" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="H44" s="5">
+        <v>0</v>
+      </c>
+      <c r="I44" s="5">
+        <v>3.9E-2</v>
+      </c>
+      <c r="J44" s="5">
+        <v>-0.113</v>
+      </c>
+      <c r="K44" s="5">
+        <v>0</v>
+      </c>
+      <c r="L44" s="5">
+        <v>0.155</v>
+      </c>
+      <c r="M44" s="5">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="N44" s="5">
+        <v>0</v>
+      </c>
+      <c r="O44" s="5">
+        <v>0.626</v>
+      </c>
+      <c r="P44" s="5">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="Q44" s="5">
+        <v>0</v>
+      </c>
+      <c r="R44" s="5">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="S44" s="5">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="T44" s="5">
+        <v>0</v>
+      </c>
+      <c r="U44" s="5">
+        <v>0.191</v>
+      </c>
+      <c r="V44" s="5">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="W44" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45">
+        <v>13</v>
+      </c>
+      <c r="E45">
+        <v>2386</v>
+      </c>
+      <c r="F45" s="5">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="G45" s="5">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="H45" s="5">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="I45" s="5">
+        <v>-0.113</v>
+      </c>
+      <c r="J45" s="5">
+        <v>-0.16300000000000001</v>
+      </c>
+      <c r="K45" s="5">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="L45" s="5">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="M45" s="5">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="N45" s="5">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="O45" s="5">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="P45" s="5">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="Q45" s="5">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="R45" s="5">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="S45" s="5">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="T45" s="5">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="U45" s="5">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="V45" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="W45" s="5">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>35</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46">
+        <v>62</v>
+      </c>
+      <c r="E46">
+        <v>2337</v>
+      </c>
+      <c r="F46" s="5">
+        <v>0.106</v>
+      </c>
+      <c r="G46" s="5">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="H46" s="5">
+        <v>0</v>
+      </c>
+      <c r="I46" s="5">
+        <v>-2E-3</v>
+      </c>
+      <c r="J46" s="5">
+        <v>-0.11700000000000001</v>
+      </c>
+      <c r="K46" s="5">
+        <v>0</v>
+      </c>
+      <c r="L46" s="5">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="M46" s="5">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="N46" s="5">
+        <v>0</v>
+      </c>
+      <c r="O46" s="5">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="P46" s="5">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="Q46" s="5">
+        <v>0</v>
+      </c>
+      <c r="R46" s="5">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="S46" s="5">
+        <v>2.4E-2</v>
+      </c>
+      <c r="T46" s="5">
+        <v>0</v>
+      </c>
+      <c r="U46" s="5">
+        <v>0.115</v>
+      </c>
+      <c r="V46" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="W46" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D47">
+        <v>127</v>
+      </c>
+      <c r="E47">
+        <v>2272</v>
+      </c>
+      <c r="F47" s="5">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="G47" s="5">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="H47" s="5">
+        <v>0</v>
+      </c>
+      <c r="I47" s="5">
+        <v>-2.5000000000000001E-2</v>
+      </c>
+      <c r="J47" s="5">
+        <v>-0.13600000000000001</v>
+      </c>
+      <c r="K47" s="5">
+        <v>0</v>
+      </c>
+      <c r="L47" s="5">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="M47" s="5">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="N47" s="5">
+        <v>0</v>
+      </c>
+      <c r="O47" s="5">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="P47" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q47" s="5">
+        <v>0</v>
+      </c>
+      <c r="R47" s="5">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="S47" s="5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="T47" s="5">
+        <v>0</v>
+      </c>
+      <c r="U47" s="5">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="V47" s="5">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="W47" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>35</v>
+      </c>
+      <c r="B48" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D48">
+        <v>248</v>
+      </c>
+      <c r="E48">
+        <v>2151</v>
+      </c>
+      <c r="F48" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G48" s="5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H48" s="5">
+        <v>0</v>
+      </c>
+      <c r="I48" s="5">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="J48" s="5">
+        <v>-0.104</v>
+      </c>
+      <c r="K48" s="5">
+        <v>0</v>
+      </c>
+      <c r="L48" s="5">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="M48" s="5">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="N48" s="5">
+        <v>0</v>
+      </c>
+      <c r="O48" s="5">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="P48" s="5">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="Q48" s="5">
+        <v>0</v>
+      </c>
+      <c r="R48" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="S48" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="T48" s="5">
+        <v>0</v>
+      </c>
+      <c r="U48" s="5">
+        <v>0.159</v>
+      </c>
+      <c r="V48" s="5">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="W48" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>35</v>
+      </c>
+      <c r="B49" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D49">
+        <v>199</v>
+      </c>
+      <c r="E49">
+        <v>2200</v>
+      </c>
+      <c r="F49" s="5">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="G49" s="5">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="H49" s="5">
+        <v>0</v>
+      </c>
+      <c r="I49" s="5">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="J49" s="5">
+        <v>-0.113</v>
+      </c>
+      <c r="K49" s="5">
+        <v>0</v>
+      </c>
+      <c r="L49" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="M49" s="5">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="N49" s="5">
+        <v>0</v>
+      </c>
+      <c r="O49" s="5">
+        <v>0.622</v>
+      </c>
+      <c r="P49" s="5">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="Q49" s="5">
+        <v>0</v>
+      </c>
+      <c r="R49" s="5">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="S49" s="5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="T49" s="5">
+        <v>0</v>
+      </c>
+      <c r="U49" s="5">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="V49" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="W49" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>35</v>
+      </c>
+      <c r="B50" t="s">
+        <v>46</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D50">
+        <v>197</v>
+      </c>
+      <c r="E50">
+        <v>2202</v>
+      </c>
+      <c r="F50" s="5">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="G50" s="5">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="H50" s="5">
+        <v>0</v>
+      </c>
+      <c r="I50" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="J50" s="5">
+        <v>-0.1</v>
+      </c>
+      <c r="K50" s="5">
+        <v>0</v>
+      </c>
+      <c r="L50" s="5">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="M50" s="5">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="N50" s="5">
+        <v>0</v>
+      </c>
+      <c r="O50" s="5">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="P50" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q50" s="5">
+        <v>0</v>
+      </c>
+      <c r="R50" s="5">
+        <v>0.115</v>
+      </c>
+      <c r="S50" s="5">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="T50" s="5">
+        <v>0</v>
+      </c>
+      <c r="U50" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="V50" s="5">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="W50" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>35</v>
+      </c>
+      <c r="B51" t="s">
+        <v>46</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D51">
+        <v>77</v>
+      </c>
+      <c r="E51">
+        <v>2322</v>
+      </c>
+      <c r="F51" s="5">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="G51" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="H51" s="5">
+        <v>0</v>
+      </c>
+      <c r="I51" s="5">
+        <v>-3.7999999999999999E-2</v>
+      </c>
+      <c r="J51" s="5">
+        <v>-0.13200000000000001</v>
+      </c>
+      <c r="K51" s="5">
+        <v>0</v>
+      </c>
+      <c r="L51" s="5">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="M51" s="5">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="N51" s="5">
+        <v>0</v>
+      </c>
+      <c r="O51" s="5">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="P51" s="5">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="Q51" s="5">
+        <v>0</v>
+      </c>
+      <c r="R51" s="5">
+        <v>7.8E-2</v>
+      </c>
+      <c r="S51" s="5">
+        <v>1.9E-2</v>
+      </c>
+      <c r="T51" s="5">
+        <v>0</v>
+      </c>
+      <c r="U51" s="5">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="V51" s="5">
+        <v>3.9E-2</v>
+      </c>
+      <c r="W51" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>35</v>
+      </c>
+      <c r="B52" t="s">
+        <v>46</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D52">
+        <v>97</v>
+      </c>
+      <c r="E52">
+        <v>2302</v>
+      </c>
+      <c r="F52" s="5">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="G52" s="5">
+        <v>1.9E-2</v>
+      </c>
+      <c r="H52" s="5">
+        <v>0</v>
+      </c>
+      <c r="I52" s="5">
+        <v>0</v>
+      </c>
+      <c r="J52" s="5">
+        <v>-0.11</v>
+      </c>
+      <c r="K52" s="5">
+        <v>0</v>
+      </c>
+      <c r="L52" s="5">
+        <v>0.123</v>
+      </c>
+      <c r="M52" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="N52" s="5">
+        <v>0</v>
+      </c>
+      <c r="O52" s="5">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="P52" s="5">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="Q52" s="5">
+        <v>0</v>
+      </c>
+      <c r="R52" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="S52" s="5">
+        <v>2.4E-2</v>
+      </c>
+      <c r="T52" s="5">
+        <v>0</v>
+      </c>
+      <c r="U52" s="5">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="V52" s="5">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="W52" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>35</v>
+      </c>
+      <c r="B53" t="s">
+        <v>46</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D53">
+        <v>71</v>
+      </c>
+      <c r="E53">
+        <v>2328</v>
+      </c>
+      <c r="F53" s="5">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="G53" s="5">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="H53" s="5">
+        <v>0</v>
+      </c>
+      <c r="I53" s="5">
+        <v>-0.29499999999999998</v>
+      </c>
+      <c r="J53" s="5">
+        <v>-0.247</v>
+      </c>
+      <c r="K53" s="5">
+        <v>0</v>
+      </c>
+      <c r="L53" s="5">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="M53" s="5">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="N53" s="5">
+        <v>0</v>
+      </c>
+      <c r="O53" s="5">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="P53" s="5">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="Q53" s="5">
+        <v>0</v>
+      </c>
+      <c r="R53" s="5">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="S53" s="5">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="T53" s="5">
+        <v>0</v>
+      </c>
+      <c r="U53" s="5">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="V53" s="5">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="W53" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>35</v>
+      </c>
+      <c r="B54" t="s">
+        <v>46</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D54" s="6">
+        <v>1989</v>
+      </c>
+      <c r="E54" s="6">
+        <v>1230</v>
+      </c>
+      <c r="F54" s="7">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="G54" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H54" s="7">
+        <v>0</v>
+      </c>
+      <c r="I54" s="7">
+        <v>-4.8000000000000001E-2</v>
+      </c>
+      <c r="J54" s="7">
+        <v>-0.193</v>
+      </c>
+      <c r="K54" s="7">
+        <v>0</v>
+      </c>
+      <c r="L54" s="7">
+        <v>0.105</v>
+      </c>
+      <c r="M54" s="7">
+        <v>6.2E-2</v>
+      </c>
+      <c r="N54" s="7">
+        <v>0</v>
+      </c>
+      <c r="O54" s="7">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="P54" s="7">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="Q54" s="7">
+        <v>0</v>
+      </c>
+      <c r="R54" s="7">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="S54" s="7">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="T54" s="7">
+        <v>0</v>
+      </c>
+      <c r="U54" s="7">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="V54" s="7">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="W54" s="7">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tables/tableS1_subset_and_class_analysis.xlsx
+++ b/tables/tableS1_subset_and_class_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/irbraun/NetBeansProjects/term-mapping/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48FCC68-63C6-234E-BC12-476708B51C74}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A4E17D-0CE5-0540-ACA4-A05DCA3C2870}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4660" yWindow="460" windowWidth="44680" windowHeight="26840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="72">
   <si>
     <t>Doc2Vec</t>
   </si>
@@ -234,6 +234,9 @@
   </si>
   <si>
     <t>p-value</t>
+  </si>
+  <si>
+    <t>Physical</t>
   </si>
 </sst>
 </file>
@@ -4910,14 +4913,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895C1C0C-3466-C44B-9E72-EFC833635144}">
-  <dimension ref="A1:W54"/>
+  <dimension ref="A1:W55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J55" sqref="J55"/>
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
     <col min="6" max="23" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5036,13 +5042,13 @@
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="5">
         <v>68</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="5">
         <v>2331</v>
       </c>
       <c r="F3" s="5">
@@ -5055,13 +5061,13 @@
         <v>0</v>
       </c>
       <c r="I3" s="5">
-        <v>-0.65600000000000003</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="J3" s="5">
-        <v>-0.48</v>
+        <v>1E-3</v>
       </c>
       <c r="K3" s="5">
-        <v>0</v>
+        <v>0.121</v>
       </c>
       <c r="L3" s="5">
         <v>4.4999999999999998E-2</v>
@@ -5107,138 +5113,138 @@
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4">
-        <v>28</v>
-      </c>
-      <c r="E4">
-        <v>2371</v>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5">
+        <v>124</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2275</v>
       </c>
       <c r="F4" s="5">
-        <v>0.41199999999999998</v>
+        <v>0.16</v>
       </c>
       <c r="G4" s="5">
-        <v>5.6000000000000001E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="H4" s="5">
         <v>0</v>
       </c>
       <c r="I4" s="5">
-        <v>-0.17699999999999999</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="J4" s="5">
-        <v>-0.19800000000000001</v>
+        <v>1E-3</v>
       </c>
       <c r="K4" s="5">
         <v>0</v>
       </c>
       <c r="L4" s="5">
-        <v>0.107</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="M4" s="5">
-        <v>4.5999999999999999E-2</v>
+        <v>0.04</v>
       </c>
       <c r="N4" s="5">
         <v>0</v>
       </c>
       <c r="O4" s="5">
-        <v>0.75600000000000001</v>
+        <v>0.64500000000000002</v>
       </c>
       <c r="P4" s="5">
-        <v>0.54600000000000004</v>
+        <v>0.53800000000000003</v>
       </c>
       <c r="Q4" s="5">
         <v>0</v>
       </c>
       <c r="R4" s="5">
-        <v>0.22900000000000001</v>
+        <v>0.156</v>
       </c>
       <c r="S4" s="5">
-        <v>4.2999999999999997E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="T4" s="5">
         <v>0</v>
       </c>
       <c r="U4" s="5">
-        <v>0.47</v>
+        <v>0.27600000000000002</v>
       </c>
       <c r="V4" s="5">
-        <v>9.4E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="W4" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5">
-        <v>124</v>
-      </c>
-      <c r="E5">
-        <v>2275</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0.16</v>
-      </c>
-      <c r="G5" s="5">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="H5" s="5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5">
-        <v>-0.64700000000000002</v>
-      </c>
-      <c r="J5" s="5">
-        <v>-0.46200000000000002</v>
-      </c>
-      <c r="K5" s="5">
-        <v>0</v>
-      </c>
-      <c r="L5" s="5">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="M5" s="5">
-        <v>0.04</v>
-      </c>
-      <c r="N5" s="5">
-        <v>0</v>
-      </c>
-      <c r="O5" s="5">
-        <v>0.64500000000000002</v>
-      </c>
-      <c r="P5" s="5">
-        <v>0.53800000000000003</v>
-      </c>
-      <c r="Q5" s="5">
-        <v>0</v>
-      </c>
-      <c r="R5" s="5">
-        <v>0.156</v>
-      </c>
-      <c r="S5" s="5">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="T5" s="5">
-        <v>0</v>
-      </c>
-      <c r="U5" s="5">
-        <v>0.27600000000000002</v>
-      </c>
-      <c r="V5" s="5">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="W5" s="5">
+      <c r="C5" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="7">
+        <v>192</v>
+      </c>
+      <c r="E5" s="7">
+        <v>2212</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="G5" s="7">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J5" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0</v>
+      </c>
+      <c r="L5" s="7">
+        <v>3.9E-2</v>
+      </c>
+      <c r="M5" s="7">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7">
+        <v>0.628</v>
+      </c>
+      <c r="P5" s="7">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>0</v>
+      </c>
+      <c r="R5" s="7">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="S5" s="7">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="T5" s="7">
+        <v>0</v>
+      </c>
+      <c r="U5" s="7">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="V5" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="W5" s="7">
         <v>0</v>
       </c>
     </row>
@@ -5247,67 +5253,67 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6">
-        <v>137</v>
-      </c>
-      <c r="E6">
-        <v>2262</v>
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="5">
+        <v>74</v>
+      </c>
+      <c r="E6" s="5">
+        <v>2325</v>
       </c>
       <c r="F6" s="5">
-        <v>0.28799999999999998</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="G6" s="5">
-        <v>3.6999999999999998E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="H6" s="5">
-        <v>0</v>
+        <v>1.2E-2</v>
       </c>
       <c r="I6" s="5">
-        <v>-0.42899999999999999</v>
+        <v>3.1E-2</v>
       </c>
       <c r="J6" s="5">
-        <v>-0.33600000000000002</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="K6" s="5">
         <v>0</v>
       </c>
       <c r="L6" s="5">
-        <v>8.5999999999999993E-2</v>
+        <v>0.125</v>
       </c>
       <c r="M6" s="5">
-        <v>3.3000000000000002E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="N6" s="5">
         <v>0</v>
       </c>
       <c r="O6" s="5">
-        <v>0.74199999999999999</v>
+        <v>0.59199999999999997</v>
       </c>
       <c r="P6" s="5">
-        <v>0.55500000000000005</v>
+        <v>0.55700000000000005</v>
       </c>
       <c r="Q6" s="5">
         <v>0</v>
       </c>
       <c r="R6" s="5">
-        <v>0.20200000000000001</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="S6" s="5">
-        <v>2.5999999999999999E-2</v>
+        <v>0.02</v>
       </c>
       <c r="T6" s="5">
         <v>0</v>
       </c>
       <c r="U6" s="5">
-        <v>0.35</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="V6" s="5">
-        <v>5.6000000000000001E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="W6" s="5">
         <v>0</v>
@@ -5318,69 +5324,69 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="6">
-        <v>357</v>
-      </c>
-      <c r="E7" s="6">
-        <v>2058</v>
-      </c>
-      <c r="F7" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="G7" s="7">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>-0.55300000000000005</v>
-      </c>
-      <c r="J7" s="7">
-        <v>-0.379</v>
-      </c>
-      <c r="K7" s="7">
-        <v>0</v>
-      </c>
-      <c r="L7" s="7">
-        <v>0.04</v>
-      </c>
-      <c r="M7" s="7">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="7">
-        <v>0.623</v>
-      </c>
-      <c r="P7" s="7">
-        <v>0.54400000000000004</v>
-      </c>
-      <c r="Q7" s="7">
-        <v>0</v>
-      </c>
-      <c r="R7" s="7">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="S7" s="7">
-        <v>0.02</v>
-      </c>
-      <c r="T7" s="7">
-        <v>0</v>
-      </c>
-      <c r="U7" s="7">
-        <v>0.13500000000000001</v>
-      </c>
-      <c r="V7" s="7">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="W7" s="7">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="5">
+        <v>53</v>
+      </c>
+      <c r="E7" s="5">
+        <v>2346</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0.111</v>
+      </c>
+      <c r="J7" s="5">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0.311</v>
+      </c>
+      <c r="M7" s="5">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0</v>
+      </c>
+      <c r="O7" s="5">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="P7" s="5">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>0</v>
+      </c>
+      <c r="R7" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="S7" s="5">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="T7" s="5">
+        <v>0</v>
+      </c>
+      <c r="U7" s="5">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="V7" s="5">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="W7" s="5">
         <v>0</v>
       </c>
     </row>
@@ -5391,17 +5397,17 @@
       <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8">
-        <v>53</v>
-      </c>
-      <c r="E8">
-        <v>2346</v>
+      <c r="C8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="5">
+        <v>77</v>
+      </c>
+      <c r="E8" s="5">
+        <v>2322</v>
       </c>
       <c r="F8" s="5">
-        <v>0.12</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="G8" s="5">
         <v>0.01</v>
@@ -5410,46 +5416,46 @@
         <v>0</v>
       </c>
       <c r="I8" s="5">
-        <v>0.111</v>
+        <v>3.9E-2</v>
       </c>
       <c r="J8" s="5">
-        <v>-0.1</v>
+        <v>0.01</v>
       </c>
       <c r="K8" s="5">
         <v>0</v>
       </c>
       <c r="L8" s="5">
-        <v>0.311</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="M8" s="5">
-        <v>8.3000000000000004E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="N8" s="5">
         <v>0</v>
       </c>
       <c r="O8" s="5">
-        <v>0.69499999999999995</v>
+        <v>0.63500000000000001</v>
       </c>
       <c r="P8" s="5">
-        <v>0.55500000000000005</v>
+        <v>0.55900000000000005</v>
       </c>
       <c r="Q8" s="5">
         <v>0</v>
       </c>
       <c r="R8" s="5">
-        <v>0.21</v>
+        <v>7.8E-2</v>
       </c>
       <c r="S8" s="5">
-        <v>2.1000000000000001E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="T8" s="5">
         <v>0</v>
       </c>
       <c r="U8" s="5">
-        <v>0.38500000000000001</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="V8" s="5">
-        <v>4.3999999999999997E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="W8" s="5">
         <v>0</v>
@@ -5462,138 +5468,138 @@
       <c r="B9" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="5">
+        <v>97</v>
+      </c>
+      <c r="E9" s="5">
+        <v>2302</v>
+      </c>
+      <c r="F9" s="5">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1.9E-2</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="J9" s="5">
+        <v>1.6E-2</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0</v>
+      </c>
+      <c r="L9" s="5">
+        <v>0.123</v>
+      </c>
+      <c r="M9" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="N9" s="5">
+        <v>0</v>
+      </c>
+      <c r="O9" s="5">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="P9" s="5">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>0</v>
+      </c>
+      <c r="R9" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="S9" s="5">
+        <v>2.4E-2</v>
+      </c>
+      <c r="T9" s="5">
+        <v>0</v>
+      </c>
+      <c r="U9" s="5">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="V9" s="5">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="W9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="6">
-        <v>53</v>
-      </c>
-      <c r="E9" s="6">
-        <v>2346</v>
-      </c>
-      <c r="F9" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="G9" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7">
-        <v>0.111</v>
-      </c>
-      <c r="J9" s="7">
-        <v>-0.1</v>
-      </c>
-      <c r="K9" s="7">
-        <v>0</v>
-      </c>
-      <c r="L9" s="7">
-        <v>0.311</v>
-      </c>
-      <c r="M9" s="7">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="N9" s="7">
-        <v>0</v>
-      </c>
-      <c r="O9" s="7">
-        <v>0.69499999999999995</v>
-      </c>
-      <c r="P9" s="7">
-        <v>0.55500000000000005</v>
-      </c>
-      <c r="Q9" s="7">
-        <v>0</v>
-      </c>
-      <c r="R9" s="7">
-        <v>0.21</v>
-      </c>
-      <c r="S9" s="7">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="T9" s="7">
-        <v>0</v>
-      </c>
-      <c r="U9" s="7">
-        <v>0.38500000000000001</v>
-      </c>
-      <c r="V9" s="7">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="W9" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10">
-        <v>190</v>
-      </c>
-      <c r="E10">
-        <v>2209</v>
-      </c>
-      <c r="F10" s="5">
-        <v>0.28699999999999998</v>
-      </c>
-      <c r="G10" s="5">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="H10" s="5">
-        <v>0</v>
-      </c>
-      <c r="I10" s="5">
-        <v>-9.2999999999999999E-2</v>
-      </c>
-      <c r="J10" s="5">
-        <v>-0.156</v>
-      </c>
-      <c r="K10" s="5">
-        <v>0</v>
-      </c>
-      <c r="L10" s="5">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="M10" s="5">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="N10" s="5">
-        <v>0</v>
-      </c>
-      <c r="O10" s="5">
-        <v>0.67200000000000004</v>
-      </c>
-      <c r="P10" s="5">
-        <v>0.52600000000000002</v>
-      </c>
-      <c r="Q10" s="5">
-        <v>0</v>
-      </c>
-      <c r="R10" s="5">
-        <v>0.158</v>
-      </c>
-      <c r="S10" s="5">
-        <v>0.03</v>
-      </c>
-      <c r="T10" s="5">
-        <v>0</v>
-      </c>
-      <c r="U10" s="5">
-        <v>0.36699999999999999</v>
-      </c>
-      <c r="V10" s="5">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="W10" s="5">
+      <c r="D10" s="7">
+        <v>301</v>
+      </c>
+      <c r="E10" s="7">
+        <v>2132</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="G10" s="7">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>2.3E-2</v>
+      </c>
+      <c r="J10" s="7">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="K10" s="7">
+        <v>0</v>
+      </c>
+      <c r="L10" s="7">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="M10" s="7">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="P10" s="7">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>0</v>
+      </c>
+      <c r="R10" s="7">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="S10" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="T10" s="7">
+        <v>0</v>
+      </c>
+      <c r="U10" s="7">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="V10" s="7">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="W10" s="7">
         <v>0</v>
       </c>
     </row>
@@ -5604,65 +5610,65 @@
       <c r="B11" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11">
-        <v>109</v>
-      </c>
-      <c r="E11">
-        <v>2290</v>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="5">
+        <v>190</v>
+      </c>
+      <c r="E11" s="5">
+        <v>2209</v>
       </c>
       <c r="F11" s="5">
-        <v>8.7999999999999995E-2</v>
+        <v>0.28699999999999998</v>
       </c>
       <c r="G11" s="5">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <v>1.9E-2</v>
+      </c>
+      <c r="J11" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0</v>
+      </c>
+      <c r="L11" s="5">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="M11" s="5">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="N11" s="5">
+        <v>0</v>
+      </c>
+      <c r="O11" s="5">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="P11" s="5">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>0</v>
+      </c>
+      <c r="R11" s="5">
+        <v>0.158</v>
+      </c>
+      <c r="S11" s="5">
         <v>0.03</v>
       </c>
-      <c r="H11" s="5">
-        <v>0</v>
-      </c>
-      <c r="I11" s="5">
-        <v>-0.64300000000000002</v>
-      </c>
-      <c r="J11" s="5">
-        <v>-0.45400000000000001</v>
-      </c>
-      <c r="K11" s="5">
-        <v>0</v>
-      </c>
-      <c r="L11" s="5">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="M11" s="5">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="N11" s="5">
-        <v>0</v>
-      </c>
-      <c r="O11" s="5">
-        <v>0.624</v>
-      </c>
-      <c r="P11" s="5">
-        <v>0.52800000000000002</v>
-      </c>
-      <c r="Q11" s="5">
-        <v>0</v>
-      </c>
-      <c r="R11" s="5">
-        <v>0.126</v>
-      </c>
-      <c r="S11" s="5">
-        <v>3.3000000000000002E-2</v>
-      </c>
       <c r="T11" s="5">
         <v>0</v>
       </c>
       <c r="U11" s="5">
-        <v>0.249</v>
+        <v>0.36699999999999999</v>
       </c>
       <c r="V11" s="5">
-        <v>7.0999999999999994E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="W11" s="5">
         <v>0</v>
@@ -5675,67 +5681,67 @@
       <c r="B12" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" s="6">
-        <v>299</v>
-      </c>
-      <c r="E12" s="6">
-        <v>2113</v>
-      </c>
-      <c r="F12" s="7">
-        <v>0.186</v>
-      </c>
-      <c r="G12" s="7">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7">
-        <v>-0.32700000000000001</v>
-      </c>
-      <c r="J12" s="7">
-        <v>-0.25700000000000001</v>
-      </c>
-      <c r="K12" s="7">
-        <v>0</v>
-      </c>
-      <c r="L12" s="7">
-        <v>9.4E-2</v>
-      </c>
-      <c r="M12" s="7">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
-      <c r="O12" s="7">
-        <v>0.64700000000000002</v>
-      </c>
-      <c r="P12" s="7">
-        <v>0.52200000000000002</v>
-      </c>
-      <c r="Q12" s="7">
-        <v>0</v>
-      </c>
-      <c r="R12" s="7">
-        <v>0.13200000000000001</v>
-      </c>
-      <c r="S12" s="7">
-        <v>2.7E-2</v>
-      </c>
-      <c r="T12" s="7">
-        <v>0</v>
-      </c>
-      <c r="U12" s="7">
-        <v>0.29799999999999999</v>
-      </c>
-      <c r="V12" s="7">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="W12" s="7">
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="5">
+        <v>152</v>
+      </c>
+      <c r="E12" s="5">
+        <v>2247</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="G12" s="5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="J12" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0</v>
+      </c>
+      <c r="L12" s="5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="M12" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N12" s="5">
+        <v>0</v>
+      </c>
+      <c r="O12" s="5">
+        <v>0.68</v>
+      </c>
+      <c r="P12" s="5">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>0</v>
+      </c>
+      <c r="R12" s="5">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="S12" s="5">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="T12" s="5">
+        <v>0</v>
+      </c>
+      <c r="U12" s="5">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="V12" s="5">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="W12" s="5">
         <v>0</v>
       </c>
     </row>
@@ -5744,67 +5750,67 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13">
-        <v>6</v>
-      </c>
-      <c r="E13">
-        <v>2393</v>
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="5">
+        <v>28</v>
+      </c>
+      <c r="E13" s="5">
+        <v>2371</v>
       </c>
       <c r="F13" s="5">
-        <v>0.17799999999999999</v>
+        <v>0.41199999999999998</v>
       </c>
       <c r="G13" s="5">
-        <v>2.5999999999999999E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="H13" s="5">
-        <v>0.41299999999999998</v>
+        <v>0</v>
       </c>
       <c r="I13" s="5">
-        <v>7.6999999999999999E-2</v>
+        <v>0.03</v>
       </c>
       <c r="J13" s="5">
-        <v>-9.8000000000000004E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="K13" s="5">
-        <v>0.71199999999999997</v>
+        <v>0</v>
       </c>
       <c r="L13" s="5">
-        <v>0.23799999999999999</v>
+        <v>0.107</v>
       </c>
       <c r="M13" s="5">
-        <v>6.0999999999999999E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="N13" s="5">
         <v>0</v>
       </c>
       <c r="O13" s="5">
-        <v>0.78400000000000003</v>
+        <v>0.75600000000000001</v>
       </c>
       <c r="P13" s="5">
-        <v>0.56499999999999995</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="Q13" s="5">
         <v>0</v>
       </c>
       <c r="R13" s="5">
-        <v>0.34599999999999997</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="S13" s="5">
-        <v>0.04</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="T13" s="5">
         <v>0</v>
       </c>
       <c r="U13" s="5">
-        <v>0.46700000000000003</v>
+        <v>0.47</v>
       </c>
       <c r="V13" s="5">
-        <v>7.8E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="W13" s="5">
         <v>0</v>
@@ -5815,209 +5821,209 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="5">
+        <v>109</v>
+      </c>
+      <c r="E14" s="5">
+        <v>2290</v>
+      </c>
+      <c r="F14" s="5">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J14" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K14" s="5">
+        <v>0</v>
+      </c>
+      <c r="L14" s="5">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="M14" s="5">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="N14" s="5">
+        <v>0</v>
+      </c>
+      <c r="O14" s="5">
+        <v>0.624</v>
+      </c>
+      <c r="P14" s="5">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>0</v>
+      </c>
+      <c r="R14" s="5">
+        <v>0.126</v>
+      </c>
+      <c r="S14" s="5">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="T14" s="5">
+        <v>0</v>
+      </c>
+      <c r="U14" s="5">
+        <v>0.249</v>
+      </c>
+      <c r="V14" s="5">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="W14" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="6">
-        <v>6</v>
-      </c>
-      <c r="E14" s="6">
-        <v>2393</v>
-      </c>
-      <c r="F14" s="7">
-        <v>0.17799999999999999</v>
-      </c>
-      <c r="G14" s="7">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0.41299999999999998</v>
-      </c>
-      <c r="I14" s="7">
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="J14" s="7">
-        <v>-9.8000000000000004E-2</v>
-      </c>
-      <c r="K14" s="7">
-        <v>0.71199999999999997</v>
-      </c>
-      <c r="L14" s="7">
-        <v>0.23799999999999999</v>
-      </c>
-      <c r="M14" s="7">
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7">
-        <v>0.78400000000000003</v>
-      </c>
-      <c r="P14" s="7">
-        <v>0.56499999999999995</v>
-      </c>
-      <c r="Q14" s="7">
-        <v>0</v>
-      </c>
-      <c r="R14" s="7">
-        <v>0.34599999999999997</v>
-      </c>
-      <c r="S14" s="7">
-        <v>0.04</v>
-      </c>
-      <c r="T14" s="7">
-        <v>0</v>
-      </c>
-      <c r="U14" s="7">
-        <v>0.46700000000000003</v>
-      </c>
-      <c r="V14" s="7">
-        <v>7.8E-2</v>
-      </c>
-      <c r="W14" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15">
-        <v>54</v>
-      </c>
-      <c r="E15">
-        <v>2345</v>
-      </c>
-      <c r="F15" s="5">
-        <v>0.50900000000000001</v>
-      </c>
-      <c r="G15" s="5">
-        <v>0.104</v>
-      </c>
-      <c r="H15" s="5">
-        <v>0</v>
-      </c>
-      <c r="I15" s="5">
-        <v>0.52600000000000002</v>
-      </c>
-      <c r="J15" s="5">
-        <v>-6.7000000000000004E-2</v>
-      </c>
-      <c r="K15" s="5">
-        <v>0</v>
-      </c>
-      <c r="L15" s="5">
-        <v>0.44900000000000001</v>
-      </c>
-      <c r="M15" s="5">
-        <v>0.107</v>
-      </c>
-      <c r="N15" s="5">
-        <v>0</v>
-      </c>
-      <c r="O15" s="5">
-        <v>0.879</v>
-      </c>
-      <c r="P15" s="5">
-        <v>0.58599999999999997</v>
-      </c>
-      <c r="Q15" s="5">
-        <v>0</v>
-      </c>
-      <c r="R15" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="S15" s="5">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="T15" s="5">
-        <v>0</v>
-      </c>
-      <c r="U15" s="5">
-        <v>0.84199999999999997</v>
-      </c>
-      <c r="V15" s="5">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="W15" s="5">
+      <c r="D15" s="7">
+        <v>479</v>
+      </c>
+      <c r="E15" s="7">
+        <v>1982</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0.157</v>
+      </c>
+      <c r="G15" s="7">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0</v>
+      </c>
+      <c r="I15" s="7">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="J15" s="7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K15" s="7">
+        <v>0</v>
+      </c>
+      <c r="L15" s="7">
+        <v>0.109</v>
+      </c>
+      <c r="M15" s="7">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="N15" s="7">
+        <v>0</v>
+      </c>
+      <c r="O15" s="7">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="P15" s="7">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>0</v>
+      </c>
+      <c r="R15" s="7">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="S15" s="7">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="T15" s="7">
+        <v>0</v>
+      </c>
+      <c r="U15" s="7">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="V15" s="7">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="W15" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16">
-        <v>151</v>
-      </c>
-      <c r="E16">
-        <v>2249</v>
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="5">
+        <v>6</v>
+      </c>
+      <c r="E16" s="5">
+        <v>2393</v>
       </c>
       <c r="F16" s="5">
-        <v>8.7999999999999995E-2</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="G16" s="5">
-        <v>2.1999999999999999E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="H16" s="5">
-        <v>0</v>
+        <v>0.41299999999999998</v>
       </c>
       <c r="I16" s="5">
-        <v>0.13700000000000001</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="J16" s="5">
-        <v>-9.9000000000000005E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="K16" s="5">
-        <v>0</v>
+        <v>0.71199999999999997</v>
       </c>
       <c r="L16" s="5">
-        <v>0.27700000000000002</v>
+        <v>0.23799999999999999</v>
       </c>
       <c r="M16" s="5">
-        <v>6.9000000000000006E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="N16" s="5">
         <v>0</v>
       </c>
       <c r="O16" s="5">
-        <v>0.64200000000000002</v>
+        <v>0.78400000000000003</v>
       </c>
       <c r="P16" s="5">
-        <v>0.52700000000000002</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="Q16" s="5">
         <v>0</v>
       </c>
       <c r="R16" s="5">
-        <v>0.16900000000000001</v>
+        <v>0.34599999999999997</v>
       </c>
       <c r="S16" s="5">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="T16" s="5">
         <v>0</v>
       </c>
       <c r="U16" s="5">
-        <v>0.28100000000000003</v>
+        <v>0.46700000000000003</v>
       </c>
       <c r="V16" s="5">
-        <v>4.1000000000000002E-2</v>
+        <v>7.8E-2</v>
       </c>
       <c r="W16" s="5">
         <v>0</v>
@@ -6025,212 +6031,212 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17">
-        <v>147</v>
-      </c>
-      <c r="E17">
-        <v>2252</v>
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="5">
+        <v>137</v>
+      </c>
+      <c r="E17" s="5">
+        <v>2262</v>
       </c>
       <c r="F17" s="5">
-        <v>4.8000000000000001E-2</v>
+        <v>0.28799999999999998</v>
       </c>
       <c r="G17" s="5">
-        <v>1.6E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="H17" s="5">
         <v>0</v>
       </c>
       <c r="I17" s="5">
-        <v>-9.0999999999999998E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="J17" s="5">
-        <v>-0.158</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="K17" s="5">
         <v>0</v>
       </c>
       <c r="L17" s="5">
-        <v>0.13100000000000001</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="M17" s="5">
-        <v>7.3999999999999996E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="N17" s="5">
         <v>0</v>
       </c>
       <c r="O17" s="5">
-        <v>0.627</v>
+        <v>0.74199999999999999</v>
       </c>
       <c r="P17" s="5">
-        <v>0.54400000000000004</v>
+        <v>0.55500000000000005</v>
       </c>
       <c r="Q17" s="5">
         <v>0</v>
       </c>
       <c r="R17" s="5">
-        <v>7.1999999999999995E-2</v>
+        <v>0.20200000000000001</v>
       </c>
       <c r="S17" s="5">
-        <v>2.1000000000000001E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="T17" s="5">
         <v>0</v>
       </c>
       <c r="U17" s="5">
-        <v>0.14000000000000001</v>
+        <v>0.35</v>
       </c>
       <c r="V17" s="5">
-        <v>4.3999999999999997E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="W17" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18">
-        <v>75</v>
-      </c>
-      <c r="E18">
-        <v>2324</v>
-      </c>
-      <c r="F18" s="5">
-        <v>0.59499999999999997</v>
-      </c>
-      <c r="G18" s="5">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="H18" s="5">
-        <v>0</v>
-      </c>
-      <c r="I18" s="5">
-        <v>0.42099999999999999</v>
-      </c>
-      <c r="J18" s="5">
-        <v>-8.4000000000000005E-2</v>
-      </c>
-      <c r="K18" s="5">
-        <v>0</v>
-      </c>
-      <c r="L18" s="5">
-        <v>0.60399999999999998</v>
-      </c>
-      <c r="M18" s="5">
-        <v>9.7000000000000003E-2</v>
-      </c>
-      <c r="N18" s="5">
-        <v>0</v>
-      </c>
-      <c r="O18" s="5">
-        <v>0.88400000000000001</v>
-      </c>
-      <c r="P18" s="5">
+      <c r="A18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="7">
+        <v>143</v>
+      </c>
+      <c r="E18" s="7">
+        <v>2256</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="G18" s="7">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="J18" s="7">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K18" s="7">
+        <v>0</v>
+      </c>
+      <c r="L18" s="7">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="M18" s="7">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+      <c r="O18" s="7">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="P18" s="7">
         <v>0.55400000000000005</v>
       </c>
-      <c r="Q18" s="5">
-        <v>0</v>
-      </c>
-      <c r="R18" s="5">
-        <v>0.58799999999999997</v>
-      </c>
-      <c r="S18" s="5">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="T18" s="5">
-        <v>0</v>
-      </c>
-      <c r="U18" s="5">
-        <v>0.79</v>
-      </c>
-      <c r="V18" s="5">
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="W18" s="5">
+      <c r="Q18" s="7">
+        <v>0</v>
+      </c>
+      <c r="R18" s="7">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="S18" s="7">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="T18" s="7">
+        <v>0</v>
+      </c>
+      <c r="U18" s="7">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="V18" s="7">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="W18" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19">
-        <v>32</v>
-      </c>
-      <c r="E19">
-        <v>2367</v>
+        <v>71</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="5">
+        <v>146</v>
+      </c>
+      <c r="E19" s="5">
+        <v>2253</v>
       </c>
       <c r="F19" s="5">
-        <v>0.69699999999999995</v>
+        <v>6.3E-2</v>
       </c>
       <c r="G19" s="5">
-        <v>0.112</v>
+        <v>1.6E-2</v>
       </c>
       <c r="H19" s="5">
         <v>0</v>
       </c>
       <c r="I19" s="5">
-        <v>0.71299999999999997</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="J19" s="5">
-        <v>-5.5E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="K19" s="5">
         <v>0</v>
       </c>
       <c r="L19" s="5">
-        <v>0.57599999999999996</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="M19" s="5">
-        <v>0.121</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="N19" s="5">
         <v>0</v>
       </c>
       <c r="O19" s="5">
-        <v>0.92900000000000005</v>
+        <v>0.59399999999999997</v>
       </c>
       <c r="P19" s="5">
-        <v>0.58199999999999996</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="Q19" s="5">
         <v>0</v>
       </c>
       <c r="R19" s="5">
-        <v>0.747</v>
+        <v>0.114</v>
       </c>
       <c r="S19" s="5">
-        <v>6.4000000000000001E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="T19" s="5">
         <v>0</v>
       </c>
       <c r="U19" s="5">
-        <v>0.91100000000000003</v>
+        <v>0.21</v>
       </c>
       <c r="V19" s="5">
-        <v>9.6000000000000002E-2</v>
+        <v>0.05</v>
       </c>
       <c r="W19" s="5">
         <v>0</v>
@@ -6238,191 +6244,191 @@
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20">
-        <v>47</v>
-      </c>
-      <c r="E20">
-        <v>2352</v>
+        <v>71</v>
+      </c>
+      <c r="C20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="5">
+        <v>13</v>
+      </c>
+      <c r="E20" s="5">
+        <v>2386</v>
       </c>
       <c r="F20" s="5">
-        <v>0.19400000000000001</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="G20" s="5">
-        <v>4.9000000000000002E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="H20" s="5">
-        <v>0</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="I20" s="5">
-        <v>0.17799999999999999</v>
+        <v>0.04</v>
       </c>
       <c r="J20" s="5">
-        <v>-8.5999999999999993E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="K20" s="5">
-        <v>0</v>
+        <v>0.80100000000000005</v>
       </c>
       <c r="L20" s="5">
-        <v>0.3</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="M20" s="5">
-        <v>9.4E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="N20" s="5">
-        <v>0</v>
+        <v>0.57599999999999996</v>
       </c>
       <c r="O20" s="5">
-        <v>0.71299999999999997</v>
+        <v>0.58199999999999996</v>
       </c>
       <c r="P20" s="5">
-        <v>0.56200000000000006</v>
+        <v>0.55300000000000005</v>
       </c>
       <c r="Q20" s="5">
-        <v>0</v>
+        <v>0.29899999999999999</v>
       </c>
       <c r="R20" s="5">
-        <v>0.23</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="S20" s="5">
-        <v>3.4000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="T20" s="5">
-        <v>0</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="U20" s="5">
-        <v>0.36599999999999999</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="V20" s="5">
-        <v>6.2E-2</v>
+        <v>0.06</v>
       </c>
       <c r="W20" s="5">
-        <v>0</v>
+        <v>3.7999999999999999E-2</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="6">
-        <v>506</v>
-      </c>
-      <c r="E21" s="6">
-        <v>1941</v>
-      </c>
-      <c r="F21" s="7">
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="G21" s="7">
-        <v>0.04</v>
-      </c>
-      <c r="H21" s="7">
-        <v>0</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="J21" s="7">
-        <v>-0.13100000000000001</v>
-      </c>
-      <c r="K21" s="7">
-        <v>0</v>
-      </c>
-      <c r="L21" s="7">
-        <v>0.16300000000000001</v>
-      </c>
-      <c r="M21" s="7">
+        <v>71</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="5">
+        <v>18</v>
+      </c>
+      <c r="E21" s="5">
+        <v>2381</v>
+      </c>
+      <c r="F21" s="5">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="H21" s="5">
+        <v>0</v>
+      </c>
+      <c r="I21" s="5">
+        <v>5.5E-2</v>
+      </c>
+      <c r="J21" s="5">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="K21" s="5">
+        <v>0</v>
+      </c>
+      <c r="L21" s="5">
+        <v>0.122</v>
+      </c>
+      <c r="M21" s="5">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="N21" s="7">
-        <v>0</v>
-      </c>
-      <c r="O21" s="7">
-        <v>0.60699999999999998</v>
-      </c>
-      <c r="P21" s="7">
-        <v>0.54300000000000004</v>
-      </c>
-      <c r="Q21" s="7">
-        <v>0</v>
-      </c>
-      <c r="R21" s="7">
-        <v>0.11</v>
-      </c>
-      <c r="S21" s="7">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="T21" s="7">
-        <v>0</v>
-      </c>
-      <c r="U21" s="7">
-        <v>0.17599999999999999</v>
-      </c>
-      <c r="V21" s="7">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="W21" s="7">
+      <c r="N21" s="5">
+        <v>0</v>
+      </c>
+      <c r="O21" s="5">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="P21" s="5">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="Q21" s="5">
+        <v>0</v>
+      </c>
+      <c r="R21" s="5">
+        <v>0.107</v>
+      </c>
+      <c r="S21" s="5">
+        <v>3.1E-2</v>
+      </c>
+      <c r="T21" s="5">
+        <v>0</v>
+      </c>
+      <c r="U21" s="5">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="V21" s="5">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="W21" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22">
-        <v>93</v>
-      </c>
-      <c r="E22">
-        <v>2306</v>
+        <v>71</v>
+      </c>
+      <c r="C22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="5">
+        <v>71</v>
+      </c>
+      <c r="E22" s="5">
+        <v>2328</v>
       </c>
       <c r="F22" s="5">
-        <v>0.13100000000000001</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="G22" s="5">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0</v>
+      </c>
+      <c r="I22" s="5">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="H22" s="5">
-        <v>0</v>
-      </c>
-      <c r="I22" s="5">
-        <v>7.0999999999999994E-2</v>
-      </c>
       <c r="J22" s="5">
-        <v>-0.111</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="K22" s="5">
-        <v>0</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="L22" s="5">
-        <v>0.2</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="M22" s="5">
-        <v>7.6999999999999999E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="N22" s="5">
         <v>0</v>
       </c>
       <c r="O22" s="5">
-        <v>0.63500000000000001</v>
+        <v>0.65700000000000003</v>
       </c>
       <c r="P22" s="5">
         <v>0.54200000000000004</v>
@@ -6431,19 +6437,19 @@
         <v>0</v>
       </c>
       <c r="R22" s="5">
-        <v>0.105</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="S22" s="5">
-        <v>2.3E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="T22" s="5">
         <v>0</v>
       </c>
       <c r="U22" s="5">
-        <v>0.189</v>
+        <v>0.32600000000000001</v>
       </c>
       <c r="V22" s="5">
-        <v>0.05</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="W22" s="5">
         <v>0</v>
@@ -6451,143 +6457,143 @@
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23">
-        <v>17</v>
-      </c>
-      <c r="E23">
-        <v>2382</v>
+        <v>71</v>
+      </c>
+      <c r="C23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="5">
+        <v>40</v>
+      </c>
+      <c r="E23" s="5">
+        <v>2359</v>
       </c>
       <c r="F23" s="5">
-        <v>0.372</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="G23" s="5">
-        <v>1.0999999999999999E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="H23" s="5">
         <v>0</v>
       </c>
       <c r="I23" s="5">
-        <v>-0.78200000000000003</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="J23" s="5">
-        <v>-0.56799999999999995</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="K23" s="5">
         <v>0</v>
       </c>
       <c r="L23" s="5">
-        <v>3.1E-2</v>
+        <v>0.222</v>
       </c>
       <c r="M23" s="5">
-        <v>0.04</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="N23" s="5">
         <v>0</v>
       </c>
       <c r="O23" s="5">
-        <v>0.85299999999999998</v>
+        <v>0.68</v>
       </c>
       <c r="P23" s="5">
-        <v>0.56699999999999995</v>
+        <v>0.54800000000000004</v>
       </c>
       <c r="Q23" s="5">
         <v>0</v>
       </c>
       <c r="R23" s="5">
-        <v>0.55500000000000005</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="S23" s="5">
-        <v>8.9999999999999993E-3</v>
+        <v>3.9E-2</v>
       </c>
       <c r="T23" s="5">
         <v>0</v>
       </c>
       <c r="U23" s="5">
-        <v>0.69599999999999995</v>
+        <v>0.432</v>
       </c>
       <c r="V23" s="5">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="W23" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="7">
+        <v>288</v>
+      </c>
+      <c r="E24" s="7">
+        <v>2125</v>
+      </c>
+      <c r="F24" s="7">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="G24" s="7">
         <v>1.9E-2</v>
       </c>
-      <c r="W23" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24">
-        <v>155</v>
-      </c>
-      <c r="E24">
-        <v>2244</v>
-      </c>
-      <c r="F24" s="5">
-        <v>0.247</v>
-      </c>
-      <c r="G24" s="5">
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7">
+        <v>1.9E-2</v>
+      </c>
+      <c r="J24" s="7">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="K24" s="7">
+        <v>0</v>
+      </c>
+      <c r="L24" s="7">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="M24" s="7">
+        <v>6.3E-2</v>
+      </c>
+      <c r="N24" s="7">
+        <v>0</v>
+      </c>
+      <c r="O24" s="7">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="P24" s="7">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="Q24" s="7">
+        <v>0</v>
+      </c>
+      <c r="R24" s="7">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="S24" s="7">
         <v>2.7E-2</v>
       </c>
-      <c r="H24" s="5">
-        <v>0</v>
-      </c>
-      <c r="I24" s="5">
-        <v>-7.0999999999999994E-2</v>
-      </c>
-      <c r="J24" s="5">
-        <v>-0.17699999999999999</v>
-      </c>
-      <c r="K24" s="5">
-        <v>0</v>
-      </c>
-      <c r="L24" s="5">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="M24" s="5">
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="N24" s="5">
-        <v>0</v>
-      </c>
-      <c r="O24" s="5">
-        <v>0.70899999999999996</v>
-      </c>
-      <c r="P24" s="5">
-        <v>0.57099999999999995</v>
-      </c>
-      <c r="Q24" s="5">
-        <v>0</v>
-      </c>
-      <c r="R24" s="5">
-        <v>0.22800000000000001</v>
-      </c>
-      <c r="S24" s="5">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="T24" s="5">
-        <v>0</v>
-      </c>
-      <c r="U24" s="5">
-        <v>0.32900000000000001</v>
-      </c>
-      <c r="V24" s="5">
-        <v>3.1E-2</v>
-      </c>
-      <c r="W24" s="5">
+      <c r="T24" s="7">
+        <v>0</v>
+      </c>
+      <c r="U24" s="7">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="V24" s="7">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="W24" s="7">
         <v>0</v>
       </c>
     </row>
@@ -6596,69 +6602,69 @@
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D25" s="6">
-        <v>265</v>
-      </c>
-      <c r="E25" s="6">
-        <v>2140</v>
-      </c>
-      <c r="F25" s="7">
-        <v>0.112</v>
-      </c>
-      <c r="G25" s="7">
-        <v>2.3E-2</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>-0.128</v>
-      </c>
-      <c r="J25" s="7">
-        <v>-0.18</v>
-      </c>
-      <c r="K25" s="7">
-        <v>0</v>
-      </c>
-      <c r="L25" s="7">
-        <v>0.121</v>
-      </c>
-      <c r="M25" s="7">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="N25" s="7">
-        <v>0</v>
-      </c>
-      <c r="O25" s="7">
-        <v>0.63100000000000001</v>
-      </c>
-      <c r="P25" s="7">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="Q25" s="7">
-        <v>0</v>
-      </c>
-      <c r="R25" s="7">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="S25" s="7">
-        <v>1.9E-2</v>
-      </c>
-      <c r="T25" s="7">
-        <v>0</v>
-      </c>
-      <c r="U25" s="7">
-        <v>0.157</v>
-      </c>
-      <c r="V25" s="7">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="W25" s="7">
+        <v>21</v>
+      </c>
+      <c r="C25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="5">
+        <v>54</v>
+      </c>
+      <c r="E25" s="5">
+        <v>2345</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0.104</v>
+      </c>
+      <c r="H25" s="5">
+        <v>0</v>
+      </c>
+      <c r="I25" s="5">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="J25" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="K25" s="5">
+        <v>0</v>
+      </c>
+      <c r="L25" s="5">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="M25" s="5">
+        <v>0.107</v>
+      </c>
+      <c r="N25" s="5">
+        <v>0</v>
+      </c>
+      <c r="O25" s="5">
+        <v>0.879</v>
+      </c>
+      <c r="P25" s="5">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="Q25" s="5">
+        <v>0</v>
+      </c>
+      <c r="R25" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="S25" s="5">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="T25" s="5">
+        <v>0</v>
+      </c>
+      <c r="U25" s="5">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="V25" s="5">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="W25" s="5">
         <v>0</v>
       </c>
     </row>
@@ -6667,67 +6673,67 @@
         <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26">
-        <v>364</v>
-      </c>
-      <c r="E26">
-        <v>2035</v>
+        <v>21</v>
+      </c>
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="5">
+        <v>75</v>
+      </c>
+      <c r="E26" s="5">
+        <v>2324</v>
       </c>
       <c r="F26" s="5">
-        <v>0.78</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="G26" s="5">
-        <v>4.7E-2</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="H26" s="5">
         <v>0</v>
       </c>
       <c r="I26" s="5">
-        <v>0.251</v>
+        <v>0.42099999999999999</v>
       </c>
       <c r="J26" s="5">
-        <v>-0.111</v>
+        <v>2.4E-2</v>
       </c>
       <c r="K26" s="5">
         <v>0</v>
       </c>
       <c r="L26" s="5">
-        <v>0.44900000000000001</v>
+        <v>0.60399999999999998</v>
       </c>
       <c r="M26" s="5">
-        <v>7.9000000000000001E-2</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="N26" s="5">
         <v>0</v>
       </c>
       <c r="O26" s="5">
-        <v>0.84899999999999998</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="P26" s="5">
-        <v>0.56000000000000005</v>
+        <v>0.55400000000000005</v>
       </c>
       <c r="Q26" s="5">
         <v>0</v>
       </c>
       <c r="R26" s="5">
-        <v>0.36899999999999999</v>
+        <v>0.58799999999999997</v>
       </c>
       <c r="S26" s="5">
-        <v>1.4999999999999999E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="T26" s="5">
         <v>0</v>
       </c>
       <c r="U26" s="5">
-        <v>0.498</v>
+        <v>0.79</v>
       </c>
       <c r="V26" s="5">
-        <v>2.5000000000000001E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="W26" s="5">
         <v>0</v>
@@ -6738,67 +6744,67 @@
         <v>20</v>
       </c>
       <c r="B27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="5">
         <v>32</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27">
-        <v>13</v>
-      </c>
-      <c r="E27">
-        <v>2386</v>
+      <c r="E27" s="5">
+        <v>2367</v>
       </c>
       <c r="F27" s="5">
-        <v>0.23899999999999999</v>
+        <v>0.69699999999999995</v>
       </c>
       <c r="G27" s="5">
+        <v>0.112</v>
+      </c>
+      <c r="H27" s="5">
+        <v>0</v>
+      </c>
+      <c r="I27" s="5">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="J27" s="5">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="H27" s="5">
-        <v>0</v>
-      </c>
-      <c r="I27" s="5">
-        <v>0.372</v>
-      </c>
-      <c r="J27" s="5">
-        <v>-7.6999999999999999E-2</v>
-      </c>
       <c r="K27" s="5">
         <v>0</v>
       </c>
       <c r="L27" s="5">
-        <v>0.31</v>
+        <v>0.57599999999999996</v>
       </c>
       <c r="M27" s="5">
-        <v>9.2999999999999999E-2</v>
+        <v>0.121</v>
       </c>
       <c r="N27" s="5">
         <v>0</v>
       </c>
       <c r="O27" s="5">
-        <v>0.71199999999999997</v>
+        <v>0.92900000000000005</v>
       </c>
       <c r="P27" s="5">
-        <v>0.56899999999999995</v>
+        <v>0.58199999999999996</v>
       </c>
       <c r="Q27" s="5">
         <v>0</v>
       </c>
       <c r="R27" s="5">
-        <v>0.312</v>
+        <v>0.747</v>
       </c>
       <c r="S27" s="5">
-        <v>3.2000000000000001E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="T27" s="5">
         <v>0</v>
       </c>
       <c r="U27" s="5">
-        <v>0.47299999999999998</v>
+        <v>0.91100000000000003</v>
       </c>
       <c r="V27" s="5">
-        <v>6.4000000000000001E-2</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="W27" s="5">
         <v>0</v>
@@ -6809,209 +6815,209 @@
         <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="5">
+        <v>47</v>
+      </c>
+      <c r="E28" s="5">
+        <v>2352</v>
+      </c>
+      <c r="F28" s="5">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="G28" s="5">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="H28" s="5">
+        <v>0</v>
+      </c>
+      <c r="I28" s="5">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="J28" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="K28" s="5">
+        <v>0</v>
+      </c>
+      <c r="L28" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="M28" s="5">
+        <v>9.4E-2</v>
+      </c>
+      <c r="N28" s="5">
+        <v>0</v>
+      </c>
+      <c r="O28" s="5">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="P28" s="5">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="Q28" s="5">
+        <v>0</v>
+      </c>
+      <c r="R28" s="5">
+        <v>0.23</v>
+      </c>
+      <c r="S28" s="5">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="T28" s="5">
+        <v>0</v>
+      </c>
+      <c r="U28" s="5">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="V28" s="5">
+        <v>6.2E-2</v>
+      </c>
+      <c r="W28" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="6">
-        <v>377</v>
-      </c>
-      <c r="E28" s="6">
-        <v>2022</v>
-      </c>
-      <c r="F28" s="7">
-        <v>0.74199999999999999</v>
-      </c>
-      <c r="G28" s="7">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="H28" s="7">
-        <v>0</v>
-      </c>
-      <c r="I28" s="7">
-        <v>0.23899999999999999</v>
-      </c>
-      <c r="J28" s="7">
-        <v>-0.112</v>
-      </c>
-      <c r="K28" s="7">
-        <v>0</v>
-      </c>
-      <c r="L28" s="7">
-        <v>0.43099999999999999</v>
-      </c>
-      <c r="M28" s="7">
-        <v>7.8E-2</v>
-      </c>
-      <c r="N28" s="7">
-        <v>0</v>
-      </c>
-      <c r="O28" s="7">
-        <v>0.83799999999999997</v>
-      </c>
-      <c r="P28" s="7">
-        <v>0.55900000000000005</v>
-      </c>
-      <c r="Q28" s="7">
-        <v>0</v>
-      </c>
-      <c r="R28" s="7">
-        <v>0.34899999999999998</v>
-      </c>
-      <c r="S28" s="7">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="T28" s="7">
-        <v>0</v>
-      </c>
-      <c r="U28" s="7">
-        <v>0.47299999999999998</v>
-      </c>
-      <c r="V28" s="7">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="W28" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29">
-        <v>33</v>
-      </c>
-      <c r="E29">
-        <v>2366</v>
-      </c>
-      <c r="F29" s="5">
-        <v>7.2999999999999995E-2</v>
-      </c>
-      <c r="G29" s="5">
-        <v>1.2E-2</v>
-      </c>
-      <c r="H29" s="5">
-        <v>0</v>
-      </c>
-      <c r="I29" s="5">
-        <v>-0.35199999999999998</v>
-      </c>
-      <c r="J29" s="5">
-        <v>-0.28499999999999998</v>
-      </c>
-      <c r="K29" s="5">
-        <v>0</v>
-      </c>
-      <c r="L29" s="5">
-        <v>8.8999999999999996E-2</v>
-      </c>
-      <c r="M29" s="5">
-        <v>0.06</v>
-      </c>
-      <c r="N29" s="5">
-        <v>0</v>
-      </c>
-      <c r="O29" s="5">
-        <v>0.67200000000000004</v>
-      </c>
-      <c r="P29" s="5">
-        <v>0.57299999999999995</v>
-      </c>
-      <c r="Q29" s="5">
-        <v>0</v>
-      </c>
-      <c r="R29" s="5">
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="S29" s="5">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="T29" s="5">
-        <v>0</v>
-      </c>
-      <c r="U29" s="5">
-        <v>0.24299999999999999</v>
-      </c>
-      <c r="V29" s="5">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="W29" s="5">
+      <c r="D29" s="7">
+        <v>208</v>
+      </c>
+      <c r="E29" s="7">
+        <v>2202</v>
+      </c>
+      <c r="F29" s="7">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="G29" s="7">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="H29" s="7">
+        <v>0</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0.311</v>
+      </c>
+      <c r="J29" s="7">
+        <v>1.6E-2</v>
+      </c>
+      <c r="K29" s="7">
+        <v>0</v>
+      </c>
+      <c r="L29" s="7">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="M29" s="7">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="N29" s="7">
+        <v>0</v>
+      </c>
+      <c r="O29" s="7">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="P29" s="7">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="Q29" s="7">
+        <v>0</v>
+      </c>
+      <c r="R29" s="7">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="S29" s="7">
+        <v>2.4E-2</v>
+      </c>
+      <c r="T29" s="7">
+        <v>0</v>
+      </c>
+      <c r="U29" s="7">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="V29" s="7">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="W29" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D30">
-        <v>40</v>
-      </c>
-      <c r="E30">
-        <v>2359</v>
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="5">
+        <v>17</v>
+      </c>
+      <c r="E30" s="5">
+        <v>2382</v>
       </c>
       <c r="F30" s="5">
-        <v>9.5000000000000001E-2</v>
+        <v>0.372</v>
       </c>
       <c r="G30" s="5">
-        <v>8.0000000000000002E-3</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="H30" s="5">
         <v>0</v>
       </c>
       <c r="I30" s="5">
-        <v>-2.9000000000000001E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="J30" s="5">
-        <v>-0.16</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="K30" s="5">
-        <v>0</v>
+        <v>0.44600000000000001</v>
       </c>
       <c r="L30" s="5">
-        <v>0.192</v>
+        <v>3.1E-2</v>
       </c>
       <c r="M30" s="5">
-        <v>6.8000000000000005E-2</v>
+        <v>0.04</v>
       </c>
       <c r="N30" s="5">
         <v>0</v>
       </c>
       <c r="O30" s="5">
-        <v>0.66100000000000003</v>
+        <v>0.85299999999999998</v>
       </c>
       <c r="P30" s="5">
-        <v>0.56399999999999995</v>
+        <v>0.56699999999999995</v>
       </c>
       <c r="Q30" s="5">
         <v>0</v>
       </c>
       <c r="R30" s="5">
-        <v>0.156</v>
+        <v>0.55500000000000005</v>
       </c>
       <c r="S30" s="5">
-        <v>1.6E-2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="T30" s="5">
         <v>0</v>
       </c>
       <c r="U30" s="5">
-        <v>0.23400000000000001</v>
+        <v>0.69599999999999995</v>
       </c>
       <c r="V30" s="5">
-        <v>3.1E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="W30" s="5">
         <v>0</v>
@@ -7019,212 +7025,212 @@
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="5">
+        <v>155</v>
+      </c>
+      <c r="E31" s="5">
+        <v>2244</v>
+      </c>
+      <c r="F31" s="5">
+        <v>0.247</v>
+      </c>
+      <c r="G31" s="5">
+        <v>2.7E-2</v>
+      </c>
+      <c r="H31" s="5">
+        <v>0</v>
+      </c>
+      <c r="I31" s="5">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="J31" s="5">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="K31" s="5">
+        <v>0</v>
+      </c>
+      <c r="L31" s="5">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="M31" s="5">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="N31" s="5">
+        <v>0</v>
+      </c>
+      <c r="O31" s="5">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="P31" s="5">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="Q31" s="5">
+        <v>0</v>
+      </c>
+      <c r="R31" s="5">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="S31" s="5">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="T31" s="5">
+        <v>0</v>
+      </c>
+      <c r="U31" s="5">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="V31" s="5">
+        <v>3.1E-2</v>
+      </c>
+      <c r="W31" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D31" s="6">
-        <v>73</v>
-      </c>
-      <c r="E31" s="6">
-        <v>2326</v>
-      </c>
-      <c r="F31" s="7">
-        <v>4.7E-2</v>
-      </c>
-      <c r="G31" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="H31" s="7">
-        <v>0</v>
-      </c>
-      <c r="I31" s="7">
-        <v>-0.20899999999999999</v>
-      </c>
-      <c r="J31" s="7">
-        <v>-0.216</v>
-      </c>
-      <c r="K31" s="7">
-        <v>0</v>
-      </c>
-      <c r="L31" s="7">
-        <v>0.11</v>
-      </c>
-      <c r="M31" s="7">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="N31" s="7">
-        <v>0</v>
-      </c>
-      <c r="O31" s="7">
-        <v>0.63300000000000001</v>
-      </c>
-      <c r="P31" s="7">
-        <v>0.56799999999999995</v>
-      </c>
-      <c r="Q31" s="7">
-        <v>0</v>
-      </c>
-      <c r="R31" s="7">
-        <v>0.09</v>
-      </c>
-      <c r="S31" s="7">
+      <c r="D32" s="7">
+        <v>172</v>
+      </c>
+      <c r="E32" s="7">
+        <v>2228</v>
+      </c>
+      <c r="F32" s="7">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="G32" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="J32" s="7">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="K32" s="7">
+        <v>0</v>
+      </c>
+      <c r="L32" s="7">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="M32" s="7">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="N32" s="7">
+        <v>0</v>
+      </c>
+      <c r="O32" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="P32" s="7">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="Q32" s="7">
+        <v>0</v>
+      </c>
+      <c r="R32" s="7">
+        <v>0.193</v>
+      </c>
+      <c r="S32" s="7">
         <v>1.6E-2</v>
       </c>
-      <c r="T31" s="7">
-        <v>0</v>
-      </c>
-      <c r="U31" s="7">
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="V31" s="7">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="W31" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D32">
-        <v>13</v>
-      </c>
-      <c r="E32">
-        <v>2386</v>
-      </c>
-      <c r="F32" s="5">
-        <v>0.27400000000000002</v>
-      </c>
-      <c r="G32" s="5">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="H32" s="5">
-        <v>0</v>
-      </c>
-      <c r="I32" s="5">
-        <v>-0.20100000000000001</v>
-      </c>
-      <c r="J32" s="5">
-        <v>-0.23799999999999999</v>
-      </c>
-      <c r="K32" s="5">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="L32" s="5">
-        <v>0.223</v>
-      </c>
-      <c r="M32" s="5">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="N32" s="5">
-        <v>0</v>
-      </c>
-      <c r="O32" s="5">
-        <v>0.751</v>
-      </c>
-      <c r="P32" s="5">
-        <v>0.54100000000000004</v>
-      </c>
-      <c r="Q32" s="5">
-        <v>0</v>
-      </c>
-      <c r="R32" s="5">
-        <v>0.309</v>
-      </c>
-      <c r="S32" s="5">
-        <v>2.3E-2</v>
-      </c>
-      <c r="T32" s="5">
-        <v>0</v>
-      </c>
-      <c r="U32" s="5">
-        <v>0.47</v>
-      </c>
-      <c r="V32" s="5">
-        <v>4.7E-2</v>
-      </c>
-      <c r="W32" s="5">
+      <c r="T32" s="7">
+        <v>0</v>
+      </c>
+      <c r="U32" s="7">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="V32" s="7">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="W32" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D33">
-        <v>146</v>
-      </c>
-      <c r="E33">
-        <v>2253</v>
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="5">
+        <v>364</v>
+      </c>
+      <c r="E33" s="5">
+        <v>2035</v>
       </c>
       <c r="F33" s="5">
-        <v>6.3E-2</v>
+        <v>0.78</v>
       </c>
       <c r="G33" s="5">
-        <v>1.6E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="H33" s="5">
         <v>0</v>
       </c>
       <c r="I33" s="5">
-        <v>-3.9E-2</v>
+        <v>0.251</v>
       </c>
       <c r="J33" s="5">
-        <v>-0.13800000000000001</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="K33" s="5">
         <v>0</v>
       </c>
       <c r="L33" s="5">
-        <v>0.14299999999999999</v>
+        <v>0.44900000000000001</v>
       </c>
       <c r="M33" s="5">
-        <v>6.5000000000000002E-2</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="N33" s="5">
         <v>0</v>
       </c>
       <c r="O33" s="5">
-        <v>0.59399999999999997</v>
+        <v>0.84899999999999998</v>
       </c>
       <c r="P33" s="5">
-        <v>0.52500000000000002</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="Q33" s="5">
         <v>0</v>
       </c>
       <c r="R33" s="5">
-        <v>0.114</v>
+        <v>0.36899999999999999</v>
       </c>
       <c r="S33" s="5">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="T33" s="5">
+        <v>0</v>
+      </c>
+      <c r="U33" s="5">
+        <v>0.498</v>
+      </c>
+      <c r="V33" s="5">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="T33" s="5">
-        <v>0</v>
-      </c>
-      <c r="U33" s="5">
-        <v>0.21</v>
-      </c>
-      <c r="V33" s="5">
-        <v>0.05</v>
       </c>
       <c r="W33" s="5">
         <v>0</v>
@@ -7232,143 +7238,143 @@
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34">
-        <v>18</v>
-      </c>
-      <c r="E34">
-        <v>2381</v>
+        <v>32</v>
+      </c>
+      <c r="C34" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" s="5">
+        <v>13</v>
+      </c>
+      <c r="E34" s="5">
+        <v>2386</v>
       </c>
       <c r="F34" s="5">
-        <v>6.9000000000000006E-2</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="G34" s="5">
-        <v>0.03</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="H34" s="5">
         <v>0</v>
       </c>
       <c r="I34" s="5">
-        <v>5.5E-2</v>
+        <v>0.372</v>
       </c>
       <c r="J34" s="5">
-        <v>-9.7000000000000003E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="K34" s="5">
         <v>0</v>
       </c>
       <c r="L34" s="5">
-        <v>0.122</v>
+        <v>0.31</v>
       </c>
       <c r="M34" s="5">
-        <v>7.5999999999999998E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="N34" s="5">
         <v>0</v>
       </c>
       <c r="O34" s="5">
-        <v>0.57899999999999996</v>
+        <v>0.71199999999999997</v>
       </c>
       <c r="P34" s="5">
-        <v>0.53200000000000003</v>
+        <v>0.56899999999999995</v>
       </c>
       <c r="Q34" s="5">
         <v>0</v>
       </c>
       <c r="R34" s="5">
-        <v>0.107</v>
+        <v>0.312</v>
       </c>
       <c r="S34" s="5">
-        <v>3.1E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="T34" s="5">
         <v>0</v>
       </c>
       <c r="U34" s="5">
-        <v>0.24099999999999999</v>
+        <v>0.47299999999999998</v>
       </c>
       <c r="V34" s="5">
-        <v>7.3999999999999996E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="W34" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" t="s">
-        <v>39</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D35">
-        <v>7</v>
-      </c>
-      <c r="E35">
-        <v>2392</v>
-      </c>
-      <c r="F35" s="5">
-        <v>0.248</v>
-      </c>
-      <c r="G35" s="5">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="H35" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="I35" s="5">
-        <v>-0.70899999999999996</v>
-      </c>
-      <c r="J35" s="5">
-        <v>-0.48299999999999998</v>
-      </c>
-      <c r="K35" s="5">
-        <v>0.23200000000000001</v>
-      </c>
-      <c r="L35" s="5">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="M35" s="5">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="N35" s="5">
-        <v>0.23200000000000001</v>
-      </c>
-      <c r="O35" s="5">
-        <v>0.64100000000000001</v>
-      </c>
-      <c r="P35" s="5">
-        <v>0.55100000000000005</v>
-      </c>
-      <c r="Q35" s="5">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="R35" s="5">
-        <v>0.13800000000000001</v>
-      </c>
-      <c r="S35" s="5">
+      <c r="A35" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D35" s="7">
+        <v>377</v>
+      </c>
+      <c r="E35" s="7">
+        <v>2022</v>
+      </c>
+      <c r="F35" s="7">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="G35" s="7">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="H35" s="7">
+        <v>0</v>
+      </c>
+      <c r="I35" s="7">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="J35" s="7">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="K35" s="7">
+        <v>0</v>
+      </c>
+      <c r="L35" s="7">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="M35" s="7">
+        <v>7.8E-2</v>
+      </c>
+      <c r="N35" s="7">
+        <v>0</v>
+      </c>
+      <c r="O35" s="7">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="P35" s="7">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="Q35" s="7">
+        <v>0</v>
+      </c>
+      <c r="R35" s="7">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="S35" s="7">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="T35" s="5">
-        <v>0</v>
-      </c>
-      <c r="U35" s="5">
-        <v>0.22600000000000001</v>
-      </c>
-      <c r="V35" s="5">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="W35" s="5">
+      <c r="T35" s="7">
+        <v>0</v>
+      </c>
+      <c r="U35" s="7">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="V35" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="W35" s="7">
         <v>0</v>
       </c>
     </row>
@@ -7377,67 +7383,67 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D36">
-        <v>39</v>
-      </c>
-      <c r="E36">
-        <v>2360</v>
+        <v>36</v>
+      </c>
+      <c r="C36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" s="5">
+        <v>147</v>
+      </c>
+      <c r="E36" s="5">
+        <v>2252</v>
       </c>
       <c r="F36" s="5">
-        <v>8.1000000000000003E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="G36" s="5">
-        <v>1.7000000000000001E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="H36" s="5">
         <v>0</v>
       </c>
       <c r="I36" s="5">
-        <v>0.106</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="J36" s="5">
-        <v>-9.2999999999999999E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="K36" s="5">
         <v>0</v>
       </c>
       <c r="L36" s="5">
-        <v>0.216</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="M36" s="5">
-        <v>7.6999999999999999E-2</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="N36" s="5">
         <v>0</v>
       </c>
       <c r="O36" s="5">
-        <v>0.59399999999999997</v>
+        <v>0.627</v>
       </c>
       <c r="P36" s="5">
-        <v>0.53300000000000003</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="Q36" s="5">
         <v>0</v>
       </c>
       <c r="R36" s="5">
-        <v>0.14699999999999999</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="S36" s="5">
-        <v>2.3E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="T36" s="5">
         <v>0</v>
       </c>
       <c r="U36" s="5">
-        <v>0.24299999999999999</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="V36" s="5">
-        <v>4.8000000000000001E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="W36" s="5">
         <v>0</v>
@@ -7448,67 +7454,67 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D37">
-        <v>40</v>
-      </c>
-      <c r="E37">
-        <v>2359</v>
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="5">
+        <v>33</v>
+      </c>
+      <c r="E37" s="5">
+        <v>2366</v>
       </c>
       <c r="F37" s="5">
-        <v>8.7999999999999995E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="G37" s="5">
-        <v>2.1999999999999999E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H37" s="5">
         <v>0</v>
       </c>
       <c r="I37" s="5">
-        <v>8.3000000000000004E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="J37" s="5">
-        <v>-0.1</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="K37" s="5">
-        <v>0</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="L37" s="5">
-        <v>0.222</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="M37" s="5">
-        <v>6.6000000000000003E-2</v>
+        <v>0.06</v>
       </c>
       <c r="N37" s="5">
         <v>0</v>
       </c>
       <c r="O37" s="5">
-        <v>0.68</v>
+        <v>0.67200000000000004</v>
       </c>
       <c r="P37" s="5">
-        <v>0.54800000000000004</v>
+        <v>0.57299999999999995</v>
       </c>
       <c r="Q37" s="5">
         <v>0</v>
       </c>
       <c r="R37" s="5">
-        <v>0.23899999999999999</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="S37" s="5">
-        <v>3.9E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="T37" s="5">
         <v>0</v>
       </c>
       <c r="U37" s="5">
-        <v>0.432</v>
+        <v>0.24299999999999999</v>
       </c>
       <c r="V37" s="5">
-        <v>8.5999999999999993E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="W37" s="5">
         <v>0</v>
@@ -7519,69 +7525,69 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D38" s="6">
-        <v>263</v>
-      </c>
-      <c r="E38" s="6">
-        <v>2147</v>
-      </c>
-      <c r="F38" s="7">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G38" s="7">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="H38" s="7">
-        <v>0</v>
-      </c>
-      <c r="I38" s="7">
-        <v>-6.2E-2</v>
-      </c>
-      <c r="J38" s="7">
-        <v>-0.14299999999999999</v>
-      </c>
-      <c r="K38" s="7">
-        <v>0</v>
-      </c>
-      <c r="L38" s="7">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="M38" s="7">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="N38" s="7">
-        <v>0</v>
-      </c>
-      <c r="O38" s="7">
-        <v>0.56399999999999995</v>
-      </c>
-      <c r="P38" s="7">
-        <v>0.53100000000000003</v>
-      </c>
-      <c r="Q38" s="7">
-        <v>0</v>
-      </c>
-      <c r="R38" s="7">
-        <v>7.2999999999999995E-2</v>
-      </c>
-      <c r="S38" s="7">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="T38" s="7">
-        <v>0</v>
-      </c>
-      <c r="U38" s="7">
-        <v>0.14099999999999999</v>
-      </c>
-      <c r="V38" s="7">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="W38" s="7">
+        <v>36</v>
+      </c>
+      <c r="C38" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" s="5">
+        <v>197</v>
+      </c>
+      <c r="E38" s="5">
+        <v>2202</v>
+      </c>
+      <c r="F38" s="5">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="G38" s="5">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="H38" s="5">
+        <v>0</v>
+      </c>
+      <c r="I38" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="J38" s="5">
+        <v>1.4E-2</v>
+      </c>
+      <c r="K38" s="5">
+        <v>0</v>
+      </c>
+      <c r="L38" s="5">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="M38" s="5">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="N38" s="5">
+        <v>0</v>
+      </c>
+      <c r="O38" s="5">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="P38" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q38" s="5">
+        <v>0</v>
+      </c>
+      <c r="R38" s="5">
+        <v>0.115</v>
+      </c>
+      <c r="S38" s="5">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="T38" s="5">
+        <v>0</v>
+      </c>
+      <c r="U38" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="V38" s="5">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="W38" s="5">
         <v>0</v>
       </c>
     </row>
@@ -7590,140 +7596,140 @@
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>46</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D39">
-        <v>74</v>
-      </c>
-      <c r="E39">
-        <v>2325</v>
+        <v>36</v>
+      </c>
+      <c r="C39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" s="5">
+        <v>40</v>
+      </c>
+      <c r="E39" s="5">
+        <v>2359</v>
       </c>
       <c r="F39" s="5">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="G39" s="5">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="H39" s="5">
+        <v>0</v>
+      </c>
+      <c r="I39" s="5">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="J39" s="5">
+        <v>1.2E-2</v>
+      </c>
+      <c r="K39" s="5">
+        <v>0</v>
+      </c>
+      <c r="L39" s="5">
+        <v>0.192</v>
+      </c>
+      <c r="M39" s="5">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="N39" s="5">
+        <v>0</v>
+      </c>
+      <c r="O39" s="5">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="P39" s="5">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="Q39" s="5">
+        <v>0</v>
+      </c>
+      <c r="R39" s="5">
+        <v>0.156</v>
+      </c>
+      <c r="S39" s="5">
+        <v>1.6E-2</v>
+      </c>
+      <c r="T39" s="5">
+        <v>0</v>
+      </c>
+      <c r="U39" s="5">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="V39" s="5">
+        <v>3.1E-2</v>
+      </c>
+      <c r="W39" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D40" s="7">
+        <v>417</v>
+      </c>
+      <c r="E40" s="7">
+        <v>2061</v>
+      </c>
+      <c r="F40" s="7">
+        <v>3.9E-2</v>
+      </c>
+      <c r="G40" s="7">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="H40" s="7">
+        <v>0</v>
+      </c>
+      <c r="I40" s="7">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="J40" s="7">
+        <v>1.2E-2</v>
+      </c>
+      <c r="K40" s="7">
+        <v>0</v>
+      </c>
+      <c r="L40" s="7">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="M40" s="7">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="N40" s="7">
+        <v>0</v>
+      </c>
+      <c r="O40" s="7">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="P40" s="7">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="Q40" s="7">
+        <v>0</v>
+      </c>
+      <c r="R40" s="7">
+        <v>6.3E-2</v>
+      </c>
+      <c r="S40" s="7">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="T40" s="7">
+        <v>0</v>
+      </c>
+      <c r="U40" s="7">
+        <v>0.111</v>
+      </c>
+      <c r="V40" s="7">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="G39" s="5">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="H39" s="5">
-        <v>1.2E-2</v>
-      </c>
-      <c r="I39" s="5">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="J39" s="5">
-        <v>-0.108</v>
-      </c>
-      <c r="K39" s="5">
-        <v>0</v>
-      </c>
-      <c r="L39" s="5">
-        <v>0.125</v>
-      </c>
-      <c r="M39" s="5">
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="N39" s="5">
-        <v>0</v>
-      </c>
-      <c r="O39" s="5">
-        <v>0.59199999999999997</v>
-      </c>
-      <c r="P39" s="5">
-        <v>0.55700000000000005</v>
-      </c>
-      <c r="Q39" s="5">
-        <v>0</v>
-      </c>
-      <c r="R39" s="5">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="S39" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="T39" s="5">
-        <v>0</v>
-      </c>
-      <c r="U39" s="5">
-        <v>8.1000000000000003E-2</v>
-      </c>
-      <c r="V39" s="5">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="W39" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>35</v>
-      </c>
-      <c r="B40" t="s">
-        <v>46</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D40">
-        <v>60</v>
-      </c>
-      <c r="E40">
-        <v>2339</v>
-      </c>
-      <c r="F40" s="5">
-        <v>8.8999999999999996E-2</v>
-      </c>
-      <c r="G40" s="5">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="H40" s="5">
-        <v>0</v>
-      </c>
-      <c r="I40" s="5">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="J40" s="5">
-        <v>-9.6000000000000002E-2</v>
-      </c>
-      <c r="K40" s="5">
-        <v>0</v>
-      </c>
-      <c r="L40" s="5">
-        <v>0.182</v>
-      </c>
-      <c r="M40" s="5">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="N40" s="5">
-        <v>0</v>
-      </c>
-      <c r="O40" s="5">
-        <v>0.63400000000000001</v>
-      </c>
-      <c r="P40" s="5">
-        <v>0.56299999999999994</v>
-      </c>
-      <c r="Q40" s="5">
-        <v>0</v>
-      </c>
-      <c r="R40" s="5">
-        <v>0.111</v>
-      </c>
-      <c r="S40" s="5">
-        <v>2.7E-2</v>
-      </c>
-      <c r="T40" s="5">
-        <v>0</v>
-      </c>
-      <c r="U40" s="5">
-        <v>0.187</v>
-      </c>
-      <c r="V40" s="5">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="W40" s="5">
+      <c r="W40" s="7">
         <v>0</v>
       </c>
     </row>
@@ -7732,55 +7738,55 @@
         <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>46</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D41">
-        <v>272</v>
-      </c>
-      <c r="E41">
-        <v>2127</v>
+        <v>39</v>
+      </c>
+      <c r="C41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" s="5">
+        <v>13</v>
+      </c>
+      <c r="E41" s="5">
+        <v>2386</v>
       </c>
       <c r="F41" s="5">
-        <v>0.114</v>
+        <v>0.27400000000000002</v>
       </c>
       <c r="G41" s="5">
-        <v>3.1E-2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="H41" s="5">
         <v>0</v>
       </c>
       <c r="I41" s="5">
-        <v>0.13500000000000001</v>
+        <v>9.4E-2</v>
       </c>
       <c r="J41" s="5">
-        <v>-0.104</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="K41" s="5">
-        <v>0</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="L41" s="5">
-        <v>0.28100000000000003</v>
+        <v>0.223</v>
       </c>
       <c r="M41" s="5">
-        <v>8.1000000000000003E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="N41" s="5">
         <v>0</v>
       </c>
       <c r="O41" s="5">
-        <v>0.54400000000000004</v>
+        <v>0.751</v>
       </c>
       <c r="P41" s="5">
-        <v>0.53100000000000003</v>
+        <v>0.54100000000000004</v>
       </c>
       <c r="Q41" s="5">
         <v>0</v>
       </c>
       <c r="R41" s="5">
-        <v>8.1000000000000003E-2</v>
+        <v>0.309</v>
       </c>
       <c r="S41" s="5">
         <v>2.3E-2</v>
@@ -7789,7 +7795,7 @@
         <v>0</v>
       </c>
       <c r="U41" s="5">
-        <v>0.14899999999999999</v>
+        <v>0.47</v>
       </c>
       <c r="V41" s="5">
         <v>4.7E-2</v>
@@ -7803,67 +7809,67 @@
         <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>46</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D42">
-        <v>152</v>
-      </c>
-      <c r="E42">
-        <v>2247</v>
+        <v>39</v>
+      </c>
+      <c r="C42" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" s="5">
+        <v>151</v>
+      </c>
+      <c r="E42" s="5">
+        <v>2249</v>
       </c>
       <c r="F42" s="5">
-        <v>0.17199999999999999</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="G42" s="5">
-        <v>2.5000000000000001E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="H42" s="5">
         <v>0</v>
       </c>
       <c r="I42" s="5">
-        <v>-0.123</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="J42" s="5">
-        <v>-0.17699999999999999</v>
+        <v>1.2E-2</v>
       </c>
       <c r="K42" s="5">
         <v>0</v>
       </c>
       <c r="L42" s="5">
-        <v>0.28000000000000003</v>
+        <v>0.27700000000000002</v>
       </c>
       <c r="M42" s="5">
-        <v>7.0000000000000007E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="N42" s="5">
         <v>0</v>
       </c>
       <c r="O42" s="5">
-        <v>0.68</v>
+        <v>0.64200000000000002</v>
       </c>
       <c r="P42" s="5">
-        <v>0.53800000000000003</v>
+        <v>0.52700000000000002</v>
       </c>
       <c r="Q42" s="5">
         <v>0</v>
       </c>
       <c r="R42" s="5">
-        <v>0.17799999999999999</v>
+        <v>0.16900000000000001</v>
       </c>
       <c r="S42" s="5">
-        <v>3.4000000000000002E-2</v>
+        <v>0.02</v>
       </c>
       <c r="T42" s="5">
         <v>0</v>
       </c>
       <c r="U42" s="5">
-        <v>0.35499999999999998</v>
+        <v>0.28100000000000003</v>
       </c>
       <c r="V42" s="5">
-        <v>7.2999999999999995E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="W42" s="5">
         <v>0</v>
@@ -7874,67 +7880,67 @@
         <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>46</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D43">
-        <v>94</v>
-      </c>
-      <c r="E43">
-        <v>2305</v>
+        <v>39</v>
+      </c>
+      <c r="C43" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43" s="5">
+        <v>7</v>
+      </c>
+      <c r="E43" s="5">
+        <v>2392</v>
       </c>
       <c r="F43" s="5">
-        <v>5.1999999999999998E-2</v>
+        <v>0.248</v>
       </c>
       <c r="G43" s="5">
-        <v>1.7999999999999999E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="H43" s="5">
-        <v>0</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="I43" s="5">
-        <v>0.114</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="J43" s="5">
-        <v>-9.2999999999999999E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="K43" s="5">
-        <v>0</v>
+        <v>0.999</v>
       </c>
       <c r="L43" s="5">
-        <v>0.20699999999999999</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="M43" s="5">
-        <v>7.8E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="N43" s="5">
-        <v>0</v>
+        <v>0.23200000000000001</v>
       </c>
       <c r="O43" s="5">
-        <v>0.67400000000000004</v>
+        <v>0.64100000000000001</v>
       </c>
       <c r="P43" s="5">
-        <v>0.54100000000000004</v>
+        <v>0.55100000000000005</v>
       </c>
       <c r="Q43" s="5">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="R43" s="5">
-        <v>0.13400000000000001</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="S43" s="5">
-        <v>2.1999999999999999E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="T43" s="5">
         <v>0</v>
       </c>
       <c r="U43" s="5">
-        <v>0.23499999999999999</v>
+        <v>0.22600000000000001</v>
       </c>
       <c r="V43" s="5">
-        <v>4.4999999999999998E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="W43" s="5">
         <v>0</v>
@@ -7945,141 +7951,141 @@
         <v>35</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D44">
-        <v>246</v>
-      </c>
-      <c r="E44">
-        <v>2153</v>
+        <v>39</v>
+      </c>
+      <c r="C44" t="s">
+        <v>44</v>
+      </c>
+      <c r="D44" s="5">
+        <v>39</v>
+      </c>
+      <c r="E44" s="5">
+        <v>2360</v>
       </c>
       <c r="F44" s="5">
-        <v>7.0999999999999994E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="G44" s="5">
-        <v>0.02</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="H44" s="5">
         <v>0</v>
       </c>
       <c r="I44" s="5">
-        <v>3.9E-2</v>
+        <v>0.106</v>
       </c>
       <c r="J44" s="5">
-        <v>-0.113</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="K44" s="5">
         <v>0</v>
       </c>
       <c r="L44" s="5">
-        <v>0.155</v>
+        <v>0.216</v>
       </c>
       <c r="M44" s="5">
-        <v>8.2000000000000003E-2</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="N44" s="5">
         <v>0</v>
       </c>
       <c r="O44" s="5">
-        <v>0.626</v>
+        <v>0.59399999999999997</v>
       </c>
       <c r="P44" s="5">
-        <v>0.54200000000000004</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="Q44" s="5">
         <v>0</v>
       </c>
       <c r="R44" s="5">
-        <v>8.8999999999999996E-2</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="S44" s="5">
-        <v>2.1999999999999999E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="T44" s="5">
         <v>0</v>
       </c>
       <c r="U44" s="5">
-        <v>0.191</v>
+        <v>0.24299999999999999</v>
       </c>
       <c r="V44" s="5">
-        <v>4.3999999999999997E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="W44" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+      <c r="A45" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B45" t="s">
-        <v>46</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D45">
-        <v>13</v>
-      </c>
-      <c r="E45">
-        <v>2386</v>
-      </c>
-      <c r="F45" s="5">
-        <v>8.8999999999999996E-2</v>
-      </c>
-      <c r="G45" s="5">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="H45" s="5">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="I45" s="5">
-        <v>-0.113</v>
-      </c>
-      <c r="J45" s="5">
-        <v>-0.16300000000000001</v>
-      </c>
-      <c r="K45" s="5">
-        <v>0.80100000000000005</v>
-      </c>
-      <c r="L45" s="5">
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="M45" s="5">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="N45" s="5">
-        <v>0.57599999999999996</v>
-      </c>
-      <c r="O45" s="5">
-        <v>0.58199999999999996</v>
-      </c>
-      <c r="P45" s="5">
-        <v>0.55300000000000005</v>
-      </c>
-      <c r="Q45" s="5">
-        <v>0.29899999999999999</v>
-      </c>
-      <c r="R45" s="5">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="S45" s="5">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="T45" s="5">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="U45" s="5">
-        <v>0.13200000000000001</v>
-      </c>
-      <c r="V45" s="5">
-        <v>0.06</v>
-      </c>
-      <c r="W45" s="5">
-        <v>3.7999999999999999E-2</v>
+      <c r="B45" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D45" s="7">
+        <v>210</v>
+      </c>
+      <c r="E45" s="7">
+        <v>2204</v>
+      </c>
+      <c r="F45" s="7">
+        <v>6.2E-2</v>
+      </c>
+      <c r="G45" s="7">
+        <v>1.9E-2</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0</v>
+      </c>
+      <c r="I45" s="7">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="J45" s="7">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="K45" s="7">
+        <v>0</v>
+      </c>
+      <c r="L45" s="7">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="M45" s="7">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="N45" s="7">
+        <v>0</v>
+      </c>
+      <c r="O45" s="7">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="P45" s="7">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="Q45" s="7">
+        <v>0</v>
+      </c>
+      <c r="R45" s="7">
+        <v>0.122</v>
+      </c>
+      <c r="S45" s="7">
+        <v>1.9E-2</v>
+      </c>
+      <c r="T45" s="7">
+        <v>0</v>
+      </c>
+      <c r="U45" s="7">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="V45" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="W45" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.2">
@@ -8089,62 +8095,62 @@
       <c r="B46" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D46">
-        <v>62</v>
-      </c>
-      <c r="E46">
-        <v>2337</v>
+      <c r="C46" t="s">
+        <v>29</v>
+      </c>
+      <c r="D46" s="5">
+        <v>93</v>
+      </c>
+      <c r="E46" s="5">
+        <v>2306</v>
       </c>
       <c r="F46" s="5">
-        <v>0.106</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="G46" s="5">
-        <v>3.4000000000000002E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="H46" s="5">
         <v>0</v>
       </c>
       <c r="I46" s="5">
-        <v>-2E-3</v>
+        <v>0.114</v>
       </c>
       <c r="J46" s="5">
-        <v>-0.11700000000000001</v>
+        <v>1.6E-2</v>
       </c>
       <c r="K46" s="5">
         <v>0</v>
       </c>
       <c r="L46" s="5">
-        <v>0.17799999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="M46" s="5">
-        <v>8.8999999999999996E-2</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="N46" s="5">
         <v>0</v>
       </c>
       <c r="O46" s="5">
-        <v>0.56399999999999995</v>
+        <v>0.63500000000000001</v>
       </c>
       <c r="P46" s="5">
-        <v>0.54100000000000004</v>
+        <v>0.54200000000000004</v>
       </c>
       <c r="Q46" s="5">
         <v>0</v>
       </c>
       <c r="R46" s="5">
-        <v>5.8999999999999997E-2</v>
+        <v>0.105</v>
       </c>
       <c r="S46" s="5">
-        <v>2.4E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="T46" s="5">
         <v>0</v>
       </c>
       <c r="U46" s="5">
-        <v>0.115</v>
+        <v>0.189</v>
       </c>
       <c r="V46" s="5">
         <v>0.05</v>
@@ -8160,65 +8166,65 @@
       <c r="B47" t="s">
         <v>46</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D47">
-        <v>127</v>
-      </c>
-      <c r="E47">
-        <v>2272</v>
+      <c r="C47" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" s="5">
+        <v>60</v>
+      </c>
+      <c r="E47" s="5">
+        <v>2339</v>
       </c>
       <c r="F47" s="5">
-        <v>7.5999999999999998E-2</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="G47" s="5">
-        <v>2.1999999999999999E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="H47" s="5">
         <v>0</v>
       </c>
       <c r="I47" s="5">
-        <v>-2.5000000000000001E-2</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="J47" s="5">
-        <v>-0.13600000000000001</v>
+        <v>1.2E-2</v>
       </c>
       <c r="K47" s="5">
         <v>0</v>
       </c>
       <c r="L47" s="5">
-        <v>0.14499999999999999</v>
+        <v>0.182</v>
       </c>
       <c r="M47" s="5">
-        <v>7.6999999999999999E-2</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="N47" s="5">
         <v>0</v>
       </c>
       <c r="O47" s="5">
-        <v>0.61599999999999999</v>
+        <v>0.63400000000000001</v>
       </c>
       <c r="P47" s="5">
-        <v>0.55000000000000004</v>
+        <v>0.56299999999999994</v>
       </c>
       <c r="Q47" s="5">
         <v>0</v>
       </c>
       <c r="R47" s="5">
-        <v>8.5000000000000006E-2</v>
+        <v>0.111</v>
       </c>
       <c r="S47" s="5">
-        <v>2.5000000000000001E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="T47" s="5">
         <v>0</v>
       </c>
       <c r="U47" s="5">
-        <v>0.16400000000000001</v>
+        <v>0.187</v>
       </c>
       <c r="V47" s="5">
-        <v>5.1999999999999998E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="W47" s="5">
         <v>0</v>
@@ -8231,65 +8237,65 @@
       <c r="B48" t="s">
         <v>46</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D48">
-        <v>248</v>
-      </c>
-      <c r="E48">
-        <v>2151</v>
+      <c r="C48" t="s">
+        <v>49</v>
+      </c>
+      <c r="D48" s="5">
+        <v>272</v>
+      </c>
+      <c r="E48" s="5">
+        <v>2127</v>
       </c>
       <c r="F48" s="5">
-        <v>7.0000000000000007E-2</v>
+        <v>0.114</v>
       </c>
       <c r="G48" s="5">
-        <v>2.5000000000000001E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="H48" s="5">
         <v>0</v>
       </c>
       <c r="I48" s="5">
-        <v>7.5999999999999998E-2</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="J48" s="5">
-        <v>-0.104</v>
+        <v>1.4E-2</v>
       </c>
       <c r="K48" s="5">
         <v>0</v>
       </c>
       <c r="L48" s="5">
-        <v>0.17100000000000001</v>
+        <v>0.28100000000000003</v>
       </c>
       <c r="M48" s="5">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="N48" s="5">
         <v>0</v>
       </c>
       <c r="O48" s="5">
-        <v>0.63800000000000001</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="P48" s="5">
-        <v>0.54600000000000004</v>
+        <v>0.53100000000000003</v>
       </c>
       <c r="Q48" s="5">
         <v>0</v>
       </c>
       <c r="R48" s="5">
-        <v>0.1</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="S48" s="5">
-        <v>0.02</v>
+        <v>2.3E-2</v>
       </c>
       <c r="T48" s="5">
         <v>0</v>
       </c>
       <c r="U48" s="5">
-        <v>0.159</v>
+        <v>0.14899999999999999</v>
       </c>
       <c r="V48" s="5">
-        <v>3.7999999999999999E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="W48" s="5">
         <v>0</v>
@@ -8302,17 +8308,17 @@
       <c r="B49" t="s">
         <v>46</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D49">
-        <v>199</v>
-      </c>
-      <c r="E49">
-        <v>2200</v>
+      <c r="C49" t="s">
+        <v>51</v>
+      </c>
+      <c r="D49" s="5">
+        <v>94</v>
+      </c>
+      <c r="E49" s="5">
+        <v>2305</v>
       </c>
       <c r="F49" s="5">
-        <v>7.5999999999999998E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="G49" s="5">
         <v>1.7999999999999999E-2</v>
@@ -8321,46 +8327,46 @@
         <v>0</v>
       </c>
       <c r="I49" s="5">
-        <v>5.2999999999999999E-2</v>
+        <v>0.114</v>
       </c>
       <c r="J49" s="5">
-        <v>-0.113</v>
+        <v>1.6E-2</v>
       </c>
       <c r="K49" s="5">
         <v>0</v>
       </c>
       <c r="L49" s="5">
-        <v>0.16</v>
+        <v>0.20699999999999999</v>
       </c>
       <c r="M49" s="5">
-        <v>8.4000000000000005E-2</v>
+        <v>7.8E-2</v>
       </c>
       <c r="N49" s="5">
         <v>0</v>
       </c>
       <c r="O49" s="5">
-        <v>0.622</v>
+        <v>0.67400000000000004</v>
       </c>
       <c r="P49" s="5">
-        <v>0.54900000000000004</v>
+        <v>0.54100000000000004</v>
       </c>
       <c r="Q49" s="5">
         <v>0</v>
       </c>
       <c r="R49" s="5">
-        <v>0.10299999999999999</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="S49" s="5">
-        <v>2.5000000000000001E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="T49" s="5">
         <v>0</v>
       </c>
       <c r="U49" s="5">
-        <v>0.19500000000000001</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="V49" s="5">
-        <v>0.05</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="W49" s="5">
         <v>0</v>
@@ -8373,65 +8379,65 @@
       <c r="B50" t="s">
         <v>46</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D50">
-        <v>197</v>
-      </c>
-      <c r="E50">
-        <v>2202</v>
+      <c r="C50" t="s">
+        <v>52</v>
+      </c>
+      <c r="D50" s="5">
+        <v>246</v>
+      </c>
+      <c r="E50" s="5">
+        <v>2153</v>
       </c>
       <c r="F50" s="5">
         <v>7.0999999999999994E-2</v>
       </c>
       <c r="G50" s="5">
-        <v>2.1000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="H50" s="5">
         <v>0</v>
       </c>
       <c r="I50" s="5">
-        <v>0.09</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="J50" s="5">
-        <v>-0.1</v>
+        <v>1.6E-2</v>
       </c>
       <c r="K50" s="5">
         <v>0</v>
       </c>
       <c r="L50" s="5">
-        <v>0.21199999999999999</v>
+        <v>0.155</v>
       </c>
       <c r="M50" s="5">
-        <v>8.3000000000000004E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="N50" s="5">
         <v>0</v>
       </c>
       <c r="O50" s="5">
-        <v>0.61299999999999999</v>
+        <v>0.626</v>
       </c>
       <c r="P50" s="5">
-        <v>0.55000000000000004</v>
+        <v>0.54200000000000004</v>
       </c>
       <c r="Q50" s="5">
         <v>0</v>
       </c>
       <c r="R50" s="5">
-        <v>0.115</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="S50" s="5">
-        <v>2.1000000000000001E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="T50" s="5">
         <v>0</v>
       </c>
       <c r="U50" s="5">
-        <v>0.19</v>
+        <v>0.191</v>
       </c>
       <c r="V50" s="5">
-        <v>4.2999999999999997E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="W50" s="5">
         <v>0</v>
@@ -8444,65 +8450,65 @@
       <c r="B51" t="s">
         <v>46</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D51">
-        <v>77</v>
-      </c>
-      <c r="E51">
-        <v>2322</v>
+      <c r="C51" t="s">
+        <v>54</v>
+      </c>
+      <c r="D51" s="5">
+        <v>62</v>
+      </c>
+      <c r="E51" s="5">
+        <v>2337</v>
       </c>
       <c r="F51" s="5">
+        <v>0.106</v>
+      </c>
+      <c r="G51" s="5">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="G51" s="5">
-        <v>0.01</v>
-      </c>
       <c r="H51" s="5">
         <v>0</v>
       </c>
       <c r="I51" s="5">
-        <v>-3.7999999999999999E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="J51" s="5">
-        <v>-0.13200000000000001</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="K51" s="5">
         <v>0</v>
       </c>
       <c r="L51" s="5">
-        <v>0.11600000000000001</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="M51" s="5">
-        <v>6.8000000000000005E-2</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="N51" s="5">
         <v>0</v>
       </c>
       <c r="O51" s="5">
-        <v>0.63500000000000001</v>
+        <v>0.56399999999999995</v>
       </c>
       <c r="P51" s="5">
-        <v>0.55900000000000005</v>
+        <v>0.54100000000000004</v>
       </c>
       <c r="Q51" s="5">
         <v>0</v>
       </c>
       <c r="R51" s="5">
-        <v>7.8E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="S51" s="5">
-        <v>1.9E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="T51" s="5">
         <v>0</v>
       </c>
       <c r="U51" s="5">
-        <v>0.14499999999999999</v>
+        <v>0.115</v>
       </c>
       <c r="V51" s="5">
-        <v>3.9E-2</v>
+        <v>0.05</v>
       </c>
       <c r="W51" s="5">
         <v>0</v>
@@ -8515,62 +8521,62 @@
       <c r="B52" t="s">
         <v>46</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D52">
-        <v>97</v>
-      </c>
-      <c r="E52">
-        <v>2302</v>
+      <c r="C52" t="s">
+        <v>55</v>
+      </c>
+      <c r="D52" s="5">
+        <v>127</v>
+      </c>
+      <c r="E52" s="5">
+        <v>2272</v>
       </c>
       <c r="F52" s="5">
-        <v>3.4000000000000002E-2</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="G52" s="5">
-        <v>1.9E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="H52" s="5">
         <v>0</v>
       </c>
       <c r="I52" s="5">
-        <v>0</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="J52" s="5">
-        <v>-0.11</v>
+        <v>1.4E-2</v>
       </c>
       <c r="K52" s="5">
         <v>0</v>
       </c>
       <c r="L52" s="5">
-        <v>0.123</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="M52" s="5">
-        <v>0.08</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="N52" s="5">
         <v>0</v>
       </c>
       <c r="O52" s="5">
-        <v>0.60599999999999998</v>
+        <v>0.61599999999999999</v>
       </c>
       <c r="P52" s="5">
-        <v>0.54700000000000004</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Q52" s="5">
         <v>0</v>
       </c>
       <c r="R52" s="5">
-        <v>7.0000000000000007E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="S52" s="5">
-        <v>2.4E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="T52" s="5">
         <v>0</v>
       </c>
       <c r="U52" s="5">
-        <v>0.14299999999999999</v>
+        <v>0.16400000000000001</v>
       </c>
       <c r="V52" s="5">
         <v>5.1999999999999998E-2</v>
@@ -8586,65 +8592,65 @@
       <c r="B53" t="s">
         <v>46</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D53">
-        <v>71</v>
-      </c>
-      <c r="E53">
-        <v>2328</v>
+      <c r="C53" t="s">
+        <v>56</v>
+      </c>
+      <c r="D53" s="5">
+        <v>248</v>
+      </c>
+      <c r="E53" s="5">
+        <v>2151</v>
       </c>
       <c r="F53" s="5">
-        <v>6.9000000000000006E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G53" s="5">
-        <v>2.1000000000000001E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="H53" s="5">
         <v>0</v>
       </c>
       <c r="I53" s="5">
-        <v>-0.29499999999999998</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="J53" s="5">
-        <v>-0.247</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="K53" s="5">
         <v>0</v>
       </c>
       <c r="L53" s="5">
-        <v>7.9000000000000001E-2</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="M53" s="5">
-        <v>5.3999999999999999E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="N53" s="5">
         <v>0</v>
       </c>
       <c r="O53" s="5">
-        <v>0.65700000000000003</v>
+        <v>0.63800000000000001</v>
       </c>
       <c r="P53" s="5">
-        <v>0.54200000000000004</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="Q53" s="5">
         <v>0</v>
       </c>
       <c r="R53" s="5">
-        <v>0.17399999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="S53" s="5">
-        <v>3.4000000000000002E-2</v>
+        <v>0.02</v>
       </c>
       <c r="T53" s="5">
         <v>0</v>
       </c>
       <c r="U53" s="5">
-        <v>0.32600000000000001</v>
+        <v>0.159</v>
       </c>
       <c r="V53" s="5">
-        <v>7.2999999999999995E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="W53" s="5">
         <v>0</v>
@@ -8657,67 +8663,138 @@
       <c r="B54" t="s">
         <v>46</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" t="s">
+        <v>57</v>
+      </c>
+      <c r="D54" s="5">
+        <v>199</v>
+      </c>
+      <c r="E54" s="5">
+        <v>2200</v>
+      </c>
+      <c r="F54" s="5">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="G54" s="5">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="H54" s="5">
+        <v>0</v>
+      </c>
+      <c r="I54" s="5">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="J54" s="5">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="K54" s="5">
+        <v>0</v>
+      </c>
+      <c r="L54" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="M54" s="5">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="N54" s="5">
+        <v>0</v>
+      </c>
+      <c r="O54" s="5">
+        <v>0.622</v>
+      </c>
+      <c r="P54" s="5">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="Q54" s="5">
+        <v>0</v>
+      </c>
+      <c r="R54" s="5">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="S54" s="5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="T54" s="5">
+        <v>0</v>
+      </c>
+      <c r="U54" s="5">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="V54" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="W54" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A55" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C55" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D54" s="6">
-        <v>1989</v>
-      </c>
-      <c r="E54" s="6">
-        <v>1230</v>
-      </c>
-      <c r="F54" s="7">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="G54" s="7">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="H54" s="7">
-        <v>0</v>
-      </c>
-      <c r="I54" s="7">
-        <v>-4.8000000000000001E-2</v>
-      </c>
-      <c r="J54" s="7">
-        <v>-0.193</v>
-      </c>
-      <c r="K54" s="7">
-        <v>0</v>
-      </c>
-      <c r="L54" s="7">
-        <v>0.105</v>
-      </c>
-      <c r="M54" s="7">
-        <v>6.2E-2</v>
-      </c>
-      <c r="N54" s="7">
-        <v>0</v>
-      </c>
-      <c r="O54" s="7">
-        <v>0.55600000000000005</v>
-      </c>
-      <c r="P54" s="7">
-        <v>0.54500000000000004</v>
-      </c>
-      <c r="Q54" s="7">
-        <v>0</v>
-      </c>
-      <c r="R54" s="7">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="S54" s="7">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="T54" s="7">
-        <v>0</v>
-      </c>
-      <c r="U54" s="7">
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="V54" s="7">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="W54" s="7">
+      <c r="D55" s="7">
+        <v>1401</v>
+      </c>
+      <c r="E55" s="7">
+        <v>1581</v>
+      </c>
+      <c r="F55" s="7">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="G55" s="7">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="H55" s="7">
+        <v>0</v>
+      </c>
+      <c r="I55" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="J55" s="7">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="K55" s="7">
+        <v>0</v>
+      </c>
+      <c r="L55" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="M55" s="7">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="N55" s="7">
+        <v>0</v>
+      </c>
+      <c r="O55" s="7">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="P55" s="7">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="Q55" s="7">
+        <v>0</v>
+      </c>
+      <c r="R55" s="7">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="S55" s="7">
+        <v>1.9E-2</v>
+      </c>
+      <c r="T55" s="7">
+        <v>0</v>
+      </c>
+      <c r="U55" s="7">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="V55" s="7">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="W55" s="7">
         <v>0</v>
       </c>
     </row>
